--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B899C-C822-5348-80BB-535AE9399616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BEC824-6B4F-DB44-8DBA-996994D998BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$J$43:$J$54</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$K$43:$K$54</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>running sum</t>
   </si>
@@ -452,408 +448,9 @@
     <t>My Beautiful Dark Twisted Fantasy</t>
   </si>
   <si>
-    <t>Stokeley</t>
-  </si>
-  <si>
-    <t>beerbongs &amp; bentleys</t>
-  </si>
-  <si>
     <t>Melt My Eyez See Your Future</t>
   </si>
   <si>
-    <t>Life After Death</t>
-  </si>
-  <si>
-    <t>Run The Jewels 2</t>
-  </si>
-  <si>
-    <t>It's Almost Dry</t>
-  </si>
-  <si>
-    <t>Ginger</t>
-  </si>
-  <si>
-    <t>Ventura</t>
-  </si>
-  <si>
-    <t>i, i</t>
-  </si>
-  <si>
-    <t>Funeral</t>
-  </si>
-  <si>
-    <t>The Piper at the Gates of Dawn</t>
-  </si>
-  <si>
-    <t>Can't Buy a Thrill</t>
-  </si>
-  <si>
-    <t>Hotel California</t>
-  </si>
-  <si>
-    <t>Revolver</t>
-  </si>
-  <si>
-    <t>Cosmogramma</t>
-  </si>
-  <si>
-    <t>American Dream</t>
-  </si>
-  <si>
-    <t>Teen Dream</t>
-  </si>
-  <si>
-    <t>You Won't Get What You Want</t>
-  </si>
-  <si>
-    <t>Thumbs</t>
-  </si>
-  <si>
-    <t>King's Disease</t>
-  </si>
-  <si>
-    <t>ZUU</t>
-  </si>
-  <si>
-    <t>Yeezus</t>
-  </si>
-  <si>
-    <t>Rodeo</t>
-  </si>
-  <si>
-    <t>Sea When Absent</t>
-  </si>
-  <si>
-    <t>Led Zeppelin IV</t>
-  </si>
-  <si>
-    <t>Are You Experienced?</t>
-  </si>
-  <si>
-    <t>The Rise and Fall of Ziggy Stardust</t>
-  </si>
-  <si>
-    <t>Meddle</t>
-  </si>
-  <si>
-    <t>Comfort Eagle</t>
-  </si>
-  <si>
-    <t>Rubber Factory</t>
-  </si>
-  <si>
-    <t>Chutes Too Narrow</t>
-  </si>
-  <si>
-    <t>Sling</t>
-  </si>
-  <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>Summetime '06</t>
-  </si>
-  <si>
-    <t>Atrocity Exhibition</t>
-  </si>
-  <si>
-    <t>Run The Jewels 3</t>
-  </si>
-  <si>
-    <t>electricity is on our side</t>
-  </si>
-  <si>
-    <t>In Tongues (Deluxe)</t>
-  </si>
-  <si>
-    <t>untitled unmastered</t>
-  </si>
-  <si>
-    <t>The Slow Rush</t>
-  </si>
-  <si>
-    <t>Gorillaz</t>
-  </si>
-  <si>
-    <t>Meteora</t>
-  </si>
-  <si>
-    <t>To Be Kind</t>
-  </si>
-  <si>
-    <t>The Money Store</t>
-  </si>
-  <si>
-    <t>All Eyez on Me</t>
-  </si>
-  <si>
-    <t>MM…FOOD</t>
-  </si>
-  <si>
-    <t>RTJ4</t>
-  </si>
-  <si>
-    <t>In The Aeroplane Over the Sea</t>
-  </si>
-  <si>
-    <t>Sometimes I Sit and Think, and Sometimes I Just Sit</t>
-  </si>
-  <si>
-    <t>Rumours</t>
-  </si>
-  <si>
-    <t>House of the Holy</t>
-  </si>
-  <si>
-    <t>Dead Cities, Red Seas &amp; Lost Ghosts</t>
-  </si>
-  <si>
-    <t>Injury Reserve</t>
-  </si>
-  <si>
-    <t>Paid in Full</t>
-  </si>
-  <si>
-    <t>Strictly Business</t>
-  </si>
-  <si>
-    <t>Blueprint</t>
-  </si>
-  <si>
-    <t>The Chronic</t>
-  </si>
-  <si>
-    <t>It's Dark and Hell is Hot</t>
-  </si>
-  <si>
-    <t>The Life of Pablo</t>
-  </si>
-  <si>
-    <t>Limbo</t>
-  </si>
-  <si>
-    <t>King's Disease II</t>
-  </si>
-  <si>
-    <t>The Never Story</t>
-  </si>
-  <si>
-    <t>Call Me If You Get Lost</t>
-  </si>
-  <si>
-    <t>Emotion</t>
-  </si>
-  <si>
-    <t>Voodoo</t>
-  </si>
-  <si>
-    <t>Shore</t>
-  </si>
-  <si>
-    <t>Odelay</t>
-  </si>
-  <si>
-    <t>Spirit of Eden</t>
-  </si>
-  <si>
-    <t>Pretzel Logic</t>
-  </si>
-  <si>
-    <t>Physical Graffiti</t>
-  </si>
-  <si>
-    <t>The White Album</t>
-  </si>
-  <si>
-    <t>Out of the Blue</t>
-  </si>
-  <si>
-    <t>Station to Station</t>
-  </si>
-  <si>
-    <t>Beggar's Banquet</t>
-  </si>
-  <si>
-    <t>The Royal Scam</t>
-  </si>
-  <si>
-    <t>Oh, Inverted World</t>
-  </si>
-  <si>
-    <t>Melophobia</t>
-  </si>
-  <si>
-    <t>Torches</t>
-  </si>
-  <si>
-    <t>Dawn FM</t>
-  </si>
-  <si>
-    <t>Sour</t>
-  </si>
-  <si>
-    <t>Beautiful People Will Ruin Your Life</t>
-  </si>
-  <si>
-    <t>Nectar</t>
-  </si>
-  <si>
-    <t>Landmark</t>
-  </si>
-  <si>
-    <t>Sweetener</t>
-  </si>
-  <si>
-    <t>Dopamine</t>
-  </si>
-  <si>
-    <t>Starboy</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Veteran</t>
-  </si>
-  <si>
-    <t>Is He Real?</t>
-  </si>
-  <si>
-    <t>ye</t>
-  </si>
-  <si>
-    <t>Lush</t>
-  </si>
-  <si>
-    <t>Twin Fantasy</t>
-  </si>
-  <si>
-    <t>American Football</t>
-  </si>
-  <si>
-    <t>Apollo XXI</t>
-  </si>
-  <si>
-    <t>Weezer (white)</t>
-  </si>
-  <si>
-    <t>Showroom of Compassion</t>
-  </si>
-  <si>
-    <t>Wincing the Night Away</t>
-  </si>
-  <si>
-    <t>Sea Change</t>
-  </si>
-  <si>
-    <t>The Suburbs</t>
-  </si>
-  <si>
-    <t>Obscured by Clouds</t>
-  </si>
-  <si>
-    <t>Aquemini</t>
-  </si>
-  <si>
-    <t>The Black Album</t>
-  </si>
-  <si>
-    <t>cilvia demo</t>
-  </si>
-  <si>
-    <t>Big Fish Theory</t>
-  </si>
-  <si>
-    <t>Unlocked</t>
-  </si>
-  <si>
-    <t>Follow the Leader</t>
-  </si>
-  <si>
-    <t>Enter the Wu-Tang (36 Chambers)</t>
-  </si>
-  <si>
-    <t>Donda</t>
-  </si>
-  <si>
-    <t>Birdie</t>
-  </si>
-  <si>
-    <t>Permanent Waves</t>
-  </si>
-  <si>
-    <t>Madman Across the Water</t>
-  </si>
-  <si>
-    <t>In Through the Out Door</t>
-  </si>
-  <si>
-    <t>Electric Ladyland</t>
-  </si>
-  <si>
-    <t>Aja</t>
-  </si>
-  <si>
-    <t>Port of Morrow</t>
-  </si>
-  <si>
-    <t>Titanic Rising</t>
-  </si>
-  <si>
-    <t>Guero</t>
-  </si>
-  <si>
-    <t>Sinner Get Ready</t>
-  </si>
-  <si>
-    <t>Melodrama</t>
-  </si>
-  <si>
-    <t>Care For Me</t>
-  </si>
-  <si>
-    <t>Blue Madonna</t>
-  </si>
-  <si>
-    <t>Bambi</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Phoenix</t>
-  </si>
-  <si>
-    <t>OK Human</t>
-  </si>
-  <si>
-    <t>Supermodel</t>
-  </si>
-  <si>
-    <t>The Mollusk</t>
-  </si>
-  <si>
-    <t>Dirty Computer</t>
-  </si>
-  <si>
-    <t>Before the Dawn Heals Us</t>
-  </si>
-  <si>
-    <t>Nefertiti</t>
-  </si>
-  <si>
-    <t>Honky Chateau</t>
-  </si>
-  <si>
-    <t>Purple Rain</t>
-  </si>
-  <si>
-    <t>Moving Pictures</t>
-  </si>
-  <si>
-    <t>Ten</t>
-  </si>
-  <si>
-    <t>Master of Puppets</t>
-  </si>
-  <si>
     <t>RAMONA PARK BROKE MY HEART</t>
   </si>
   <si>
@@ -894,6 +491,12 @@
   </si>
   <si>
     <t>december</t>
+  </si>
+  <si>
+    <t>Blue Lines</t>
+  </si>
+  <si>
+    <t>Boy in Da Corner</t>
   </si>
 </sst>
 </file>
@@ -901,7 +504,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -953,7 +556,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1482,694 +1085,694 @@
                   <c:v>3.6074074074074076</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.5808823529411766</c:v>
+                  <c:v>3.6029411764705883</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.5547445255474455</c:v>
+                  <c:v>3.605839416058394</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.5289855072463769</c:v>
+                  <c:v>3.5942028985507246</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.5035971223021583</c:v>
+                  <c:v>3.5971223021582732</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.4785714285714286</c:v>
+                  <c:v>3.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.4539007092198584</c:v>
+                  <c:v>3.5460992907801416</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.4295774647887325</c:v>
+                  <c:v>3.5211267605633805</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.4055944055944054</c:v>
+                  <c:v>3.4965034965034967</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.3819444444444446</c:v>
+                  <c:v>3.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.3586206896551722</c:v>
+                  <c:v>3.4482758620689653</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3356164383561642</c:v>
+                  <c:v>3.4246575342465753</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.3129251700680271</c:v>
+                  <c:v>3.4013605442176869</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.2905405405405403</c:v>
+                  <c:v>3.3783783783783785</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.2684563758389262</c:v>
+                  <c:v>3.3557046979865772</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.2466666666666666</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.2251655629139071</c:v>
+                  <c:v>3.3112582781456954</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.2039473684210527</c:v>
+                  <c:v>3.2894736842105261</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.1830065359477122</c:v>
+                  <c:v>3.2679738562091503</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.1623376623376624</c:v>
+                  <c:v>3.2467532467532467</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.1419354838709679</c:v>
+                  <c:v>3.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.1217948717948718</c:v>
+                  <c:v>3.2051282051282053</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.1019108280254777</c:v>
+                  <c:v>3.1847133757961785</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.0822784810126582</c:v>
+                  <c:v>3.1645569620253164</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.0628930817610063</c:v>
+                  <c:v>3.1446540880503147</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.0437500000000002</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.0248447204968945</c:v>
+                  <c:v>3.1055900621118013</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.0061728395061729</c:v>
+                  <c:v>3.0864197530864197</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.9877300613496933</c:v>
+                  <c:v>3.0674846625766872</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.9695121951219514</c:v>
+                  <c:v>3.0487804878048781</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.9515151515151516</c:v>
+                  <c:v>3.0303030303030303</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.9337349397590362</c:v>
+                  <c:v>3.0120481927710845</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.9161676646706587</c:v>
+                  <c:v>2.9940119760479043</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.8988095238095237</c:v>
+                  <c:v>2.9761904761904763</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.8816568047337277</c:v>
+                  <c:v>2.9585798816568047</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.8647058823529412</c:v>
+                  <c:v>2.9411764705882355</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.8479532163742691</c:v>
+                  <c:v>2.9239766081871346</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.8313953488372094</c:v>
+                  <c:v>2.9069767441860463</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.8150289017341041</c:v>
+                  <c:v>2.8901734104046244</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.7988505747126435</c:v>
+                  <c:v>2.8735632183908044</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.7828571428571429</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.7670454545454546</c:v>
+                  <c:v>2.8409090909090908</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.7514124293785311</c:v>
+                  <c:v>2.8248587570621471</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.7359550561797752</c:v>
+                  <c:v>2.808988764044944</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.7206703910614527</c:v>
+                  <c:v>2.7932960893854748</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.7055555555555557</c:v>
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.6906077348066297</c:v>
+                  <c:v>2.7624309392265194</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.6758241758241756</c:v>
+                  <c:v>2.7472527472527473</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.6612021857923498</c:v>
+                  <c:v>2.7322404371584699</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.6467391304347827</c:v>
+                  <c:v>2.7173913043478262</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.6324324324324326</c:v>
+                  <c:v>2.7027027027027026</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.618279569892473</c:v>
+                  <c:v>2.6881720430107525</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.6042780748663104</c:v>
+                  <c:v>2.6737967914438503</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.5904255319148937</c:v>
+                  <c:v>2.6595744680851063</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.5767195767195767</c:v>
+                  <c:v>2.6455026455026456</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.5631578947368423</c:v>
+                  <c:v>2.6315789473684212</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.5497382198952878</c:v>
+                  <c:v>2.6178010471204187</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.5364583333333335</c:v>
+                  <c:v>2.6041666666666665</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.5233160621761659</c:v>
+                  <c:v>2.5906735751295336</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.5103092783505154</c:v>
+                  <c:v>2.5773195876288661</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.4974358974358974</c:v>
+                  <c:v>2.5641025641025643</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.4846938775510203</c:v>
+                  <c:v>2.5510204081632653</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.4720812182741119</c:v>
+                  <c:v>2.5380710659898478</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.4595959595959598</c:v>
+                  <c:v>2.5252525252525251</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.4472361809045227</c:v>
+                  <c:v>2.512562814070352</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.4350000000000001</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.4228855721393034</c:v>
+                  <c:v>2.4875621890547261</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.4108910891089108</c:v>
+                  <c:v>2.4752475247524752</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.3990147783251232</c:v>
+                  <c:v>2.4630541871921183</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.3872549019607843</c:v>
+                  <c:v>2.4509803921568629</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.3756097560975609</c:v>
+                  <c:v>2.4390243902439024</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.3640776699029127</c:v>
+                  <c:v>2.4271844660194173</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.3526570048309177</c:v>
+                  <c:v>2.4154589371980677</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.3413461538461537</c:v>
+                  <c:v>2.4038461538461537</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.3301435406698565</c:v>
+                  <c:v>2.3923444976076556</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.3190476190476192</c:v>
+                  <c:v>2.3809523809523809</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.3080568720379149</c:v>
+                  <c:v>2.3696682464454977</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.2971698113207548</c:v>
+                  <c:v>2.358490566037736</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.2863849765258215</c:v>
+                  <c:v>2.347417840375587</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.2757009345794392</c:v>
+                  <c:v>2.3364485981308412</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.2651162790697676</c:v>
+                  <c:v>2.3255813953488373</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.2546296296296298</c:v>
+                  <c:v>2.3148148148148149</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.2442396313364057</c:v>
+                  <c:v>2.3041474654377878</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.2339449541284404</c:v>
+                  <c:v>2.2935779816513762</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.2237442922374431</c:v>
+                  <c:v>2.2831050228310503</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.2136363636363638</c:v>
+                  <c:v>2.2727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.2036199095022626</c:v>
+                  <c:v>2.2624434389140271</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.1936936936936937</c:v>
+                  <c:v>2.2522522522522523</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.1838565022421523</c:v>
+                  <c:v>2.2421524663677128</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.1741071428571428</c:v>
+                  <c:v>2.2321428571428572</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.1644444444444444</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.1548672566371683</c:v>
+                  <c:v>2.2123893805309733</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.1453744493392071</c:v>
+                  <c:v>2.2026431718061672</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.1359649122807016</c:v>
+                  <c:v>2.192982456140351</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.126637554585153</c:v>
+                  <c:v>2.1834061135371181</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.1173913043478261</c:v>
+                  <c:v>2.1739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.1082251082251084</c:v>
+                  <c:v>2.1645021645021645</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.0991379310344827</c:v>
+                  <c:v>2.1551724137931036</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.0901287553648067</c:v>
+                  <c:v>2.1459227467811157</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.0811965811965814</c:v>
+                  <c:v>2.1367521367521367</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.0723404255319151</c:v>
+                  <c:v>2.1276595744680851</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.0635593220338984</c:v>
+                  <c:v>2.1186440677966103</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.0548523206751055</c:v>
+                  <c:v>2.109704641350211</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.0462184873949578</c:v>
+                  <c:v>2.1008403361344539</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.0376569037656904</c:v>
+                  <c:v>2.0920502092050208</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.0291666666666668</c:v>
+                  <c:v>2.0833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.0207468879668049</c:v>
+                  <c:v>2.0746887966804981</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.0123966942148761</c:v>
+                  <c:v>2.0661157024793386</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.0041152263374484</c:v>
+                  <c:v>2.0576131687242798</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1.9959016393442623</c:v>
+                  <c:v>2.0491803278688523</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.9877551020408164</c:v>
+                  <c:v>2.0408163265306123</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.9796747967479675</c:v>
+                  <c:v>2.0325203252032522</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1.9716599190283401</c:v>
+                  <c:v>2.0242914979757085</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.9637096774193548</c:v>
+                  <c:v>2.0161290322580645</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1.9558232931726907</c:v>
+                  <c:v>2.0080321285140563</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.948</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.9402390438247012</c:v>
+                  <c:v>1.9920318725099602</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.9325396825396826</c:v>
+                  <c:v>1.9841269841269842</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.924901185770751</c:v>
+                  <c:v>1.9762845849802371</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.9173228346456692</c:v>
+                  <c:v>1.9685039370078741</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.9098039215686275</c:v>
+                  <c:v>1.9607843137254901</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.90234375</c:v>
+                  <c:v>1.953125</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.8949416342412451</c:v>
+                  <c:v>1.9455252918287937</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.8875968992248062</c:v>
+                  <c:v>1.9379844961240309</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.8803088803088803</c:v>
+                  <c:v>1.9305019305019304</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.8730769230769231</c:v>
+                  <c:v>1.9230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.8659003831417624</c:v>
+                  <c:v>1.9157088122605364</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.8587786259541985</c:v>
+                  <c:v>1.9083969465648856</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.8517110266159695</c:v>
+                  <c:v>1.9011406844106464</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.8446969696969697</c:v>
+                  <c:v>1.893939393939394</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.8377358490566038</c:v>
+                  <c:v>1.8867924528301887</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.8308270676691729</c:v>
+                  <c:v>1.8796992481203008</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.8239700374531835</c:v>
+                  <c:v>1.8726591760299625</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.8171641791044777</c:v>
+                  <c:v>1.8656716417910448</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.8104089219330854</c:v>
+                  <c:v>1.8587360594795539</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.8037037037037038</c:v>
+                  <c:v>1.8518518518518519</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.7970479704797049</c:v>
+                  <c:v>1.8450184501845019</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.7904411764705883</c:v>
+                  <c:v>1.838235294117647</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.783882783882784</c:v>
+                  <c:v>1.8315018315018314</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.7773722627737227</c:v>
+                  <c:v>1.8248175182481752</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.770909090909091</c:v>
+                  <c:v>1.8181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.7644927536231885</c:v>
+                  <c:v>1.8115942028985508</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.7581227436823104</c:v>
+                  <c:v>1.8050541516245486</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.7517985611510791</c:v>
+                  <c:v>1.7985611510791366</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.7455197132616487</c:v>
+                  <c:v>1.7921146953405018</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.7392857142857143</c:v>
+                  <c:v>1.7857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.7330960854092528</c:v>
+                  <c:v>1.7793594306049823</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.7269503546099292</c:v>
+                  <c:v>1.7730496453900708</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.7208480565371025</c:v>
+                  <c:v>1.7667844522968197</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.7147887323943662</c:v>
+                  <c:v>1.7605633802816902</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.7087719298245614</c:v>
+                  <c:v>1.7543859649122806</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.7027972027972027</c:v>
+                  <c:v>1.7482517482517483</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.6968641114982579</c:v>
+                  <c:v>1.7421602787456445</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.6909722222222223</c:v>
+                  <c:v>1.7361111111111112</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.685121107266436</c:v>
+                  <c:v>1.7301038062283738</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.6793103448275861</c:v>
+                  <c:v>1.7241379310344827</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.6735395189003437</c:v>
+                  <c:v>1.7182130584192439</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.6678082191780821</c:v>
+                  <c:v>1.7123287671232876</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.6621160409556315</c:v>
+                  <c:v>1.7064846416382253</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.6564625850340136</c:v>
+                  <c:v>1.7006802721088434</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.6508474576271186</c:v>
+                  <c:v>1.6949152542372881</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.6452702702702702</c:v>
+                  <c:v>1.6891891891891893</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.6397306397306397</c:v>
+                  <c:v>1.6835016835016836</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.6342281879194631</c:v>
+                  <c:v>1.6778523489932886</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.6287625418060201</c:v>
+                  <c:v>1.6722408026755853</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.6233333333333333</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.6179401993355482</c:v>
+                  <c:v>1.6611295681063123</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.6125827814569536</c:v>
+                  <c:v>1.6556291390728477</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.6072607260726073</c:v>
+                  <c:v>1.6501650165016502</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.6019736842105263</c:v>
+                  <c:v>1.6447368421052631</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.5967213114754097</c:v>
+                  <c:v>1.639344262295082</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.5915032679738561</c:v>
+                  <c:v>1.6339869281045751</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.5863192182410424</c:v>
+                  <c:v>1.6286644951140066</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.5811688311688312</c:v>
+                  <c:v>1.6233766233766234</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.5760517799352751</c:v>
+                  <c:v>1.6181229773462784</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.5709677419354839</c:v>
+                  <c:v>1.6129032258064515</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.5659163987138263</c:v>
+                  <c:v>1.607717041800643</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.5608974358974359</c:v>
+                  <c:v>1.6025641025641026</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.5559105431309903</c:v>
+                  <c:v>1.5974440894568691</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.5509554140127388</c:v>
+                  <c:v>1.5923566878980893</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.5460317460317461</c:v>
+                  <c:v>1.5873015873015872</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.5411392405063291</c:v>
+                  <c:v>1.5822784810126582</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.5362776025236593</c:v>
+                  <c:v>1.5772870662460567</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.5314465408805031</c:v>
+                  <c:v>1.5723270440251573</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.5266457680250785</c:v>
+                  <c:v>1.567398119122257</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.5218750000000001</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.5171339563862929</c:v>
+                  <c:v>1.557632398753894</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.5124223602484472</c:v>
+                  <c:v>1.5527950310559007</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.5077399380804954</c:v>
+                  <c:v>1.5479876160990713</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.5030864197530864</c:v>
+                  <c:v>1.5432098765432098</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.4984615384615385</c:v>
+                  <c:v>1.5384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.4938650306748467</c:v>
+                  <c:v>1.5337423312883436</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.489296636085627</c:v>
+                  <c:v>1.5290519877675841</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.4847560975609757</c:v>
+                  <c:v>1.524390243902439</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.4802431610942248</c:v>
+                  <c:v>1.5197568389057752</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.4757575757575758</c:v>
+                  <c:v>1.5151515151515151</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.4712990936555892</c:v>
+                  <c:v>1.5105740181268883</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.4668674698795181</c:v>
+                  <c:v>1.5060240963855422</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.4624624624624625</c:v>
+                  <c:v>1.5015015015015014</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.4580838323353293</c:v>
+                  <c:v>1.4970059880239521</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.4537313432835821</c:v>
+                  <c:v>1.4925373134328359</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.4494047619047619</c:v>
+                  <c:v>1.4880952380952381</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.4451038575667656</c:v>
+                  <c:v>1.4836795252225519</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.4408284023668638</c:v>
+                  <c:v>1.4792899408284024</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.4365781710914454</c:v>
+                  <c:v>1.4749262536873156</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.4323529411764706</c:v>
+                  <c:v>1.4705882352941178</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.4281524926686218</c:v>
+                  <c:v>1.466275659824047</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.4239766081871346</c:v>
+                  <c:v>1.4619883040935673</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.4198250728862973</c:v>
+                  <c:v>1.4577259475218658</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.4156976744186047</c:v>
+                  <c:v>1.4534883720930232</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.4115942028985506</c:v>
+                  <c:v>1.4492753623188406</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.4075144508670521</c:v>
+                  <c:v>1.4450867052023122</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.4034582132564841</c:v>
+                  <c:v>1.4409221902017291</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.3994252873563218</c:v>
+                  <c:v>1.4367816091954022</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.3954154727793697</c:v>
+                  <c:v>1.4326647564469914</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.3914285714285715</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.3874643874643875</c:v>
+                  <c:v>1.4245014245014245</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.3835227272727273</c:v>
+                  <c:v>1.4204545454545454</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.3796033994334278</c:v>
+                  <c:v>1.4164305949008498</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.3757062146892656</c:v>
+                  <c:v>1.4124293785310735</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.3718309859154929</c:v>
+                  <c:v>1.408450704225352</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.3679775280898876</c:v>
+                  <c:v>1.404494382022472</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.3641456582633054</c:v>
+                  <c:v>1.4005602240896358</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.3603351955307263</c:v>
+                  <c:v>1.3966480446927374</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.3565459610027855</c:v>
+                  <c:v>1.392757660167131</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.3527777777777779</c:v>
+                  <c:v>1.3888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.3490304709141274</c:v>
+                  <c:v>1.3850415512465375</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.3453038674033149</c:v>
+                  <c:v>1.3812154696132597</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.3415977961432506</c:v>
+                  <c:v>1.3774104683195592</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.3379120879120878</c:v>
+                  <c:v>1.3736263736263736</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.3342465753424657</c:v>
+                  <c:v>1.3698630136986301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2546,6 +2149,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.225806451612903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5176,10 +4782,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="K43" s="5">
         <f>SUM(D6:D36)/31</f>
@@ -5208,7 +4814,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="K44" s="7">
         <f>SUM(D37:D64)/28</f>
@@ -5237,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="K45" s="3">
         <f>SUM(D65:D95)/31</f>
@@ -5266,7 +4872,7 @@
         <v>41</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="K46" s="3">
         <f>SUM(D96:D125)/30</f>
@@ -5295,7 +4901,11 @@
         <v>42</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>278</v>
+        <v>145</v>
+      </c>
+      <c r="K47" s="3">
+        <f>SUM(D126:D156)/31</f>
+        <v>2.225806451612903</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -5320,7 +4930,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -5345,7 +4955,7 @@
         <v>44</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -5370,7 +4980,7 @@
         <v>45</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -5395,7 +5005,7 @@
         <v>46</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -5420,7 +5030,7 @@
         <v>47</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -5445,7 +5055,7 @@
         <v>48</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -5470,7 +5080,7 @@
         <v>49</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -7370,15 +6980,18 @@
         <v>44697</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>272</v>
+        <v>139</v>
+      </c>
+      <c r="D141" s="3">
+        <v>3</v>
       </c>
       <c r="E141" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F141" s="5">
         <f t="shared" si="4"/>
-        <v>3.5808823529411766</v>
+        <v>3.6029411764705883</v>
       </c>
       <c r="G141" s="3">
         <v>136</v>
@@ -7391,13 +7004,16 @@
       <c r="C142" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="D142" s="3">
+        <v>4</v>
+      </c>
       <c r="E142" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F142" s="5">
         <f t="shared" si="4"/>
-        <v>3.5547445255474455</v>
+        <v>3.605839416058394</v>
       </c>
       <c r="G142" s="3">
         <v>137</v>
@@ -7408,15 +7024,18 @@
         <v>44699</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>138</v>
+        <v>153</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2</v>
       </c>
       <c r="E143" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F143" s="5">
         <f t="shared" si="4"/>
-        <v>3.5289855072463769</v>
+        <v>3.5942028985507246</v>
       </c>
       <c r="G143" s="3">
         <v>138</v>
@@ -7427,15 +7046,18 @@
         <v>44700</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="D144" s="3">
+        <v>4</v>
       </c>
       <c r="E144" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="4"/>
-        <v>3.5035971223021583</v>
+        <v>3.5971223021582732</v>
       </c>
       <c r="G144" s="3">
         <v>139</v>
@@ -7446,15 +7068,15 @@
         <v>44701</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E145" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="4"/>
-        <v>3.4785714285714286</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="G145" s="3">
         <v>140</v>
@@ -7464,16 +7086,13 @@
       <c r="B146" s="1">
         <v>44702</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="E146" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="4"/>
-        <v>3.4539007092198584</v>
+        <v>3.5460992907801416</v>
       </c>
       <c r="G146" s="3">
         <v>141</v>
@@ -7483,16 +7102,13 @@
       <c r="B147" s="1">
         <v>44703</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E147" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F147" s="5">
         <f t="shared" si="4"/>
-        <v>3.4295774647887325</v>
+        <v>3.5211267605633805</v>
       </c>
       <c r="G147" s="3">
         <v>142</v>
@@ -7502,16 +7118,13 @@
       <c r="B148" s="1">
         <v>44704</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E148" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="4"/>
-        <v>3.4055944055944054</v>
+        <v>3.4965034965034967</v>
       </c>
       <c r="G148" s="3">
         <v>143</v>
@@ -7521,16 +7134,13 @@
       <c r="B149" s="1">
         <v>44705</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="E149" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F149" s="5">
         <f t="shared" si="4"/>
-        <v>3.3819444444444446</v>
+        <v>3.4722222222222223</v>
       </c>
       <c r="G149" s="3">
         <v>144</v>
@@ -7540,16 +7150,13 @@
       <c r="B150" s="1">
         <v>44706</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="E150" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="4"/>
-        <v>3.3586206896551722</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="G150" s="3">
         <v>145</v>
@@ -7559,16 +7166,13 @@
       <c r="B151" s="1">
         <v>44707</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E151" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="4"/>
-        <v>3.3356164383561642</v>
+        <v>3.4246575342465753</v>
       </c>
       <c r="G151" s="3">
         <v>146</v>
@@ -7578,16 +7182,13 @@
       <c r="B152" s="1">
         <v>44708</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E152" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="4"/>
-        <v>3.3129251700680271</v>
+        <v>3.4013605442176869</v>
       </c>
       <c r="G152" s="3">
         <v>147</v>
@@ -7597,16 +7198,13 @@
       <c r="B153" s="1">
         <v>44709</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="E153" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F153" s="5">
         <f t="shared" si="4"/>
-        <v>3.2905405405405403</v>
+        <v>3.3783783783783785</v>
       </c>
       <c r="G153" s="3">
         <v>148</v>
@@ -7616,16 +7214,13 @@
       <c r="B154" s="1">
         <v>44710</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E154" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F154" s="5">
         <f t="shared" si="4"/>
-        <v>3.2684563758389262</v>
+        <v>3.3557046979865772</v>
       </c>
       <c r="G154" s="3">
         <v>149</v>
@@ -7635,16 +7230,13 @@
       <c r="B155" s="1">
         <v>44711</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="E155" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F155" s="5">
         <f t="shared" ref="F155:F218" si="6">E155/G155</f>
-        <v>3.2466666666666666</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G155" s="3">
         <v>150</v>
@@ -7654,16 +7246,13 @@
       <c r="B156" s="1">
         <v>44712</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E156" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F156" s="5">
         <f t="shared" si="6"/>
-        <v>3.2251655629139071</v>
+        <v>3.3112582781456954</v>
       </c>
       <c r="G156" s="3">
         <v>151</v>
@@ -7673,16 +7262,13 @@
       <c r="B157" s="1">
         <v>44713</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="E157" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="6"/>
-        <v>3.2039473684210527</v>
+        <v>3.2894736842105261</v>
       </c>
       <c r="G157" s="3">
         <v>152</v>
@@ -7692,16 +7278,13 @@
       <c r="B158" s="1">
         <v>44714</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="E158" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="6"/>
-        <v>3.1830065359477122</v>
+        <v>3.2679738562091503</v>
       </c>
       <c r="G158" s="3">
         <v>153</v>
@@ -7711,16 +7294,13 @@
       <c r="B159" s="1">
         <v>44715</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="E159" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F159" s="5">
         <f t="shared" si="6"/>
-        <v>3.1623376623376624</v>
+        <v>3.2467532467532467</v>
       </c>
       <c r="G159" s="3">
         <v>154</v>
@@ -7730,16 +7310,13 @@
       <c r="B160" s="1">
         <v>44716</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="E160" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F160" s="5">
         <f t="shared" si="6"/>
-        <v>3.1419354838709679</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="G160" s="3">
         <v>155</v>
@@ -7749,16 +7326,13 @@
       <c r="B161" s="1">
         <v>44717</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="E161" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F161" s="5">
         <f t="shared" si="6"/>
-        <v>3.1217948717948718</v>
+        <v>3.2051282051282053</v>
       </c>
       <c r="G161" s="3">
         <v>156</v>
@@ -7768,16 +7342,13 @@
       <c r="B162" s="1">
         <v>44718</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E162" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" si="6"/>
-        <v>3.1019108280254777</v>
+        <v>3.1847133757961785</v>
       </c>
       <c r="G162" s="3">
         <v>157</v>
@@ -7787,16 +7358,13 @@
       <c r="B163" s="1">
         <v>44719</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="E163" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="6"/>
-        <v>3.0822784810126582</v>
+        <v>3.1645569620253164</v>
       </c>
       <c r="G163" s="3">
         <v>158</v>
@@ -7806,16 +7374,13 @@
       <c r="B164" s="1">
         <v>44720</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="E164" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="6"/>
-        <v>3.0628930817610063</v>
+        <v>3.1446540880503147</v>
       </c>
       <c r="G164" s="3">
         <v>159</v>
@@ -7825,16 +7390,13 @@
       <c r="B165" s="1">
         <v>44721</v>
       </c>
-      <c r="C165" s="4">
-        <v>1999</v>
-      </c>
       <c r="E165" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="6"/>
-        <v>3.0437500000000002</v>
+        <v>3.125</v>
       </c>
       <c r="G165" s="3">
         <v>160</v>
@@ -7844,16 +7406,13 @@
       <c r="B166" s="1">
         <v>44722</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E166" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="6"/>
-        <v>3.0248447204968945</v>
+        <v>3.1055900621118013</v>
       </c>
       <c r="G166" s="3">
         <v>161</v>
@@ -7863,16 +7422,13 @@
       <c r="B167" s="1">
         <v>44723</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="E167" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="6"/>
-        <v>3.0061728395061729</v>
+        <v>3.0864197530864197</v>
       </c>
       <c r="G167" s="3">
         <v>162</v>
@@ -7882,16 +7438,13 @@
       <c r="B168" s="1">
         <v>44724</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="E168" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="6"/>
-        <v>2.9877300613496933</v>
+        <v>3.0674846625766872</v>
       </c>
       <c r="G168" s="3">
         <v>163</v>
@@ -7901,16 +7454,13 @@
       <c r="B169" s="1">
         <v>44725</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="E169" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="6"/>
-        <v>2.9695121951219514</v>
+        <v>3.0487804878048781</v>
       </c>
       <c r="G169" s="3">
         <v>164</v>
@@ -7920,16 +7470,13 @@
       <c r="B170" s="1">
         <v>44726</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="E170" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="6"/>
-        <v>2.9515151515151516</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="G170" s="3">
         <v>165</v>
@@ -7939,16 +7486,13 @@
       <c r="B171" s="1">
         <v>44727</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="E171" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="6"/>
-        <v>2.9337349397590362</v>
+        <v>3.0120481927710845</v>
       </c>
       <c r="G171" s="3">
         <v>166</v>
@@ -7958,16 +7502,13 @@
       <c r="B172" s="1">
         <v>44728</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="E172" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="6"/>
-        <v>2.9161676646706587</v>
+        <v>2.9940119760479043</v>
       </c>
       <c r="G172" s="3">
         <v>167</v>
@@ -7977,16 +7518,13 @@
       <c r="B173" s="1">
         <v>44729</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>2.8988095238095237</v>
+        <v>2.9761904761904763</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -7996,16 +7534,13 @@
       <c r="B174" s="1">
         <v>44730</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>2.8816568047337277</v>
+        <v>2.9585798816568047</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -8015,16 +7550,13 @@
       <c r="B175" s="1">
         <v>44731</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>2.8647058823529412</v>
+        <v>2.9411764705882355</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -8034,16 +7566,13 @@
       <c r="B176" s="1">
         <v>44732</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>2.8479532163742691</v>
+        <v>2.9239766081871346</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -8053,16 +7582,13 @@
       <c r="B177" s="1">
         <v>44733</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>2.8313953488372094</v>
+        <v>2.9069767441860463</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -8072,16 +7598,13 @@
       <c r="B178" s="1">
         <v>44734</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>2.8150289017341041</v>
+        <v>2.8901734104046244</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -8091,16 +7614,13 @@
       <c r="B179" s="1">
         <v>44735</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>2.7988505747126435</v>
+        <v>2.8735632183908044</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -8110,16 +7630,13 @@
       <c r="B180" s="1">
         <v>44736</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>2.7828571428571429</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -8129,16 +7646,13 @@
       <c r="B181" s="1">
         <v>44737</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>2.7670454545454546</v>
+        <v>2.8409090909090908</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -8148,16 +7662,13 @@
       <c r="B182" s="1">
         <v>44738</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>2.7514124293785311</v>
+        <v>2.8248587570621471</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -8167,16 +7678,13 @@
       <c r="B183" s="1">
         <v>44739</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>2.7359550561797752</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -8186,16 +7694,13 @@
       <c r="B184" s="1">
         <v>44740</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>2.7206703910614527</v>
+        <v>2.7932960893854748</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -8205,16 +7710,13 @@
       <c r="B185" s="1">
         <v>44741</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>2.7055555555555557</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -8224,16 +7726,13 @@
       <c r="B186" s="1">
         <v>44742</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>2.6906077348066297</v>
+        <v>2.7624309392265194</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -8243,16 +7742,13 @@
       <c r="B187" s="1">
         <v>44743</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>2.6758241758241756</v>
+        <v>2.7472527472527473</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -8262,16 +7758,13 @@
       <c r="B188" s="1">
         <v>44744</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>2.6612021857923498</v>
+        <v>2.7322404371584699</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -8281,16 +7774,13 @@
       <c r="B189" s="1">
         <v>44745</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>2.6467391304347827</v>
+        <v>2.7173913043478262</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -8300,16 +7790,13 @@
       <c r="B190" s="1">
         <v>44746</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>2.6324324324324326</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -8319,16 +7806,13 @@
       <c r="B191" s="1">
         <v>44747</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>2.618279569892473</v>
+        <v>2.6881720430107525</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -8338,16 +7822,13 @@
       <c r="B192" s="1">
         <v>44748</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>2.6042780748663104</v>
+        <v>2.6737967914438503</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -8357,16 +7838,13 @@
       <c r="B193" s="1">
         <v>44749</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>2.5904255319148937</v>
+        <v>2.6595744680851063</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -8376,16 +7854,13 @@
       <c r="B194" s="1">
         <v>44750</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>2.5767195767195767</v>
+        <v>2.6455026455026456</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -8395,16 +7870,13 @@
       <c r="B195" s="1">
         <v>44751</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>2.5631578947368423</v>
+        <v>2.6315789473684212</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -8414,16 +7886,13 @@
       <c r="B196" s="1">
         <v>44752</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>2.5497382198952878</v>
+        <v>2.6178010471204187</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -8433,16 +7902,13 @@
       <c r="B197" s="1">
         <v>44753</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>2.5364583333333335</v>
+        <v>2.6041666666666665</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -8452,16 +7918,13 @@
       <c r="B198" s="1">
         <v>44754</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>2.5233160621761659</v>
+        <v>2.5906735751295336</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -8471,16 +7934,13 @@
       <c r="B199" s="1">
         <v>44755</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>2.5103092783505154</v>
+        <v>2.5773195876288661</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -8490,16 +7950,13 @@
       <c r="B200" s="1">
         <v>44756</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>2.4974358974358974</v>
+        <v>2.5641025641025643</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -8509,16 +7966,13 @@
       <c r="B201" s="1">
         <v>44757</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>2.4846938775510203</v>
+        <v>2.5510204081632653</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -8528,16 +7982,13 @@
       <c r="B202" s="1">
         <v>44758</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>2.4720812182741119</v>
+        <v>2.5380710659898478</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -8547,16 +7998,13 @@
       <c r="B203" s="1">
         <v>44759</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>2.4595959595959598</v>
+        <v>2.5252525252525251</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -8566,16 +8014,13 @@
       <c r="B204" s="1">
         <v>44760</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>2.4472361809045227</v>
+        <v>2.512562814070352</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -8585,16 +8030,13 @@
       <c r="B205" s="1">
         <v>44761</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>2.4350000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -8604,16 +8046,13 @@
       <c r="B206" s="1">
         <v>44762</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>2.4228855721393034</v>
+        <v>2.4875621890547261</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -8623,16 +8062,13 @@
       <c r="B207" s="1">
         <v>44763</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>2.4108910891089108</v>
+        <v>2.4752475247524752</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -8642,16 +8078,13 @@
       <c r="B208" s="1">
         <v>44764</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.3990147783251232</v>
+        <v>2.4630541871921183</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -8661,16 +8094,13 @@
       <c r="B209" s="1">
         <v>44765</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.3872549019607843</v>
+        <v>2.4509803921568629</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -8680,16 +8110,13 @@
       <c r="B210" s="1">
         <v>44766</v>
       </c>
-      <c r="C210" s="4">
-        <v>7</v>
-      </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.3756097560975609</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -8699,16 +8126,13 @@
       <c r="B211" s="1">
         <v>44767</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.3640776699029127</v>
+        <v>2.4271844660194173</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -8718,16 +8142,13 @@
       <c r="B212" s="1">
         <v>44768</v>
       </c>
-      <c r="C212" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.3526570048309177</v>
+        <v>2.4154589371980677</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -8737,16 +8158,13 @@
       <c r="B213" s="1">
         <v>44769</v>
       </c>
-      <c r="C213" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.3413461538461537</v>
+        <v>2.4038461538461537</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -8756,16 +8174,13 @@
       <c r="B214" s="1">
         <v>44770</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.3301435406698565</v>
+        <v>2.3923444976076556</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -8775,16 +8190,13 @@
       <c r="B215" s="1">
         <v>44771</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.3190476190476192</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -8794,16 +8206,13 @@
       <c r="B216" s="1">
         <v>44772</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.3080568720379149</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -8813,16 +8222,13 @@
       <c r="B217" s="1">
         <v>44773</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.2971698113207548</v>
+        <v>2.358490566037736</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -8832,16 +8238,13 @@
       <c r="B218" s="1">
         <v>44774</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.2863849765258215</v>
+        <v>2.347417840375587</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -8851,16 +8254,13 @@
       <c r="B219" s="1">
         <v>44775</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.2757009345794392</v>
+        <v>2.3364485981308412</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -8870,16 +8270,13 @@
       <c r="B220" s="1">
         <v>44776</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.2651162790697676</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -8889,16 +8286,13 @@
       <c r="B221" s="1">
         <v>44777</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.2546296296296298</v>
+        <v>2.3148148148148149</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -8908,16 +8302,13 @@
       <c r="B222" s="1">
         <v>44778</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.2442396313364057</v>
+        <v>2.3041474654377878</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -8927,16 +8318,13 @@
       <c r="B223" s="1">
         <v>44779</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.2339449541284404</v>
+        <v>2.2935779816513762</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -8946,16 +8334,13 @@
       <c r="B224" s="1">
         <v>44780</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.2237442922374431</v>
+        <v>2.2831050228310503</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -8965,16 +8350,13 @@
       <c r="B225" s="1">
         <v>44781</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.2136363636363638</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -8984,16 +8366,13 @@
       <c r="B226" s="1">
         <v>44782</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.2036199095022626</v>
+        <v>2.2624434389140271</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -9003,16 +8382,13 @@
       <c r="B227" s="1">
         <v>44783</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.1936936936936937</v>
+        <v>2.2522522522522523</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -9022,16 +8398,13 @@
       <c r="B228" s="1">
         <v>44784</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.1838565022421523</v>
+        <v>2.2421524663677128</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -9041,16 +8414,13 @@
       <c r="B229" s="1">
         <v>44785</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.1741071428571428</v>
+        <v>2.2321428571428572</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -9060,16 +8430,13 @@
       <c r="B230" s="1">
         <v>44786</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.1644444444444444</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -9079,16 +8446,13 @@
       <c r="B231" s="1">
         <v>44787</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.1548672566371683</v>
+        <v>2.2123893805309733</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -9098,16 +8462,13 @@
       <c r="B232" s="1">
         <v>44788</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.1453744493392071</v>
+        <v>2.2026431718061672</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -9117,16 +8478,13 @@
       <c r="B233" s="1">
         <v>44789</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.1359649122807016</v>
+        <v>2.192982456140351</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -9136,16 +8494,13 @@
       <c r="B234" s="1">
         <v>44790</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.126637554585153</v>
+        <v>2.1834061135371181</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -9155,16 +8510,13 @@
       <c r="B235" s="1">
         <v>44791</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.1173913043478261</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -9174,16 +8526,13 @@
       <c r="B236" s="1">
         <v>44792</v>
       </c>
-      <c r="C236" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.1082251082251084</v>
+        <v>2.1645021645021645</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -9193,16 +8542,13 @@
       <c r="B237" s="1">
         <v>44793</v>
       </c>
-      <c r="C237" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.0991379310344827</v>
+        <v>2.1551724137931036</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -9212,16 +8558,13 @@
       <c r="B238" s="1">
         <v>44794</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.0901287553648067</v>
+        <v>2.1459227467811157</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -9231,16 +8574,13 @@
       <c r="B239" s="1">
         <v>44795</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.0811965811965814</v>
+        <v>2.1367521367521367</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -9250,16 +8590,13 @@
       <c r="B240" s="1">
         <v>44796</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.0723404255319151</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -9269,16 +8606,13 @@
       <c r="B241" s="1">
         <v>44797</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.0635593220338984</v>
+        <v>2.1186440677966103</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -9288,16 +8622,13 @@
       <c r="B242" s="1">
         <v>44798</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.0548523206751055</v>
+        <v>2.109704641350211</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -9307,16 +8638,13 @@
       <c r="B243" s="1">
         <v>44799</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.0462184873949578</v>
+        <v>2.1008403361344539</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -9326,16 +8654,13 @@
       <c r="B244" s="1">
         <v>44800</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.0376569037656904</v>
+        <v>2.0920502092050208</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -9345,16 +8670,13 @@
       <c r="B245" s="1">
         <v>44801</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.0291666666666668</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -9364,16 +8686,13 @@
       <c r="B246" s="1">
         <v>44802</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.0207468879668049</v>
+        <v>2.0746887966804981</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -9383,16 +8702,13 @@
       <c r="B247" s="1">
         <v>44803</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.0123966942148761</v>
+        <v>2.0661157024793386</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -9402,16 +8718,13 @@
       <c r="B248" s="1">
         <v>44804</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.0041152263374484</v>
+        <v>2.0576131687242798</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -9421,16 +8734,13 @@
       <c r="B249" s="1">
         <v>44805</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>1.9959016393442623</v>
+        <v>2.0491803278688523</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -9440,16 +8750,13 @@
       <c r="B250" s="1">
         <v>44806</v>
       </c>
-      <c r="C250" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>1.9877551020408164</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -9459,16 +8766,13 @@
       <c r="B251" s="1">
         <v>44807</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>1.9796747967479675</v>
+        <v>2.0325203252032522</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -9478,16 +8782,13 @@
       <c r="B252" s="1">
         <v>44808</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>1.9716599190283401</v>
+        <v>2.0242914979757085</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -9497,16 +8798,13 @@
       <c r="B253" s="1">
         <v>44809</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>1.9637096774193548</v>
+        <v>2.0161290322580645</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -9516,16 +8814,13 @@
       <c r="B254" s="1">
         <v>44810</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>1.9558232931726907</v>
+        <v>2.0080321285140563</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -9535,16 +8830,13 @@
       <c r="B255" s="1">
         <v>44811</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>1.948</v>
+        <v>2</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -9554,16 +8846,13 @@
       <c r="B256" s="1">
         <v>44812</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>1.9402390438247012</v>
+        <v>1.9920318725099602</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -9573,16 +8862,13 @@
       <c r="B257" s="1">
         <v>44813</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>1.9325396825396826</v>
+        <v>1.9841269841269842</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -9592,16 +8878,13 @@
       <c r="B258" s="1">
         <v>44814</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>1.924901185770751</v>
+        <v>1.9762845849802371</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -9611,16 +8894,13 @@
       <c r="B259" s="1">
         <v>44815</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>1.9173228346456692</v>
+        <v>1.9685039370078741</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -9630,16 +8910,13 @@
       <c r="B260" s="1">
         <v>44816</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>1.9098039215686275</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -9649,16 +8926,13 @@
       <c r="B261" s="1">
         <v>44817</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>1.90234375</v>
+        <v>1.953125</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -9668,16 +8942,13 @@
       <c r="B262" s="1">
         <v>44818</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>1.8949416342412451</v>
+        <v>1.9455252918287937</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -9687,16 +8958,13 @@
       <c r="B263" s="1">
         <v>44819</v>
       </c>
-      <c r="C263" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>1.8875968992248062</v>
+        <v>1.9379844961240309</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -9706,16 +8974,13 @@
       <c r="B264" s="1">
         <v>44820</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>1.8803088803088803</v>
+        <v>1.9305019305019304</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -9725,16 +8990,13 @@
       <c r="B265" s="1">
         <v>44821</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>1.8730769230769231</v>
+        <v>1.9230769230769231</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -9744,16 +9006,13 @@
       <c r="B266" s="1">
         <v>44822</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>1.8659003831417624</v>
+        <v>1.9157088122605364</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -9763,16 +9022,13 @@
       <c r="B267" s="1">
         <v>44823</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>1.8587786259541985</v>
+        <v>1.9083969465648856</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -9782,16 +9038,13 @@
       <c r="B268" s="1">
         <v>44824</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>1.8517110266159695</v>
+        <v>1.9011406844106464</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -9801,16 +9054,13 @@
       <c r="B269" s="1">
         <v>44825</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>1.8446969696969697</v>
+        <v>1.893939393939394</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -9820,16 +9070,13 @@
       <c r="B270" s="1">
         <v>44826</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>1.8377358490566038</v>
+        <v>1.8867924528301887</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -9839,16 +9086,13 @@
       <c r="B271" s="1">
         <v>44827</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>1.8308270676691729</v>
+        <v>1.8796992481203008</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -9858,16 +9102,13 @@
       <c r="B272" s="1">
         <v>44828</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>1.8239700374531835</v>
+        <v>1.8726591760299625</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -9877,16 +9118,13 @@
       <c r="B273" s="1">
         <v>44829</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>1.8171641791044777</v>
+        <v>1.8656716417910448</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -9896,16 +9134,13 @@
       <c r="B274" s="1">
         <v>44830</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>1.8104089219330854</v>
+        <v>1.8587360594795539</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -9915,16 +9150,13 @@
       <c r="B275" s="1">
         <v>44831</v>
       </c>
-      <c r="C275" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>1.8037037037037038</v>
+        <v>1.8518518518518519</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -9934,16 +9166,13 @@
       <c r="B276" s="1">
         <v>44832</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>1.7970479704797049</v>
+        <v>1.8450184501845019</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -9953,16 +9182,13 @@
       <c r="B277" s="1">
         <v>44833</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>1.7904411764705883</v>
+        <v>1.838235294117647</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -9972,16 +9198,13 @@
       <c r="B278" s="1">
         <v>44834</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>1.783882783882784</v>
+        <v>1.8315018315018314</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -9991,16 +9214,13 @@
       <c r="B279" s="1">
         <v>44835</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>1.7773722627737227</v>
+        <v>1.8248175182481752</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -10012,11 +9232,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>1.770909090909091</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -10028,11 +9248,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>1.7644927536231885</v>
+        <v>1.8115942028985508</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -10044,11 +9264,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>1.7581227436823104</v>
+        <v>1.8050541516245486</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -10060,11 +9280,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>1.7517985611510791</v>
+        <v>1.7985611510791366</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -10076,11 +9296,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>1.7455197132616487</v>
+        <v>1.7921146953405018</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -10092,11 +9312,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>1.7392857142857143</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -10108,11 +9328,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>1.7330960854092528</v>
+        <v>1.7793594306049823</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -10124,11 +9344,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>1.7269503546099292</v>
+        <v>1.7730496453900708</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -10140,11 +9360,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>1.7208480565371025</v>
+        <v>1.7667844522968197</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -10156,11 +9376,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>1.7147887323943662</v>
+        <v>1.7605633802816902</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -10172,11 +9392,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>1.7087719298245614</v>
+        <v>1.7543859649122806</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -10188,11 +9408,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>1.7027972027972027</v>
+        <v>1.7482517482517483</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -10204,11 +9424,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>1.6968641114982579</v>
+        <v>1.7421602787456445</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -10220,11 +9440,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>1.6909722222222223</v>
+        <v>1.7361111111111112</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -10236,11 +9456,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>1.685121107266436</v>
+        <v>1.7301038062283738</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -10252,11 +9472,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>1.6793103448275861</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -10268,11 +9488,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>1.6735395189003437</v>
+        <v>1.7182130584192439</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -10284,11 +9504,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>1.6678082191780821</v>
+        <v>1.7123287671232876</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -10300,11 +9520,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>1.6621160409556315</v>
+        <v>1.7064846416382253</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -10316,11 +9536,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>1.6564625850340136</v>
+        <v>1.7006802721088434</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -10332,11 +9552,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>1.6508474576271186</v>
+        <v>1.6949152542372881</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -10348,11 +9568,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>1.6452702702702702</v>
+        <v>1.6891891891891893</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -10364,11 +9584,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>1.6397306397306397</v>
+        <v>1.6835016835016836</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -10380,11 +9600,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>1.6342281879194631</v>
+        <v>1.6778523489932886</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -10396,11 +9616,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>1.6287625418060201</v>
+        <v>1.6722408026755853</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -10412,11 +9632,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>1.6233333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -10428,11 +9648,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>1.6179401993355482</v>
+        <v>1.6611295681063123</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -10444,11 +9664,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>1.6125827814569536</v>
+        <v>1.6556291390728477</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -10460,11 +9680,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>1.6072607260726073</v>
+        <v>1.6501650165016502</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -10476,11 +9696,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.6019736842105263</v>
+        <v>1.6447368421052631</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -10492,11 +9712,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.5967213114754097</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -10508,11 +9728,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.5915032679738561</v>
+        <v>1.6339869281045751</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -10524,11 +9744,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.5863192182410424</v>
+        <v>1.6286644951140066</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -10540,11 +9760,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.5811688311688312</v>
+        <v>1.6233766233766234</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -10556,11 +9776,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.5760517799352751</v>
+        <v>1.6181229773462784</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -10572,11 +9792,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.5709677419354839</v>
+        <v>1.6129032258064515</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -10588,11 +9808,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.5659163987138263</v>
+        <v>1.607717041800643</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -10604,11 +9824,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.5608974358974359</v>
+        <v>1.6025641025641026</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -10620,11 +9840,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.5559105431309903</v>
+        <v>1.5974440894568691</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -10636,11 +9856,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.5509554140127388</v>
+        <v>1.5923566878980893</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -10652,11 +9872,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.5460317460317461</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -10668,11 +9888,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.5411392405063291</v>
+        <v>1.5822784810126582</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -10684,11 +9904,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.5362776025236593</v>
+        <v>1.5772870662460567</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -10700,11 +9920,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.5314465408805031</v>
+        <v>1.5723270440251573</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -10716,11 +9936,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.5266457680250785</v>
+        <v>1.567398119122257</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -10732,11 +9952,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.5218750000000001</v>
+        <v>1.5625</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -10748,11 +9968,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.5171339563862929</v>
+        <v>1.557632398753894</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -10764,11 +9984,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.5124223602484472</v>
+        <v>1.5527950310559007</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -10780,11 +10000,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.5077399380804954</v>
+        <v>1.5479876160990713</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -10796,11 +10016,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.5030864197530864</v>
+        <v>1.5432098765432098</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -10812,11 +10032,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.4984615384615385</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -10828,11 +10048,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.4938650306748467</v>
+        <v>1.5337423312883436</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -10844,11 +10064,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.489296636085627</v>
+        <v>1.5290519877675841</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -10860,11 +10080,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.4847560975609757</v>
+        <v>1.524390243902439</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -10876,11 +10096,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.4802431610942248</v>
+        <v>1.5197568389057752</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -10892,11 +10112,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.4757575757575758</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -10908,11 +10128,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.4712990936555892</v>
+        <v>1.5105740181268883</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -10924,11 +10144,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.4668674698795181</v>
+        <v>1.5060240963855422</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -10940,11 +10160,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.4624624624624625</v>
+        <v>1.5015015015015014</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -10956,11 +10176,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.4580838323353293</v>
+        <v>1.4970059880239521</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -10972,11 +10192,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.4537313432835821</v>
+        <v>1.4925373134328359</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -10988,11 +10208,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.4494047619047619</v>
+        <v>1.4880952380952381</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -11004,11 +10224,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.4451038575667656</v>
+        <v>1.4836795252225519</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -11020,11 +10240,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.4408284023668638</v>
+        <v>1.4792899408284024</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -11036,11 +10256,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.4365781710914454</v>
+        <v>1.4749262536873156</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -11052,11 +10272,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.4323529411764706</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -11068,11 +10288,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.4281524926686218</v>
+        <v>1.466275659824047</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -11084,11 +10304,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.4239766081871346</v>
+        <v>1.4619883040935673</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -11100,11 +10320,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.4198250728862973</v>
+        <v>1.4577259475218658</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -11116,11 +10336,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.4156976744186047</v>
+        <v>1.4534883720930232</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -11132,11 +10352,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.4115942028985506</v>
+        <v>1.4492753623188406</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -11148,11 +10368,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.4075144508670521</v>
+        <v>1.4450867052023122</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -11164,11 +10384,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.4034582132564841</v>
+        <v>1.4409221902017291</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -11180,11 +10400,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.3994252873563218</v>
+        <v>1.4367816091954022</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -11196,11 +10416,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.3954154727793697</v>
+        <v>1.4326647564469914</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -11212,11 +10432,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.3914285714285715</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -11228,11 +10448,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.3874643874643875</v>
+        <v>1.4245014245014245</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -11244,11 +10464,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.3835227272727273</v>
+        <v>1.4204545454545454</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -11260,11 +10480,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.3796033994334278</v>
+        <v>1.4164305949008498</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -11276,11 +10496,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.3757062146892656</v>
+        <v>1.4124293785310735</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -11292,11 +10512,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.3718309859154929</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -11308,11 +10528,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.3679775280898876</v>
+        <v>1.404494382022472</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -11324,11 +10544,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.3641456582633054</v>
+        <v>1.4005602240896358</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -11340,11 +10560,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.3603351955307263</v>
+        <v>1.3966480446927374</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -11356,11 +10576,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.3565459610027855</v>
+        <v>1.392757660167131</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -11372,11 +10592,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.3527777777777779</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -11388,11 +10608,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.3490304709141274</v>
+        <v>1.3850415512465375</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -11404,11 +10624,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.3453038674033149</v>
+        <v>1.3812154696132597</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -11420,11 +10640,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.3415977961432506</v>
+        <v>1.3774104683195592</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -11436,11 +10656,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.3379120879120878</v>
+        <v>1.3736263736263736</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -11452,11 +10672,11 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.3342465753424657</v>
+        <v>1.3698630136986301</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>
@@ -11465,7 +10685,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K43:K46" formulaRange="1"/>
+    <ignoredError sqref="K43:K47" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BEC824-6B4F-DB44-8DBA-996994D998BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6775C53F-6674-374C-9FF6-93F7EE25D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>running sum</t>
   </si>
@@ -497,6 +497,45 @@
   </si>
   <si>
     <t>Boy in Da Corner</t>
+  </si>
+  <si>
+    <t>God Don't Make Mistakes</t>
+  </si>
+  <si>
+    <t>Run The Jewels 2</t>
+  </si>
+  <si>
+    <t>It's Almost Dry</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>i,i</t>
+  </si>
+  <si>
+    <t>Funeral</t>
+  </si>
+  <si>
+    <t>The Piper at the Gates of Dawn</t>
+  </si>
+  <si>
+    <t>Can't Buy a Thrill</t>
+  </si>
+  <si>
+    <t>In the Court of the Crimson King</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>Cosmogramma</t>
+  </si>
+  <si>
+    <t>american dream</t>
   </si>
 </sst>
 </file>
@@ -1097,682 +1136,682 @@
                   <c:v>3.5971223021582732</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.5714285714285716</c:v>
+                  <c:v>3.6071428571428572</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.5460992907801416</c:v>
+                  <c:v>3.6099290780141846</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.5211267605633805</c:v>
+                  <c:v>3.612676056338028</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.4965034965034967</c:v>
+                  <c:v>3.6153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.4722222222222223</c:v>
+                  <c:v>3.6111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.4482758620689653</c:v>
+                  <c:v>3.6068965517241378</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.4246575342465753</c:v>
+                  <c:v>3.595890410958904</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.4013605442176869</c:v>
+                  <c:v>3.5986394557823131</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.3783783783783785</c:v>
+                  <c:v>3.5945945945945947</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.3557046979865772</c:v>
+                  <c:v>3.5973154362416109</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>3.6066666666666665</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.3112582781456954</c:v>
+                  <c:v>3.6092715231788079</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.2894736842105261</c:v>
+                  <c:v>3.611842105263158</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.2679738562091503</c:v>
+                  <c:v>3.607843137254902</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.2467532467532467</c:v>
+                  <c:v>3.5844155844155843</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.225806451612903</c:v>
+                  <c:v>3.5612903225806454</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.2051282051282053</c:v>
+                  <c:v>3.5384615384615383</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.1847133757961785</c:v>
+                  <c:v>3.515923566878981</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.1645569620253164</c:v>
+                  <c:v>3.4936708860759493</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.1446540880503147</c:v>
+                  <c:v>3.4716981132075473</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.125</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.1055900621118013</c:v>
+                  <c:v>3.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.0864197530864197</c:v>
+                  <c:v>3.4074074074074074</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.0674846625766872</c:v>
+                  <c:v>3.3865030674846626</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.0487804878048781</c:v>
+                  <c:v>3.3658536585365852</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.0303030303030303</c:v>
+                  <c:v>3.3454545454545452</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.0120481927710845</c:v>
+                  <c:v>3.3253012048192772</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.9940119760479043</c:v>
+                  <c:v>3.3053892215568861</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.9761904761904763</c:v>
+                  <c:v>3.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.9585798816568047</c:v>
+                  <c:v>3.2662721893491122</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.9411764705882355</c:v>
+                  <c:v>3.2470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.9239766081871346</c:v>
+                  <c:v>3.2280701754385963</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.9069767441860463</c:v>
+                  <c:v>3.2093023255813953</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.8901734104046244</c:v>
+                  <c:v>3.1907514450867054</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.8735632183908044</c:v>
+                  <c:v>3.1724137931034484</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.8571428571428572</c:v>
+                  <c:v>3.1542857142857144</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.8409090909090908</c:v>
+                  <c:v>3.1363636363636362</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.8248587570621471</c:v>
+                  <c:v>3.1186440677966103</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.808988764044944</c:v>
+                  <c:v>3.101123595505618</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.7932960893854748</c:v>
+                  <c:v>3.0837988826815641</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>3.0666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.7624309392265194</c:v>
+                  <c:v>3.0497237569060776</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.7472527472527473</c:v>
+                  <c:v>3.0329670329670328</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.7322404371584699</c:v>
+                  <c:v>3.0163934426229506</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.7173913043478262</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.7027027027027026</c:v>
+                  <c:v>2.9837837837837839</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.6881720430107525</c:v>
+                  <c:v>2.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.6737967914438503</c:v>
+                  <c:v>2.9518716577540105</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.6595744680851063</c:v>
+                  <c:v>2.9361702127659575</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.6455026455026456</c:v>
+                  <c:v>2.9206349206349205</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.6315789473684212</c:v>
+                  <c:v>2.905263157894737</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.6178010471204187</c:v>
+                  <c:v>2.8900523560209423</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.6041666666666665</c:v>
+                  <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.5906735751295336</c:v>
+                  <c:v>2.8601036269430051</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.5773195876288661</c:v>
+                  <c:v>2.8453608247422681</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.5641025641025643</c:v>
+                  <c:v>2.8307692307692309</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.5510204081632653</c:v>
+                  <c:v>2.8163265306122449</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.5380710659898478</c:v>
+                  <c:v>2.8020304568527918</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.5252525252525251</c:v>
+                  <c:v>2.7878787878787881</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.512562814070352</c:v>
+                  <c:v>2.7738693467336684</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.5</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.4875621890547261</c:v>
+                  <c:v>2.7462686567164178</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.4752475247524752</c:v>
+                  <c:v>2.7326732673267329</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.4630541871921183</c:v>
+                  <c:v>2.7192118226600983</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.4509803921568629</c:v>
+                  <c:v>2.7058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.4390243902439024</c:v>
+                  <c:v>2.6926829268292685</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.4271844660194173</c:v>
+                  <c:v>2.679611650485437</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.4154589371980677</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.4038461538461537</c:v>
+                  <c:v>2.6538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.3923444976076556</c:v>
+                  <c:v>2.6411483253588517</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.3809523809523809</c:v>
+                  <c:v>2.6285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.3696682464454977</c:v>
+                  <c:v>2.6161137440758293</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.358490566037736</c:v>
+                  <c:v>2.6037735849056602</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.347417840375587</c:v>
+                  <c:v>2.591549295774648</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.3364485981308412</c:v>
+                  <c:v>2.5794392523364484</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.3255813953488373</c:v>
+                  <c:v>2.5674418604651161</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.3148148148148149</c:v>
+                  <c:v>2.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.3041474654377878</c:v>
+                  <c:v>2.5437788018433181</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.2935779816513762</c:v>
+                  <c:v>2.5321100917431192</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.2831050228310503</c:v>
+                  <c:v>2.5205479452054793</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.2727272727272729</c:v>
+                  <c:v>2.5090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.2624434389140271</c:v>
+                  <c:v>2.497737556561086</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.2522522522522523</c:v>
+                  <c:v>2.4864864864864864</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.2421524663677128</c:v>
+                  <c:v>2.4753363228699552</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.2321428571428572</c:v>
+                  <c:v>2.4642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>2.4533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.2123893805309733</c:v>
+                  <c:v>2.4424778761061945</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.2026431718061672</c:v>
+                  <c:v>2.4317180616740086</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.192982456140351</c:v>
+                  <c:v>2.4210526315789473</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.1834061135371181</c:v>
+                  <c:v>2.410480349344978</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.1739130434782608</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.1645021645021645</c:v>
+                  <c:v>2.3896103896103895</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.1551724137931036</c:v>
+                  <c:v>2.3793103448275863</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.1459227467811157</c:v>
+                  <c:v>2.3690987124463518</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.1367521367521367</c:v>
+                  <c:v>2.358974358974359</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.1276595744680851</c:v>
+                  <c:v>2.3489361702127658</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.1186440677966103</c:v>
+                  <c:v>2.3389830508474576</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.109704641350211</c:v>
+                  <c:v>2.3291139240506329</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.1008403361344539</c:v>
+                  <c:v>2.3193277310924372</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.0920502092050208</c:v>
+                  <c:v>2.3096234309623429</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.0833333333333335</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.0746887966804981</c:v>
+                  <c:v>2.2904564315352696</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.0661157024793386</c:v>
+                  <c:v>2.28099173553719</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.0576131687242798</c:v>
+                  <c:v>2.2716049382716048</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.0491803278688523</c:v>
+                  <c:v>2.262295081967213</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.0408163265306123</c:v>
+                  <c:v>2.2530612244897958</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.0325203252032522</c:v>
+                  <c:v>2.2439024390243905</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.0242914979757085</c:v>
+                  <c:v>2.2348178137651824</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.0161290322580645</c:v>
+                  <c:v>2.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.0080321285140563</c:v>
+                  <c:v>2.2168674698795181</c:v>
                 </c:pt>
                 <c:pt idx="249">
+                  <c:v>2.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.1992031872509958</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.1904761904761907</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.1818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.173228346456693</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.164705882352941</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.15625</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.1478599221789882</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.13953488372093</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.1312741312741315</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.1230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.1149425287356323</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.1068702290076335</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.0988593155893538</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.0830188679245283</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.0751879699248121</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.0674157303370788</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.0597014925373136</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.0520446096654275</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.0444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.03690036900369</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.0294117647058822</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.0219780219780219</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.0145985401459856</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.0072727272727273</c:v>
+                </c:pt>
+                <c:pt idx="275">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="250">
-                  <c:v>1.9920318725099602</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>1.9841269841269842</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1.9762845849802371</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>1.9685039370078741</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1.9607843137254901</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1.953125</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1.9455252918287937</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1.9379844961240309</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1.9305019305019304</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>1.9230769230769231</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>1.9157088122605364</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>1.9083969465648856</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>1.9011406844106464</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>1.893939393939394</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>1.8867924528301887</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>1.8796992481203008</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>1.8726591760299625</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>1.8656716417910448</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1.8587360594795539</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>1.8518518518518519</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1.8450184501845019</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>1.838235294117647</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>1.8315018315018314</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>1.8248175182481752</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>1.8181818181818181</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>1.8115942028985508</c:v>
-                </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.8050541516245486</c:v>
+                  <c:v>1.9927797833935017</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.7985611510791366</c:v>
+                  <c:v>1.985611510791367</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.7921146953405018</c:v>
+                  <c:v>1.978494623655914</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.7857142857142858</c:v>
+                  <c:v>1.9714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.7793594306049823</c:v>
+                  <c:v>1.9644128113879002</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.7730496453900708</c:v>
+                  <c:v>1.9574468085106382</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.7667844522968197</c:v>
+                  <c:v>1.9505300353356891</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.7605633802816902</c:v>
+                  <c:v>1.943661971830986</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.7543859649122806</c:v>
+                  <c:v>1.9368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.7482517482517483</c:v>
+                  <c:v>1.93006993006993</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.7421602787456445</c:v>
+                  <c:v>1.9233449477351916</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.7361111111111112</c:v>
+                  <c:v>1.9166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.7301038062283738</c:v>
+                  <c:v>1.9100346020761245</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.7241379310344827</c:v>
+                  <c:v>1.903448275862069</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.7182130584192439</c:v>
+                  <c:v>1.8969072164948453</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.7123287671232876</c:v>
+                  <c:v>1.8904109589041096</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.7064846416382253</c:v>
+                  <c:v>1.8839590443686007</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.7006802721088434</c:v>
+                  <c:v>1.8775510204081634</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.6949152542372881</c:v>
+                  <c:v>1.8711864406779661</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.6891891891891893</c:v>
+                  <c:v>1.8648648648648649</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.6835016835016836</c:v>
+                  <c:v>1.8585858585858586</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.6778523489932886</c:v>
+                  <c:v>1.8523489932885906</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.6722408026755853</c:v>
+                  <c:v>1.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.6611295681063123</c:v>
+                  <c:v>1.8338870431893688</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.6556291390728477</c:v>
+                  <c:v>1.8278145695364238</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.6501650165016502</c:v>
+                  <c:v>1.8217821782178218</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.6447368421052631</c:v>
+                  <c:v>1.8157894736842106</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.639344262295082</c:v>
+                  <c:v>1.8098360655737704</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.6339869281045751</c:v>
+                  <c:v>1.803921568627451</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.6286644951140066</c:v>
+                  <c:v>1.7980456026058631</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.6233766233766234</c:v>
+                  <c:v>1.7922077922077921</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.6181229773462784</c:v>
+                  <c:v>1.7864077669902914</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.6129032258064515</c:v>
+                  <c:v>1.7806451612903227</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.607717041800643</c:v>
+                  <c:v>1.77491961414791</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.6025641025641026</c:v>
+                  <c:v>1.7692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.5974440894568691</c:v>
+                  <c:v>1.7635782747603834</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.5923566878980893</c:v>
+                  <c:v>1.7579617834394905</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.5873015873015872</c:v>
+                  <c:v>1.7523809523809524</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.5822784810126582</c:v>
+                  <c:v>1.7468354430379747</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.5772870662460567</c:v>
+                  <c:v>1.7413249211356467</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.5723270440251573</c:v>
+                  <c:v>1.7358490566037736</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.567398119122257</c:v>
+                  <c:v>1.7304075235109717</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.5625</c:v>
+                  <c:v>1.7250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.557632398753894</c:v>
+                  <c:v>1.719626168224299</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.5527950310559007</c:v>
+                  <c:v>1.7142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.5479876160990713</c:v>
+                  <c:v>1.7089783281733746</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.5432098765432098</c:v>
+                  <c:v>1.7037037037037037</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.5384615384615385</c:v>
+                  <c:v>1.6984615384615385</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.5337423312883436</c:v>
+                  <c:v>1.6932515337423313</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.5290519877675841</c:v>
+                  <c:v>1.6880733944954129</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.524390243902439</c:v>
+                  <c:v>1.6829268292682926</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.5197568389057752</c:v>
+                  <c:v>1.6778115501519757</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.5151515151515151</c:v>
+                  <c:v>1.6727272727272726</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.5105740181268883</c:v>
+                  <c:v>1.6676737160120847</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.5060240963855422</c:v>
+                  <c:v>1.6626506024096386</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.5015015015015014</c:v>
+                  <c:v>1.6576576576576576</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.4970059880239521</c:v>
+                  <c:v>1.652694610778443</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.4925373134328359</c:v>
+                  <c:v>1.6477611940298507</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.4880952380952381</c:v>
+                  <c:v>1.6428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.4836795252225519</c:v>
+                  <c:v>1.6379821958456973</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.4792899408284024</c:v>
+                  <c:v>1.6331360946745561</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.4749262536873156</c:v>
+                  <c:v>1.6283185840707965</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.4705882352941178</c:v>
+                  <c:v>1.6235294117647059</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.466275659824047</c:v>
+                  <c:v>1.6187683284457477</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.4619883040935673</c:v>
+                  <c:v>1.6140350877192982</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.4577259475218658</c:v>
+                  <c:v>1.6093294460641399</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.4534883720930232</c:v>
+                  <c:v>1.6046511627906976</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.4492753623188406</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.4450867052023122</c:v>
+                  <c:v>1.5953757225433527</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.4409221902017291</c:v>
+                  <c:v>1.5907780979827089</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.4367816091954022</c:v>
+                  <c:v>1.5862068965517242</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.4326647564469914</c:v>
+                  <c:v>1.5816618911174785</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.4285714285714286</c:v>
+                  <c:v>1.5771428571428572</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.4245014245014245</c:v>
+                  <c:v>1.5726495726495726</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.4204545454545454</c:v>
+                  <c:v>1.5681818181818181</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.4164305949008498</c:v>
+                  <c:v>1.5637393767705383</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.4124293785310735</c:v>
+                  <c:v>1.5593220338983051</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.408450704225352</c:v>
+                  <c:v>1.5549295774647887</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.404494382022472</c:v>
+                  <c:v>1.550561797752809</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.4005602240896358</c:v>
+                  <c:v>1.546218487394958</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.3966480446927374</c:v>
+                  <c:v>1.5418994413407821</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.392757660167131</c:v>
+                  <c:v>1.5376044568245126</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.3888888888888888</c:v>
+                  <c:v>1.5333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.3850415512465375</c:v>
+                  <c:v>1.5290858725761773</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.3812154696132597</c:v>
+                  <c:v>1.5248618784530388</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.3774104683195592</c:v>
+                  <c:v>1.5206611570247934</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.3736263736263736</c:v>
+                  <c:v>1.5164835164835164</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.3698630136986301</c:v>
+                  <c:v>1.5123287671232877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,7 +2190,10 @@
                   <c:v>3.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.225806451612903</c:v>
+                  <c:v>3.6774193548387095</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4905,7 +4947,7 @@
       </c>
       <c r="K47" s="3">
         <f>SUM(D126:D156)/31</f>
-        <v>2.225806451612903</v>
+        <v>3.6774193548387095</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -4932,6 +4974,10 @@
       <c r="J48" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="K48" s="3">
+        <f>SUM(D157:D186)/30</f>
+        <v>0.23333333333333334</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
@@ -7070,13 +7116,16 @@
       <c r="C145" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="D145" s="3">
+        <v>5</v>
+      </c>
       <c r="E145" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="4"/>
-        <v>3.5714285714285716</v>
+        <v>3.6071428571428572</v>
       </c>
       <c r="G145" s="3">
         <v>140</v>
@@ -7086,13 +7135,19 @@
       <c r="B146" s="1">
         <v>44702</v>
       </c>
+      <c r="C146" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="3">
+        <v>4</v>
+      </c>
       <c r="E146" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="4"/>
-        <v>3.5460992907801416</v>
+        <v>3.6099290780141846</v>
       </c>
       <c r="G146" s="3">
         <v>141</v>
@@ -7102,13 +7157,19 @@
       <c r="B147" s="1">
         <v>44703</v>
       </c>
+      <c r="C147" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D147" s="3">
+        <v>4</v>
+      </c>
       <c r="E147" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F147" s="5">
         <f t="shared" si="4"/>
-        <v>3.5211267605633805</v>
+        <v>3.612676056338028</v>
       </c>
       <c r="G147" s="3">
         <v>142</v>
@@ -7118,13 +7179,19 @@
       <c r="B148" s="1">
         <v>44704</v>
       </c>
+      <c r="C148" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D148" s="3">
+        <v>4</v>
+      </c>
       <c r="E148" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="4"/>
-        <v>3.4965034965034967</v>
+        <v>3.6153846153846154</v>
       </c>
       <c r="G148" s="3">
         <v>143</v>
@@ -7134,13 +7201,19 @@
       <c r="B149" s="1">
         <v>44705</v>
       </c>
+      <c r="C149" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" s="3">
+        <v>3</v>
+      </c>
       <c r="E149" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="F149" s="5">
         <f t="shared" si="4"/>
-        <v>3.4722222222222223</v>
+        <v>3.6111111111111112</v>
       </c>
       <c r="G149" s="3">
         <v>144</v>
@@ -7150,13 +7223,19 @@
       <c r="B150" s="1">
         <v>44706</v>
       </c>
+      <c r="C150" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" s="3">
+        <v>3</v>
+      </c>
       <c r="E150" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="4"/>
-        <v>3.4482758620689653</v>
+        <v>3.6068965517241378</v>
       </c>
       <c r="G150" s="3">
         <v>145</v>
@@ -7166,13 +7245,19 @@
       <c r="B151" s="1">
         <v>44707</v>
       </c>
+      <c r="C151" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2</v>
+      </c>
       <c r="E151" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="4"/>
-        <v>3.4246575342465753</v>
+        <v>3.595890410958904</v>
       </c>
       <c r="G151" s="3">
         <v>146</v>
@@ -7182,13 +7267,19 @@
       <c r="B152" s="1">
         <v>44708</v>
       </c>
+      <c r="C152" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D152" s="3">
+        <v>4</v>
+      </c>
       <c r="E152" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="4"/>
-        <v>3.4013605442176869</v>
+        <v>3.5986394557823131</v>
       </c>
       <c r="G152" s="3">
         <v>147</v>
@@ -7198,13 +7289,19 @@
       <c r="B153" s="1">
         <v>44709</v>
       </c>
+      <c r="C153" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D153" s="3">
+        <v>3</v>
+      </c>
       <c r="E153" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="F153" s="5">
         <f t="shared" si="4"/>
-        <v>3.3783783783783785</v>
+        <v>3.5945945945945947</v>
       </c>
       <c r="G153" s="3">
         <v>148</v>
@@ -7214,13 +7311,19 @@
       <c r="B154" s="1">
         <v>44710</v>
       </c>
+      <c r="C154" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" s="3">
+        <v>4</v>
+      </c>
       <c r="E154" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="F154" s="5">
         <f t="shared" si="4"/>
-        <v>3.3557046979865772</v>
+        <v>3.5973154362416109</v>
       </c>
       <c r="G154" s="3">
         <v>149</v>
@@ -7230,13 +7333,19 @@
       <c r="B155" s="1">
         <v>44711</v>
       </c>
+      <c r="C155" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D155" s="3">
+        <v>5</v>
+      </c>
       <c r="E155" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="F155" s="5">
         <f t="shared" ref="F155:F218" si="6">E155/G155</f>
-        <v>3.3333333333333335</v>
+        <v>3.6066666666666665</v>
       </c>
       <c r="G155" s="3">
         <v>150</v>
@@ -7246,13 +7355,19 @@
       <c r="B156" s="1">
         <v>44712</v>
       </c>
+      <c r="C156" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D156" s="3">
+        <v>4</v>
+      </c>
       <c r="E156" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="F156" s="5">
         <f t="shared" si="6"/>
-        <v>3.3112582781456954</v>
+        <v>3.6092715231788079</v>
       </c>
       <c r="G156" s="3">
         <v>151</v>
@@ -7262,13 +7377,19 @@
       <c r="B157" s="1">
         <v>44713</v>
       </c>
+      <c r="C157" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4</v>
+      </c>
       <c r="E157" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="6"/>
-        <v>3.2894736842105261</v>
+        <v>3.611842105263158</v>
       </c>
       <c r="G157" s="3">
         <v>152</v>
@@ -7278,13 +7399,19 @@
       <c r="B158" s="1">
         <v>44714</v>
       </c>
+      <c r="C158" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" s="3">
+        <v>3</v>
+      </c>
       <c r="E158" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="6"/>
-        <v>3.2679738562091503</v>
+        <v>3.607843137254902</v>
       </c>
       <c r="G158" s="3">
         <v>153</v>
@@ -7296,11 +7423,11 @@
       </c>
       <c r="E159" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F159" s="5">
         <f t="shared" si="6"/>
-        <v>3.2467532467532467</v>
+        <v>3.5844155844155843</v>
       </c>
       <c r="G159" s="3">
         <v>154</v>
@@ -7312,11 +7439,11 @@
       </c>
       <c r="E160" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F160" s="5">
         <f t="shared" si="6"/>
-        <v>3.225806451612903</v>
+        <v>3.5612903225806454</v>
       </c>
       <c r="G160" s="3">
         <v>155</v>
@@ -7328,11 +7455,11 @@
       </c>
       <c r="E161" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F161" s="5">
         <f t="shared" si="6"/>
-        <v>3.2051282051282053</v>
+        <v>3.5384615384615383</v>
       </c>
       <c r="G161" s="3">
         <v>156</v>
@@ -7344,11 +7471,11 @@
       </c>
       <c r="E162" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" si="6"/>
-        <v>3.1847133757961785</v>
+        <v>3.515923566878981</v>
       </c>
       <c r="G162" s="3">
         <v>157</v>
@@ -7360,11 +7487,11 @@
       </c>
       <c r="E163" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="6"/>
-        <v>3.1645569620253164</v>
+        <v>3.4936708860759493</v>
       </c>
       <c r="G163" s="3">
         <v>158</v>
@@ -7376,11 +7503,11 @@
       </c>
       <c r="E164" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="6"/>
-        <v>3.1446540880503147</v>
+        <v>3.4716981132075473</v>
       </c>
       <c r="G164" s="3">
         <v>159</v>
@@ -7392,11 +7519,11 @@
       </c>
       <c r="E165" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="6"/>
-        <v>3.125</v>
+        <v>3.45</v>
       </c>
       <c r="G165" s="3">
         <v>160</v>
@@ -7408,11 +7535,11 @@
       </c>
       <c r="E166" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="6"/>
-        <v>3.1055900621118013</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="G166" s="3">
         <v>161</v>
@@ -7424,11 +7551,11 @@
       </c>
       <c r="E167" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="6"/>
-        <v>3.0864197530864197</v>
+        <v>3.4074074074074074</v>
       </c>
       <c r="G167" s="3">
         <v>162</v>
@@ -7440,11 +7567,11 @@
       </c>
       <c r="E168" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="6"/>
-        <v>3.0674846625766872</v>
+        <v>3.3865030674846626</v>
       </c>
       <c r="G168" s="3">
         <v>163</v>
@@ -7456,11 +7583,11 @@
       </c>
       <c r="E169" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="6"/>
-        <v>3.0487804878048781</v>
+        <v>3.3658536585365852</v>
       </c>
       <c r="G169" s="3">
         <v>164</v>
@@ -7472,11 +7599,11 @@
       </c>
       <c r="E170" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="6"/>
-        <v>3.0303030303030303</v>
+        <v>3.3454545454545452</v>
       </c>
       <c r="G170" s="3">
         <v>165</v>
@@ -7488,11 +7615,11 @@
       </c>
       <c r="E171" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="6"/>
-        <v>3.0120481927710845</v>
+        <v>3.3253012048192772</v>
       </c>
       <c r="G171" s="3">
         <v>166</v>
@@ -7504,11 +7631,11 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="6"/>
-        <v>2.9940119760479043</v>
+        <v>3.3053892215568861</v>
       </c>
       <c r="G172" s="3">
         <v>167</v>
@@ -7520,11 +7647,11 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>2.9761904761904763</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -7536,11 +7663,11 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>2.9585798816568047</v>
+        <v>3.2662721893491122</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -7552,11 +7679,11 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>2.9411764705882355</v>
+        <v>3.2470588235294118</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -7568,11 +7695,11 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>2.9239766081871346</v>
+        <v>3.2280701754385963</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -7584,11 +7711,11 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>2.9069767441860463</v>
+        <v>3.2093023255813953</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -7600,11 +7727,11 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>2.8901734104046244</v>
+        <v>3.1907514450867054</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -7616,11 +7743,11 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>2.8735632183908044</v>
+        <v>3.1724137931034484</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -7632,11 +7759,11 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>2.8571428571428572</v>
+        <v>3.1542857142857144</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -7648,11 +7775,11 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>2.8409090909090908</v>
+        <v>3.1363636363636362</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -7664,11 +7791,11 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>2.8248587570621471</v>
+        <v>3.1186440677966103</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -7680,11 +7807,11 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>2.808988764044944</v>
+        <v>3.101123595505618</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -7696,11 +7823,11 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>2.7932960893854748</v>
+        <v>3.0837988826815641</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -7712,11 +7839,11 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>2.7777777777777777</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -7728,11 +7855,11 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>2.7624309392265194</v>
+        <v>3.0497237569060776</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -7744,11 +7871,11 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>2.7472527472527473</v>
+        <v>3.0329670329670328</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -7760,11 +7887,11 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>2.7322404371584699</v>
+        <v>3.0163934426229506</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -7776,11 +7903,11 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>2.7173913043478262</v>
+        <v>3</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -7792,11 +7919,11 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>2.7027027027027026</v>
+        <v>2.9837837837837839</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -7808,11 +7935,11 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>2.6881720430107525</v>
+        <v>2.967741935483871</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -7824,11 +7951,11 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>2.6737967914438503</v>
+        <v>2.9518716577540105</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -7840,11 +7967,11 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>2.6595744680851063</v>
+        <v>2.9361702127659575</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -7856,11 +7983,11 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>2.6455026455026456</v>
+        <v>2.9206349206349205</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -7872,11 +7999,11 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>2.6315789473684212</v>
+        <v>2.905263157894737</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -7888,11 +8015,11 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>2.6178010471204187</v>
+        <v>2.8900523560209423</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -7904,11 +8031,11 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>2.6041666666666665</v>
+        <v>2.875</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -7920,11 +8047,11 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>2.5906735751295336</v>
+        <v>2.8601036269430051</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -7936,11 +8063,11 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>2.5773195876288661</v>
+        <v>2.8453608247422681</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -7952,11 +8079,11 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>2.5641025641025643</v>
+        <v>2.8307692307692309</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -7968,11 +8095,11 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>2.5510204081632653</v>
+        <v>2.8163265306122449</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -7984,11 +8111,11 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>2.5380710659898478</v>
+        <v>2.8020304568527918</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -8000,11 +8127,11 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>2.5252525252525251</v>
+        <v>2.7878787878787881</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -8016,11 +8143,11 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>2.512562814070352</v>
+        <v>2.7738693467336684</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -8032,11 +8159,11 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -8048,11 +8175,11 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>2.4875621890547261</v>
+        <v>2.7462686567164178</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -8064,11 +8191,11 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>2.4752475247524752</v>
+        <v>2.7326732673267329</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -8080,11 +8207,11 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.4630541871921183</v>
+        <v>2.7192118226600983</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -8096,11 +8223,11 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.4509803921568629</v>
+        <v>2.7058823529411766</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -8112,11 +8239,11 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.4390243902439024</v>
+        <v>2.6926829268292685</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -8128,11 +8255,11 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.4271844660194173</v>
+        <v>2.679611650485437</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -8144,11 +8271,11 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.4154589371980677</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -8160,11 +8287,11 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.4038461538461537</v>
+        <v>2.6538461538461537</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -8176,11 +8303,11 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.3923444976076556</v>
+        <v>2.6411483253588517</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -8192,11 +8319,11 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.3809523809523809</v>
+        <v>2.6285714285714286</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -8208,11 +8335,11 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.3696682464454977</v>
+        <v>2.6161137440758293</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -8224,11 +8351,11 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.358490566037736</v>
+        <v>2.6037735849056602</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -8240,11 +8367,11 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.347417840375587</v>
+        <v>2.591549295774648</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -8256,11 +8383,11 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.3364485981308412</v>
+        <v>2.5794392523364484</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -8272,11 +8399,11 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.3255813953488373</v>
+        <v>2.5674418604651161</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -8288,11 +8415,11 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.3148148148148149</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -8304,11 +8431,11 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.3041474654377878</v>
+        <v>2.5437788018433181</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -8320,11 +8447,11 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.2935779816513762</v>
+        <v>2.5321100917431192</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -8336,11 +8463,11 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.2831050228310503</v>
+        <v>2.5205479452054793</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -8352,11 +8479,11 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.2727272727272729</v>
+        <v>2.5090909090909093</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -8368,11 +8495,11 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.2624434389140271</v>
+        <v>2.497737556561086</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -8384,11 +8511,11 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.2522522522522523</v>
+        <v>2.4864864864864864</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -8400,11 +8527,11 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.2421524663677128</v>
+        <v>2.4753363228699552</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -8416,11 +8543,11 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.2321428571428572</v>
+        <v>2.4642857142857144</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -8432,11 +8559,11 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.2222222222222223</v>
+        <v>2.4533333333333331</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -8448,11 +8575,11 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.2123893805309733</v>
+        <v>2.4424778761061945</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -8464,11 +8591,11 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.2026431718061672</v>
+        <v>2.4317180616740086</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -8480,11 +8607,11 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.192982456140351</v>
+        <v>2.4210526315789473</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -8496,11 +8623,11 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.1834061135371181</v>
+        <v>2.410480349344978</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -8512,11 +8639,11 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.1739130434782608</v>
+        <v>2.4</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -8528,11 +8655,11 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.1645021645021645</v>
+        <v>2.3896103896103895</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -8544,11 +8671,11 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.1551724137931036</v>
+        <v>2.3793103448275863</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -8560,11 +8687,11 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.1459227467811157</v>
+        <v>2.3690987124463518</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -8576,11 +8703,11 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.1367521367521367</v>
+        <v>2.358974358974359</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -8592,11 +8719,11 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.1276595744680851</v>
+        <v>2.3489361702127658</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -8608,11 +8735,11 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.1186440677966103</v>
+        <v>2.3389830508474576</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -8624,11 +8751,11 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.109704641350211</v>
+        <v>2.3291139240506329</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -8640,11 +8767,11 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.1008403361344539</v>
+        <v>2.3193277310924372</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -8656,11 +8783,11 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.0920502092050208</v>
+        <v>2.3096234309623429</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -8672,11 +8799,11 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.0833333333333335</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -8688,11 +8815,11 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.0746887966804981</v>
+        <v>2.2904564315352696</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -8704,11 +8831,11 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.0661157024793386</v>
+        <v>2.28099173553719</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -8720,11 +8847,11 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.0576131687242798</v>
+        <v>2.2716049382716048</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -8736,11 +8863,11 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>2.0491803278688523</v>
+        <v>2.262295081967213</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -8752,11 +8879,11 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>2.0408163265306123</v>
+        <v>2.2530612244897958</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -8768,11 +8895,11 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>2.0325203252032522</v>
+        <v>2.2439024390243905</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -8784,11 +8911,11 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>2.0242914979757085</v>
+        <v>2.2348178137651824</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -8800,11 +8927,11 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>2.0161290322580645</v>
+        <v>2.225806451612903</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -8816,11 +8943,11 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>2.0080321285140563</v>
+        <v>2.2168674698795181</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -8832,11 +8959,11 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -8848,11 +8975,11 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>1.9920318725099602</v>
+        <v>2.1992031872509958</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -8864,11 +8991,11 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>1.9841269841269842</v>
+        <v>2.1904761904761907</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -8880,11 +9007,11 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>1.9762845849802371</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -8896,11 +9023,11 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>1.9685039370078741</v>
+        <v>2.173228346456693</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -8912,11 +9039,11 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>1.9607843137254901</v>
+        <v>2.164705882352941</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -8928,11 +9055,11 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>1.953125</v>
+        <v>2.15625</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -8944,11 +9071,11 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>1.9455252918287937</v>
+        <v>2.1478599221789882</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -8960,11 +9087,11 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>1.9379844961240309</v>
+        <v>2.13953488372093</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -8976,11 +9103,11 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>1.9305019305019304</v>
+        <v>2.1312741312741315</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -8992,11 +9119,11 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>1.9230769230769231</v>
+        <v>2.1230769230769231</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -9008,11 +9135,11 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>1.9157088122605364</v>
+        <v>2.1149425287356323</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -9024,11 +9151,11 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>1.9083969465648856</v>
+        <v>2.1068702290076335</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -9040,11 +9167,11 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>1.9011406844106464</v>
+        <v>2.0988593155893538</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -9056,11 +9183,11 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>1.893939393939394</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -9072,11 +9199,11 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>1.8867924528301887</v>
+        <v>2.0830188679245283</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -9088,11 +9215,11 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>1.8796992481203008</v>
+        <v>2.0751879699248121</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -9104,11 +9231,11 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>1.8726591760299625</v>
+        <v>2.0674157303370788</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -9120,11 +9247,11 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>1.8656716417910448</v>
+        <v>2.0597014925373136</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -9136,11 +9263,11 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>1.8587360594795539</v>
+        <v>2.0520446096654275</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -9152,11 +9279,11 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>1.8518518518518519</v>
+        <v>2.0444444444444443</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -9168,11 +9295,11 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>1.8450184501845019</v>
+        <v>2.03690036900369</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -9184,11 +9311,11 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>1.838235294117647</v>
+        <v>2.0294117647058822</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -9200,11 +9327,11 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>1.8315018315018314</v>
+        <v>2.0219780219780219</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -9216,11 +9343,11 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>1.8248175182481752</v>
+        <v>2.0145985401459856</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -9232,11 +9359,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>1.8181818181818181</v>
+        <v>2.0072727272727273</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -9248,11 +9375,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>1.8115942028985508</v>
+        <v>2</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -9264,11 +9391,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>1.8050541516245486</v>
+        <v>1.9927797833935017</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -9280,11 +9407,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>1.7985611510791366</v>
+        <v>1.985611510791367</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -9296,11 +9423,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>1.7921146953405018</v>
+        <v>1.978494623655914</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -9312,11 +9439,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>1.7857142857142858</v>
+        <v>1.9714285714285715</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -9328,11 +9455,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>1.7793594306049823</v>
+        <v>1.9644128113879002</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -9344,11 +9471,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>1.7730496453900708</v>
+        <v>1.9574468085106382</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -9360,11 +9487,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>1.7667844522968197</v>
+        <v>1.9505300353356891</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -9376,11 +9503,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>1.7605633802816902</v>
+        <v>1.943661971830986</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -9392,11 +9519,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>1.7543859649122806</v>
+        <v>1.9368421052631579</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -9408,11 +9535,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>1.7482517482517483</v>
+        <v>1.93006993006993</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -9424,11 +9551,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>1.7421602787456445</v>
+        <v>1.9233449477351916</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -9440,11 +9567,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>1.7361111111111112</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -9456,11 +9583,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>1.7301038062283738</v>
+        <v>1.9100346020761245</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -9472,11 +9599,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>1.7241379310344827</v>
+        <v>1.903448275862069</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -9488,11 +9615,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>1.7182130584192439</v>
+        <v>1.8969072164948453</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -9504,11 +9631,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>1.7123287671232876</v>
+        <v>1.8904109589041096</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -9520,11 +9647,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>1.7064846416382253</v>
+        <v>1.8839590443686007</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -9536,11 +9663,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>1.7006802721088434</v>
+        <v>1.8775510204081634</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -9552,11 +9679,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>1.6949152542372881</v>
+        <v>1.8711864406779661</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -9568,11 +9695,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>1.6891891891891893</v>
+        <v>1.8648648648648649</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -9584,11 +9711,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>1.6835016835016836</v>
+        <v>1.8585858585858586</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -9600,11 +9727,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>1.6778523489932886</v>
+        <v>1.8523489932885906</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -9616,11 +9743,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>1.6722408026755853</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -9632,11 +9759,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>1.6666666666666667</v>
+        <v>1.84</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -9648,11 +9775,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>1.6611295681063123</v>
+        <v>1.8338870431893688</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -9664,11 +9791,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>1.6556291390728477</v>
+        <v>1.8278145695364238</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -9680,11 +9807,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>1.6501650165016502</v>
+        <v>1.8217821782178218</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -9696,11 +9823,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.6447368421052631</v>
+        <v>1.8157894736842106</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -9712,11 +9839,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.639344262295082</v>
+        <v>1.8098360655737704</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -9728,11 +9855,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.6339869281045751</v>
+        <v>1.803921568627451</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -9744,11 +9871,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.6286644951140066</v>
+        <v>1.7980456026058631</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -9760,11 +9887,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.6233766233766234</v>
+        <v>1.7922077922077921</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -9776,11 +9903,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.6181229773462784</v>
+        <v>1.7864077669902914</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -9792,11 +9919,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.6129032258064515</v>
+        <v>1.7806451612903227</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -9808,11 +9935,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.607717041800643</v>
+        <v>1.77491961414791</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -9824,11 +9951,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.6025641025641026</v>
+        <v>1.7692307692307692</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -9840,11 +9967,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.5974440894568691</v>
+        <v>1.7635782747603834</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -9856,11 +9983,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.5923566878980893</v>
+        <v>1.7579617834394905</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -9872,11 +9999,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.5873015873015872</v>
+        <v>1.7523809523809524</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -9888,11 +10015,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.5822784810126582</v>
+        <v>1.7468354430379747</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -9904,11 +10031,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.5772870662460567</v>
+        <v>1.7413249211356467</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -9920,11 +10047,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.5723270440251573</v>
+        <v>1.7358490566037736</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -9936,11 +10063,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.567398119122257</v>
+        <v>1.7304075235109717</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -9952,11 +10079,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.5625</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -9968,11 +10095,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.557632398753894</v>
+        <v>1.719626168224299</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -9984,11 +10111,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.5527950310559007</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -10000,11 +10127,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.5479876160990713</v>
+        <v>1.7089783281733746</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -10016,11 +10143,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.5432098765432098</v>
+        <v>1.7037037037037037</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -10032,11 +10159,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.5384615384615385</v>
+        <v>1.6984615384615385</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -10048,11 +10175,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.5337423312883436</v>
+        <v>1.6932515337423313</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -10064,11 +10191,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.5290519877675841</v>
+        <v>1.6880733944954129</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -10080,11 +10207,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.524390243902439</v>
+        <v>1.6829268292682926</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -10096,11 +10223,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.5197568389057752</v>
+        <v>1.6778115501519757</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -10112,11 +10239,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.5151515151515151</v>
+        <v>1.6727272727272726</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -10128,11 +10255,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.5105740181268883</v>
+        <v>1.6676737160120847</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -10144,11 +10271,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.5060240963855422</v>
+        <v>1.6626506024096386</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -10160,11 +10287,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.5015015015015014</v>
+        <v>1.6576576576576576</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -10176,11 +10303,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.4970059880239521</v>
+        <v>1.652694610778443</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -10192,11 +10319,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.4925373134328359</v>
+        <v>1.6477611940298507</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -10208,11 +10335,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.4880952380952381</v>
+        <v>1.6428571428571428</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -10224,11 +10351,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.4836795252225519</v>
+        <v>1.6379821958456973</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -10240,11 +10367,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.4792899408284024</v>
+        <v>1.6331360946745561</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -10256,11 +10383,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.4749262536873156</v>
+        <v>1.6283185840707965</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -10272,11 +10399,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.4705882352941178</v>
+        <v>1.6235294117647059</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -10288,11 +10415,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.466275659824047</v>
+        <v>1.6187683284457477</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -10304,11 +10431,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.4619883040935673</v>
+        <v>1.6140350877192982</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -10320,11 +10447,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.4577259475218658</v>
+        <v>1.6093294460641399</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -10336,11 +10463,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.4534883720930232</v>
+        <v>1.6046511627906976</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -10352,11 +10479,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.4492753623188406</v>
+        <v>1.6</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -10368,11 +10495,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.4450867052023122</v>
+        <v>1.5953757225433527</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -10384,11 +10511,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.4409221902017291</v>
+        <v>1.5907780979827089</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -10400,11 +10527,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.4367816091954022</v>
+        <v>1.5862068965517242</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -10416,11 +10543,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.4326647564469914</v>
+        <v>1.5816618911174785</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -10432,11 +10559,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.4285714285714286</v>
+        <v>1.5771428571428572</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -10448,11 +10575,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.4245014245014245</v>
+        <v>1.5726495726495726</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -10464,11 +10591,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.4204545454545454</v>
+        <v>1.5681818181818181</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -10480,11 +10607,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.4164305949008498</v>
+        <v>1.5637393767705383</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -10496,11 +10623,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.4124293785310735</v>
+        <v>1.5593220338983051</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -10512,11 +10639,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.408450704225352</v>
+        <v>1.5549295774647887</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -10528,11 +10655,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.404494382022472</v>
+        <v>1.550561797752809</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -10544,11 +10671,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.4005602240896358</v>
+        <v>1.546218487394958</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -10560,11 +10687,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.3966480446927374</v>
+        <v>1.5418994413407821</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -10576,11 +10703,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.392757660167131</v>
+        <v>1.5376044568245126</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -10592,11 +10719,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.3888888888888888</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -10608,11 +10735,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.3850415512465375</v>
+        <v>1.5290858725761773</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -10624,11 +10751,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.3812154696132597</v>
+        <v>1.5248618784530388</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -10640,11 +10767,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.3774104683195592</v>
+        <v>1.5206611570247934</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -10656,11 +10783,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.3736263736263736</v>
+        <v>1.5164835164835164</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -10672,11 +10799,11 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.3698630136986301</v>
+        <v>1.5123287671232877</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>
@@ -10685,7 +10812,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K43:K47" formulaRange="1"/>
+    <ignoredError sqref="K43:K48" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6775C53F-6674-374C-9FF6-93F7EE25D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B5551-65E9-6340-AEFE-D9B77468CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$N$62:$N$113</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$O$62:$O$113</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>running sum</t>
   </si>
@@ -536,6 +540,177 @@
   </si>
   <si>
     <t>american dream</t>
+  </si>
+  <si>
+    <t>weekly scores:</t>
+  </si>
+  <si>
+    <t>week 1</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>week 3</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t>week 5</t>
+  </si>
+  <si>
+    <t>week 6</t>
+  </si>
+  <si>
+    <t>week 7</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>week 11</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>week 13</t>
+  </si>
+  <si>
+    <t>week 14</t>
+  </si>
+  <si>
+    <t>week 15</t>
+  </si>
+  <si>
+    <t>week 16</t>
+  </si>
+  <si>
+    <t>week 17</t>
+  </si>
+  <si>
+    <t>week 18</t>
+  </si>
+  <si>
+    <t>week 19</t>
+  </si>
+  <si>
+    <t>week 20</t>
+  </si>
+  <si>
+    <t>week 21</t>
+  </si>
+  <si>
+    <t>week 22</t>
+  </si>
+  <si>
+    <t>week 23</t>
+  </si>
+  <si>
+    <t>week 24</t>
+  </si>
+  <si>
+    <t>week 25</t>
+  </si>
+  <si>
+    <t>week 26</t>
+  </si>
+  <si>
+    <t>week 27</t>
+  </si>
+  <si>
+    <t>week 28</t>
+  </si>
+  <si>
+    <t>week 29</t>
+  </si>
+  <si>
+    <t>week 30</t>
+  </si>
+  <si>
+    <t>week 31</t>
+  </si>
+  <si>
+    <t>week 32</t>
+  </si>
+  <si>
+    <t>week 33</t>
+  </si>
+  <si>
+    <t>week 34</t>
+  </si>
+  <si>
+    <t>week 35</t>
+  </si>
+  <si>
+    <t>week 36</t>
+  </si>
+  <si>
+    <t>week 37</t>
+  </si>
+  <si>
+    <t>week 38</t>
+  </si>
+  <si>
+    <t>week 39</t>
+  </si>
+  <si>
+    <t>week 40</t>
+  </si>
+  <si>
+    <t>week 41</t>
+  </si>
+  <si>
+    <t>week 42</t>
+  </si>
+  <si>
+    <t>week 43</t>
+  </si>
+  <si>
+    <t>week 44</t>
+  </si>
+  <si>
+    <t>week 45</t>
+  </si>
+  <si>
+    <t>week 46</t>
+  </si>
+  <si>
+    <t>week 47</t>
+  </si>
+  <si>
+    <t>week 48</t>
+  </si>
+  <si>
+    <t>week 49</t>
+  </si>
+  <si>
+    <t>week 50</t>
+  </si>
+  <si>
+    <t>week 51</t>
+  </si>
+  <si>
+    <t>week 52</t>
+  </si>
+  <si>
+    <t>Teen Dream</t>
+  </si>
+  <si>
+    <t>better luck next time.</t>
+  </si>
+  <si>
+    <t>Thumbs</t>
+  </si>
+  <si>
+    <t>King's Disease</t>
   </si>
 </sst>
 </file>
@@ -545,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,6 +732,12 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Futura Medium"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1178,640 +1359,640 @@
                   <c:v>3.607843137254902</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.5844155844155843</c:v>
+                  <c:v>3.616883116883117</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.5612903225806454</c:v>
+                  <c:v>3.6064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.5384615384615383</c:v>
+                  <c:v>3.608974358974359</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.515923566878981</c:v>
+                  <c:v>3.605095541401274</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.4936708860759493</c:v>
+                  <c:v>3.5822784810126582</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.4716981132075473</c:v>
+                  <c:v>3.5597484276729561</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.45</c:v>
+                  <c:v>3.5375000000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.4285714285714284</c:v>
+                  <c:v>3.5155279503105592</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.4074074074074074</c:v>
+                  <c:v>3.4938271604938271</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3865030674846626</c:v>
+                  <c:v>3.4723926380368098</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.3658536585365852</c:v>
+                  <c:v>3.4512195121951219</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.3454545454545452</c:v>
+                  <c:v>3.4303030303030302</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.3253012048192772</c:v>
+                  <c:v>3.4096385542168677</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.3053892215568861</c:v>
+                  <c:v>3.3892215568862274</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.2857142857142856</c:v>
+                  <c:v>3.3690476190476191</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.2662721893491122</c:v>
+                  <c:v>3.3491124260355027</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.2470588235294118</c:v>
+                  <c:v>3.3294117647058825</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.2280701754385963</c:v>
+                  <c:v>3.3099415204678362</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.2093023255813953</c:v>
+                  <c:v>3.2906976744186047</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.1907514450867054</c:v>
+                  <c:v>3.2716763005780347</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.1724137931034484</c:v>
+                  <c:v>3.2528735632183907</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.1542857142857144</c:v>
+                  <c:v>3.2342857142857144</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.1363636363636362</c:v>
+                  <c:v>3.2159090909090908</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.1186440677966103</c:v>
+                  <c:v>3.1977401129943503</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.101123595505618</c:v>
+                  <c:v>3.1797752808988764</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.0837988826815641</c:v>
+                  <c:v>3.1620111731843576</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.0666666666666669</c:v>
+                  <c:v>3.1444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.0497237569060776</c:v>
+                  <c:v>3.1270718232044197</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.0329670329670328</c:v>
+                  <c:v>3.1098901098901099</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.0163934426229506</c:v>
+                  <c:v>3.0928961748633879</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3</c:v>
+                  <c:v>3.0760869565217392</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.9837837837837839</c:v>
+                  <c:v>3.0594594594594593</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.967741935483871</c:v>
+                  <c:v>3.043010752688172</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.9518716577540105</c:v>
+                  <c:v>3.0267379679144386</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.9361702127659575</c:v>
+                  <c:v>3.0106382978723403</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.9206349206349205</c:v>
+                  <c:v>2.9947089947089949</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.905263157894737</c:v>
+                  <c:v>2.9789473684210526</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.8900523560209423</c:v>
+                  <c:v>2.9633507853403143</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.875</c:v>
+                  <c:v>2.9479166666666665</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.8601036269430051</c:v>
+                  <c:v>2.9326424870466323</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.8453608247422681</c:v>
+                  <c:v>2.9175257731958761</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.8307692307692309</c:v>
+                  <c:v>2.9025641025641025</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.8163265306122449</c:v>
+                  <c:v>2.8877551020408165</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.8020304568527918</c:v>
+                  <c:v>2.8730964467005076</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.7878787878787881</c:v>
+                  <c:v>2.8585858585858586</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.7738693467336684</c:v>
+                  <c:v>2.8442211055276383</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.76</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.7462686567164178</c:v>
+                  <c:v>2.8159203980099501</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.7326732673267329</c:v>
+                  <c:v>2.8019801980198018</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.7192118226600983</c:v>
+                  <c:v>2.7881773399014778</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.7058823529411766</c:v>
+                  <c:v>2.7745098039215685</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.6926829268292685</c:v>
+                  <c:v>2.7609756097560973</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.679611650485437</c:v>
+                  <c:v>2.7475728155339807</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>2.7342995169082127</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.6538461538461537</c:v>
+                  <c:v>2.7211538461538463</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.6411483253588517</c:v>
+                  <c:v>2.7081339712918662</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.6285714285714286</c:v>
+                  <c:v>2.6952380952380954</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.6161137440758293</c:v>
+                  <c:v>2.6824644549763033</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.6037735849056602</c:v>
+                  <c:v>2.6698113207547172</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.591549295774648</c:v>
+                  <c:v>2.6572769953051645</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.5794392523364484</c:v>
+                  <c:v>2.6448598130841123</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.5674418604651161</c:v>
+                  <c:v>2.6325581395348836</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.5555555555555554</c:v>
+                  <c:v>2.6203703703703702</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.5437788018433181</c:v>
+                  <c:v>2.6082949308755761</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.5321100917431192</c:v>
+                  <c:v>2.596330275229358</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.5205479452054793</c:v>
+                  <c:v>2.5844748858447488</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.5090909090909093</c:v>
+                  <c:v>2.5727272727272728</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.497737556561086</c:v>
+                  <c:v>2.5610859728506785</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.4864864864864864</c:v>
+                  <c:v>2.5495495495495497</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.4753363228699552</c:v>
+                  <c:v>2.5381165919282513</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.4642857142857144</c:v>
+                  <c:v>2.5267857142857144</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.4533333333333331</c:v>
+                  <c:v>2.5155555555555558</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.4424778761061945</c:v>
+                  <c:v>2.5044247787610621</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.4317180616740086</c:v>
+                  <c:v>2.4933920704845813</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.4210526315789473</c:v>
+                  <c:v>2.4824561403508771</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.410480349344978</c:v>
+                  <c:v>2.4716157205240177</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.4</c:v>
+                  <c:v>2.4608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.3896103896103895</c:v>
+                  <c:v>2.4502164502164501</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.3793103448275863</c:v>
+                  <c:v>2.4396551724137931</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.3690987124463518</c:v>
+                  <c:v>2.429184549356223</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.358974358974359</c:v>
+                  <c:v>2.4188034188034186</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.3489361702127658</c:v>
+                  <c:v>2.4085106382978725</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.3389830508474576</c:v>
+                  <c:v>2.3983050847457625</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.3291139240506329</c:v>
+                  <c:v>2.388185654008439</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.3193277310924372</c:v>
+                  <c:v>2.3781512605042017</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.3096234309623429</c:v>
+                  <c:v>2.3682008368200838</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.3583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.2904564315352696</c:v>
+                  <c:v>2.3485477178423237</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.28099173553719</c:v>
+                  <c:v>2.3388429752066116</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.2716049382716048</c:v>
+                  <c:v>2.3292181069958846</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.262295081967213</c:v>
+                  <c:v>2.319672131147541</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.2530612244897958</c:v>
+                  <c:v>2.3102040816326532</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.2439024390243905</c:v>
+                  <c:v>2.3008130081300813</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.2348178137651824</c:v>
+                  <c:v>2.2914979757085021</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.225806451612903</c:v>
+                  <c:v>2.282258064516129</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.2168674698795181</c:v>
+                  <c:v>2.2730923694779115</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.2080000000000002</c:v>
+                  <c:v>2.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.1992031872509958</c:v>
+                  <c:v>2.2549800796812751</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.1904761904761907</c:v>
+                  <c:v>2.246031746031746</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.1818181818181817</c:v>
+                  <c:v>2.2371541501976284</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.173228346456693</c:v>
+                  <c:v>2.2283464566929134</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.164705882352941</c:v>
+                  <c:v>2.219607843137255</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.15625</c:v>
+                  <c:v>2.2109375</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.1478599221789882</c:v>
+                  <c:v>2.2023346303501947</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.13953488372093</c:v>
+                  <c:v>2.193798449612403</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.1312741312741315</c:v>
+                  <c:v>2.1853281853281854</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.1230769230769231</c:v>
+                  <c:v>2.1769230769230767</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.1149425287356323</c:v>
+                  <c:v>2.1685823754789273</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.1068702290076335</c:v>
+                  <c:v>2.1603053435114505</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.0988593155893538</c:v>
+                  <c:v>2.1520912547528517</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.0909090909090908</c:v>
+                  <c:v>2.143939393939394</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.0830188679245283</c:v>
+                  <c:v>2.1358490566037736</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.0751879699248121</c:v>
+                  <c:v>2.1278195488721803</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.0674157303370788</c:v>
+                  <c:v>2.1198501872659175</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.0597014925373136</c:v>
+                  <c:v>2.1119402985074629</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.0520446096654275</c:v>
+                  <c:v>2.1040892193308549</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.0444444444444443</c:v>
+                  <c:v>2.0962962962962961</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.03690036900369</c:v>
+                  <c:v>2.0885608856088562</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.0294117647058822</c:v>
+                  <c:v>2.0808823529411766</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.0219780219780219</c:v>
+                  <c:v>2.0732600732600734</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.0145985401459856</c:v>
+                  <c:v>2.0656934306569341</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.0072727272727273</c:v>
+                  <c:v>2.0581818181818181</c:v>
                 </c:pt>
                 <c:pt idx="275">
+                  <c:v>2.0507246376811592</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.0433212996389893</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.035971223021583</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.0286738351254479</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.0214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.0142348754448398</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.0070921985815602</c:v>
+                </c:pt>
+                <c:pt idx="282">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="276">
-                  <c:v>1.9927797833935017</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>1.985611510791367</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>1.978494623655914</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>1.9714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>1.9644128113879002</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>1.9574468085106382</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>1.9505300353356891</c:v>
-                </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.943661971830986</c:v>
+                  <c:v>1.9929577464788732</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.9368421052631579</c:v>
+                  <c:v>1.9859649122807017</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.93006993006993</c:v>
+                  <c:v>1.979020979020979</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.9233449477351916</c:v>
+                  <c:v>1.9721254355400697</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.9166666666666667</c:v>
+                  <c:v>1.9652777777777777</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.9100346020761245</c:v>
+                  <c:v>1.9584775086505191</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.903448275862069</c:v>
+                  <c:v>1.9517241379310344</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.8969072164948453</c:v>
+                  <c:v>1.9450171821305842</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.8904109589041096</c:v>
+                  <c:v>1.9383561643835616</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.8839590443686007</c:v>
+                  <c:v>1.9317406143344711</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.8775510204081634</c:v>
+                  <c:v>1.9251700680272108</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.8711864406779661</c:v>
+                  <c:v>1.9186440677966101</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.8648648648648649</c:v>
+                  <c:v>1.9121621621621621</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.8585858585858586</c:v>
+                  <c:v>1.9057239057239057</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.8523489932885906</c:v>
+                  <c:v>1.8993288590604027</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.8461538461538463</c:v>
+                  <c:v>1.8929765886287626</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.84</c:v>
+                  <c:v>1.8866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.8338870431893688</c:v>
+                  <c:v>1.8803986710963456</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.8278145695364238</c:v>
+                  <c:v>1.8741721854304636</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.8217821782178218</c:v>
+                  <c:v>1.8679867986798679</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.8157894736842106</c:v>
+                  <c:v>1.861842105263158</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.8098360655737704</c:v>
+                  <c:v>1.8557377049180328</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.803921568627451</c:v>
+                  <c:v>1.8496732026143792</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.7980456026058631</c:v>
+                  <c:v>1.8436482084690553</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.7922077922077921</c:v>
+                  <c:v>1.8376623376623376</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.7864077669902914</c:v>
+                  <c:v>1.8317152103559871</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.7806451612903227</c:v>
+                  <c:v>1.8258064516129033</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.77491961414791</c:v>
+                  <c:v>1.819935691318328</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.7692307692307692</c:v>
+                  <c:v>1.8141025641025641</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.7635782747603834</c:v>
+                  <c:v>1.8083067092651757</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.7579617834394905</c:v>
+                  <c:v>1.802547770700637</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.7523809523809524</c:v>
+                  <c:v>1.7968253968253969</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.7468354430379747</c:v>
+                  <c:v>1.7911392405063291</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.7413249211356467</c:v>
+                  <c:v>1.7854889589905363</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.7358490566037736</c:v>
+                  <c:v>1.779874213836478</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.7304075235109717</c:v>
+                  <c:v>1.7742946708463949</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.76875</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.719626168224299</c:v>
+                  <c:v>1.7632398753894081</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.7142857142857142</c:v>
+                  <c:v>1.7577639751552796</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.7089783281733746</c:v>
+                  <c:v>1.7523219814241486</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.7037037037037037</c:v>
+                  <c:v>1.7469135802469136</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.6984615384615385</c:v>
+                  <c:v>1.7415384615384615</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.6932515337423313</c:v>
+                  <c:v>1.7361963190184049</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.6880733944954129</c:v>
+                  <c:v>1.7308868501529051</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.6829268292682926</c:v>
+                  <c:v>1.725609756097561</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.6778115501519757</c:v>
+                  <c:v>1.7203647416413375</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.6727272727272726</c:v>
+                  <c:v>1.7151515151515151</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.6676737160120847</c:v>
+                  <c:v>1.7099697885196374</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.6626506024096386</c:v>
+                  <c:v>1.7048192771084338</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.6576576576576576</c:v>
+                  <c:v>1.6996996996996998</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.652694610778443</c:v>
+                  <c:v>1.6946107784431137</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.6477611940298507</c:v>
+                  <c:v>1.6895522388059701</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.6428571428571428</c:v>
+                  <c:v>1.6845238095238095</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.6379821958456973</c:v>
+                  <c:v>1.6795252225519288</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.6331360946745561</c:v>
+                  <c:v>1.6745562130177514</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.6283185840707965</c:v>
+                  <c:v>1.6696165191740413</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.6235294117647059</c:v>
+                  <c:v>1.6647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.6187683284457477</c:v>
+                  <c:v>1.6598240469208212</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.6140350877192982</c:v>
+                  <c:v>1.6549707602339181</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.6093294460641399</c:v>
+                  <c:v>1.6501457725947521</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.6046511627906976</c:v>
+                  <c:v>1.6453488372093024</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.6</c:v>
+                  <c:v>1.6405797101449275</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.5953757225433527</c:v>
+                  <c:v>1.6358381502890174</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.5907780979827089</c:v>
+                  <c:v>1.6311239193083573</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.5862068965517242</c:v>
+                  <c:v>1.6264367816091954</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.5816618911174785</c:v>
+                  <c:v>1.6217765042979944</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.5771428571428572</c:v>
+                  <c:v>1.6171428571428572</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.5726495726495726</c:v>
+                  <c:v>1.6125356125356125</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.5681818181818181</c:v>
+                  <c:v>1.6079545454545454</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.5637393767705383</c:v>
+                  <c:v>1.6033994334277621</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.5593220338983051</c:v>
+                  <c:v>1.5988700564971752</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.5549295774647887</c:v>
+                  <c:v>1.5943661971830987</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.550561797752809</c:v>
+                  <c:v>1.5898876404494382</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.546218487394958</c:v>
+                  <c:v>1.5854341736694677</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.5418994413407821</c:v>
+                  <c:v>1.5810055865921788</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.5376044568245126</c:v>
+                  <c:v>1.5766016713091922</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.5333333333333334</c:v>
+                  <c:v>1.5722222222222222</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.5290858725761773</c:v>
+                  <c:v>1.5678670360110802</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.5248618784530388</c:v>
+                  <c:v>1.5635359116022098</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.5206611570247934</c:v>
+                  <c:v>1.559228650137741</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.5164835164835164</c:v>
+                  <c:v>1.554945054945055</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.5123287671232877</c:v>
+                  <c:v>1.5506849315068494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +2310,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$43:$J$54</c:f>
+              <c:f>Sheet1!$J$62:$J$73</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2173,7 +2354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$43:$K$54</c:f>
+              <c:f>Sheet1!$K$62:$K$73</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2193,7 +2374,7 @@
                   <c:v>3.6774193548387095</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.23333333333333334</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,6 +2581,558 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+                <a:cs typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+              </a:rPr>
+              <a:t>average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+                <a:cs typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+              </a:rPr>
+              <a:t> rating by week</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="Futura Medium" panose="020B0602020204020303" pitchFamily="34" charset="-79"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$62:$N$113</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>week 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>week 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>week 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>week 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>week 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>week 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>week 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>week 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>week 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>week 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>week 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>week 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>week 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>week 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>week 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>week 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>week 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>week 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>week 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>week 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>week 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>week 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>week 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>week 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>week 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>week 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>week 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>week 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>week 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>week 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>week 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>week 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>week 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>week 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>week 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>week 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>week 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>week 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>week 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>week 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>week 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>week 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>week 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>week 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>week 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>week 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>week 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>week 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>week 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>week 52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$62:$O$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>3.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43FB-7040-B4D2-5DD6B4B25C49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1611218000"/>
+        <c:axId val="1611082240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1611218000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611082240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1611082240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611218000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2441,6 +3174,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3578,6 +4351,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3647,6 +4969,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FBA654-501C-1341-AAF7-5BE4F4BC9D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3952,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
-  <dimension ref="B5:K370"/>
+  <dimension ref="B5:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3971,7 +5329,11 @@
     <col min="9" max="9" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="8" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -4582,7 +5944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44589</v>
       </c>
@@ -4604,7 +5966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44590</v>
       </c>
@@ -4626,7 +5988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44591</v>
       </c>
@@ -4648,7 +6010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44592</v>
       </c>
@@ -4670,7 +6032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44593</v>
       </c>
@@ -4692,7 +6054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44594</v>
       </c>
@@ -4714,7 +6076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44595</v>
       </c>
@@ -4736,7 +6098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44596</v>
       </c>
@@ -4758,7 +6120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44597</v>
       </c>
@@ -4780,7 +6142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44598</v>
       </c>
@@ -4802,7 +6164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44599</v>
       </c>
@@ -4823,18 +6185,8 @@
       <c r="G43" s="3">
         <v>38</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K43" s="5">
-        <f>SUM(D6:D36)/31</f>
-        <v>3.6451612903225805</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44600</v>
       </c>
@@ -4855,15 +6207,8 @@
       <c r="G44" s="3">
         <v>39</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K44" s="7">
-        <f>SUM(D37:D64)/28</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44601</v>
       </c>
@@ -4884,15 +6229,8 @@
       <c r="G45" s="3">
         <v>40</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" s="3">
-        <f>SUM(D65:D95)/31</f>
-        <v>3.4838709677419355</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44602</v>
       </c>
@@ -4913,15 +6251,8 @@
       <c r="G46" s="3">
         <v>41</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K46" s="3">
-        <f>SUM(D96:D125)/30</f>
-        <v>3.7333333333333334</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44603</v>
       </c>
@@ -4942,15 +6273,8 @@
       <c r="G47" s="3">
         <v>42</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K47" s="3">
-        <f>SUM(D126:D156)/31</f>
-        <v>3.6774193548387095</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44604</v>
       </c>
@@ -4971,15 +6295,8 @@
       <c r="G48" s="3">
         <v>43</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K48" s="3">
-        <f>SUM(D157:D186)/30</f>
-        <v>0.23333333333333334</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44605</v>
       </c>
@@ -5000,11 +6317,8 @@
       <c r="G49" s="3">
         <v>44</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44606</v>
       </c>
@@ -5025,11 +6339,8 @@
       <c r="G50" s="3">
         <v>45</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44607</v>
       </c>
@@ -5050,11 +6361,8 @@
       <c r="G51" s="3">
         <v>46</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44608</v>
       </c>
@@ -5075,11 +6383,8 @@
       <c r="G52" s="3">
         <v>47</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44609</v>
       </c>
@@ -5100,11 +6405,8 @@
       <c r="G53" s="3">
         <v>48</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44610</v>
       </c>
@@ -5125,11 +6427,8 @@
       <c r="G54" s="3">
         <v>49</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44611</v>
       </c>
@@ -5151,7 +6450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44612</v>
       </c>
@@ -5173,7 +6472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44613</v>
       </c>
@@ -5195,7 +6494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44614</v>
       </c>
@@ -5217,7 +6516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44615</v>
       </c>
@@ -5239,7 +6538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44616</v>
       </c>
@@ -5261,7 +6560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>44617</v>
       </c>
@@ -5283,7 +6582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44618</v>
       </c>
@@ -5304,8 +6603,28 @@
       <c r="G62" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K62" s="5">
+        <f>SUM(D6:D36)/31</f>
+        <v>3.6451612903225805</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O62" s="5">
+        <f>SUM(D6:D12)/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44619</v>
       </c>
@@ -5326,8 +6645,22 @@
       <c r="G63" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63" s="7">
+        <f>SUM(D37:D64)/28</f>
+        <v>3.5</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O63" s="5">
+        <f>SUM(D13:D19)/7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44620</v>
       </c>
@@ -5348,8 +6681,22 @@
       <c r="G64" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J64" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K64" s="3">
+        <f>SUM(D65:D95)/31</f>
+        <v>3.4838709677419355</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O64" s="5">
+        <f>SUM(D20:D26)/7</f>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>44621</v>
       </c>
@@ -5370,8 +6717,22 @@
       <c r="G65" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="3">
+        <f>SUM(D96:D125)/30</f>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O65" s="5">
+        <f>SUM(D27:D33)/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44622</v>
       </c>
@@ -5392,8 +6753,22 @@
       <c r="G66" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K66" s="3">
+        <f>SUM(D126:D156)/31</f>
+        <v>3.6774193548387095</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O66" s="5">
+        <f>SUM(D34:D40)/7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44623</v>
       </c>
@@ -5414,8 +6789,22 @@
       <c r="G67" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" s="3">
+        <f>SUM(D157:D186)/30</f>
+        <v>0.7</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O67" s="5">
+        <f>SUM(D41:D47)/7</f>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44624</v>
       </c>
@@ -5436,8 +6825,18 @@
       <c r="G68" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O68" s="5">
+        <f>SUM(D48:D54)/7</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44625</v>
       </c>
@@ -5458,8 +6857,18 @@
       <c r="G69" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O69" s="5">
+        <f>SUM(D55:D61)/7</f>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>44626</v>
       </c>
@@ -5480,8 +6889,18 @@
       <c r="G70" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O70" s="5">
+        <f>SUM(D62:D68)/7</f>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44627</v>
       </c>
@@ -5502,8 +6921,18 @@
       <c r="G71" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O71" s="5">
+        <f>SUM(D69:D75)/7</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44628</v>
       </c>
@@ -5524,8 +6953,18 @@
       <c r="G72" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O72" s="5">
+        <f>SUM(D76:D82)/7</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44629</v>
       </c>
@@ -5546,8 +6985,18 @@
       <c r="G73" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O73" s="5">
+        <f>SUM(D83:D89)/7</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>44630</v>
       </c>
@@ -5568,8 +7017,15 @@
       <c r="G74" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N74" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O74" s="5">
+        <f>SUM(D90:D96)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44631</v>
       </c>
@@ -5590,8 +7046,15 @@
       <c r="G75" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O75" s="5">
+        <f>SUM(D97:D103)/7</f>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44632</v>
       </c>
@@ -5612,8 +7075,15 @@
       <c r="G76" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O76" s="5">
+        <f>SUM(D104:D110)/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>44633</v>
       </c>
@@ -5634,8 +7104,15 @@
       <c r="G77" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O77" s="5">
+        <f>SUM(D111:D117)/7</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44634</v>
       </c>
@@ -5656,8 +7133,15 @@
       <c r="G78" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N78" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O78" s="5">
+        <f>SUM(D118:D124)/7</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44635</v>
       </c>
@@ -5678,8 +7162,15 @@
       <c r="G79" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O79" s="5">
+        <f>SUM(D125:D131)/7</f>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44636</v>
       </c>
@@ -5700,8 +7191,15 @@
       <c r="G80" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N80" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O80" s="5">
+        <f>SUM(D132:D138)/7</f>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44637</v>
       </c>
@@ -5722,8 +7220,15 @@
       <c r="G81" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N81" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O81" s="5">
+        <f>SUM(D139:D145)/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44638</v>
       </c>
@@ -5744,8 +7249,15 @@
       <c r="G82" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N82" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O82" s="5">
+        <f>SUM(D146:D152)/7</f>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44639</v>
       </c>
@@ -5766,8 +7278,15 @@
       <c r="G83" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N83" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O83" s="5">
+        <f>SUM(D153:D159)/7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44640</v>
       </c>
@@ -5788,8 +7307,15 @@
       <c r="G84" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O84" s="5">
+        <f>SUM(D160:D166)/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>44641</v>
       </c>
@@ -5810,8 +7336,12 @@
       <c r="G85" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44642</v>
       </c>
@@ -5832,8 +7362,12 @@
       <c r="G86" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N86" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44643</v>
       </c>
@@ -5854,8 +7388,12 @@
       <c r="G87" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44644</v>
       </c>
@@ -5876,8 +7414,12 @@
       <c r="G88" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44645</v>
       </c>
@@ -5898,8 +7440,12 @@
       <c r="G89" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N89" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>44646</v>
       </c>
@@ -5920,8 +7466,12 @@
       <c r="G90" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N90" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44647</v>
       </c>
@@ -5942,8 +7492,12 @@
       <c r="G91" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N91" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44648</v>
       </c>
@@ -5964,8 +7518,12 @@
       <c r="G92" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N92" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44649</v>
       </c>
@@ -5986,8 +7544,12 @@
       <c r="G93" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44650</v>
       </c>
@@ -6008,8 +7570,12 @@
       <c r="G94" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N94" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44651</v>
       </c>
@@ -6030,8 +7596,12 @@
       <c r="G95" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N95" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44652</v>
       </c>
@@ -6052,8 +7622,12 @@
       <c r="G96" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44653</v>
       </c>
@@ -6074,8 +7648,12 @@
       <c r="G97" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N97" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44654</v>
       </c>
@@ -6096,8 +7674,12 @@
       <c r="G98" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44655</v>
       </c>
@@ -6118,8 +7700,12 @@
       <c r="G99" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N99" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44656</v>
       </c>
@@ -6140,8 +7726,12 @@
       <c r="G100" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N100" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>44657</v>
       </c>
@@ -6162,8 +7752,12 @@
       <c r="G101" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N101" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44658</v>
       </c>
@@ -6184,8 +7778,12 @@
       <c r="G102" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44659</v>
       </c>
@@ -6206,8 +7804,12 @@
       <c r="G103" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44660</v>
       </c>
@@ -6228,8 +7830,12 @@
       <c r="G104" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N104" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44661</v>
       </c>
@@ -6250,8 +7856,12 @@
       <c r="G105" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N105" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O105" s="5"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44662</v>
       </c>
@@ -6272,8 +7882,12 @@
       <c r="G106" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="O106" s="5"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44663</v>
       </c>
@@ -6294,8 +7908,12 @@
       <c r="G107" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N107" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>44664</v>
       </c>
@@ -6316,8 +7934,12 @@
       <c r="G108" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N108" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44665</v>
       </c>
@@ -6338,8 +7960,12 @@
       <c r="G109" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N109" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O109" s="5"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44666</v>
       </c>
@@ -6360,8 +7986,12 @@
       <c r="G110" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N110" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44667</v>
       </c>
@@ -6382,8 +8012,12 @@
       <c r="G111" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N111" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O111" s="5"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44668</v>
       </c>
@@ -6404,8 +8038,12 @@
       <c r="G112" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N112" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O112" s="5"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>44669</v>
       </c>
@@ -6426,8 +8064,12 @@
       <c r="G113" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="N113" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>44670</v>
       </c>
@@ -6449,7 +8091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>44671</v>
       </c>
@@ -6471,7 +8113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>44672</v>
       </c>
@@ -6493,7 +8135,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>44673</v>
       </c>
@@ -6515,7 +8157,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>44674</v>
       </c>
@@ -6537,7 +8179,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44675</v>
       </c>
@@ -6559,7 +8201,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>44676</v>
       </c>
@@ -6581,7 +8223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>44677</v>
       </c>
@@ -6603,7 +8245,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>44678</v>
       </c>
@@ -6625,7 +8267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>44679</v>
       </c>
@@ -6647,7 +8289,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>44680</v>
       </c>
@@ -6669,7 +8311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>44681</v>
       </c>
@@ -6691,7 +8333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>44682</v>
       </c>
@@ -6713,7 +8355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>44683</v>
       </c>
@@ -6735,7 +8377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>44684</v>
       </c>
@@ -7421,13 +9063,19 @@
       <c r="B159" s="1">
         <v>44715</v>
       </c>
+      <c r="C159" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D159" s="3">
+        <v>5</v>
+      </c>
       <c r="E159" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F159" s="5">
         <f t="shared" si="6"/>
-        <v>3.5844155844155843</v>
+        <v>3.616883116883117</v>
       </c>
       <c r="G159" s="3">
         <v>154</v>
@@ -7437,13 +9085,19 @@
       <c r="B160" s="1">
         <v>44716</v>
       </c>
+      <c r="C160" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2</v>
+      </c>
       <c r="E160" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F160" s="5">
         <f t="shared" si="6"/>
-        <v>3.5612903225806454</v>
+        <v>3.6064516129032258</v>
       </c>
       <c r="G160" s="3">
         <v>155</v>
@@ -7453,13 +9107,19 @@
       <c r="B161" s="1">
         <v>44717</v>
       </c>
+      <c r="C161" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D161" s="3">
+        <v>4</v>
+      </c>
       <c r="E161" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="F161" s="5">
         <f t="shared" si="6"/>
-        <v>3.5384615384615383</v>
+        <v>3.608974358974359</v>
       </c>
       <c r="G161" s="3">
         <v>156</v>
@@ -7469,13 +9129,19 @@
       <c r="B162" s="1">
         <v>44718</v>
       </c>
+      <c r="C162" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="3">
+        <v>3</v>
+      </c>
       <c r="E162" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" si="6"/>
-        <v>3.515923566878981</v>
+        <v>3.605095541401274</v>
       </c>
       <c r="G162" s="3">
         <v>157</v>
@@ -7487,11 +9153,11 @@
       </c>
       <c r="E163" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="6"/>
-        <v>3.4936708860759493</v>
+        <v>3.5822784810126582</v>
       </c>
       <c r="G163" s="3">
         <v>158</v>
@@ -7503,11 +9169,11 @@
       </c>
       <c r="E164" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="6"/>
-        <v>3.4716981132075473</v>
+        <v>3.5597484276729561</v>
       </c>
       <c r="G164" s="3">
         <v>159</v>
@@ -7519,11 +9185,11 @@
       </c>
       <c r="E165" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="6"/>
-        <v>3.45</v>
+        <v>3.5375000000000001</v>
       </c>
       <c r="G165" s="3">
         <v>160</v>
@@ -7535,11 +9201,11 @@
       </c>
       <c r="E166" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="6"/>
-        <v>3.4285714285714284</v>
+        <v>3.5155279503105592</v>
       </c>
       <c r="G166" s="3">
         <v>161</v>
@@ -7551,11 +9217,11 @@
       </c>
       <c r="E167" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="6"/>
-        <v>3.4074074074074074</v>
+        <v>3.4938271604938271</v>
       </c>
       <c r="G167" s="3">
         <v>162</v>
@@ -7567,11 +9233,11 @@
       </c>
       <c r="E168" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="6"/>
-        <v>3.3865030674846626</v>
+        <v>3.4723926380368098</v>
       </c>
       <c r="G168" s="3">
         <v>163</v>
@@ -7583,11 +9249,11 @@
       </c>
       <c r="E169" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="6"/>
-        <v>3.3658536585365852</v>
+        <v>3.4512195121951219</v>
       </c>
       <c r="G169" s="3">
         <v>164</v>
@@ -7599,11 +9265,11 @@
       </c>
       <c r="E170" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="6"/>
-        <v>3.3454545454545452</v>
+        <v>3.4303030303030302</v>
       </c>
       <c r="G170" s="3">
         <v>165</v>
@@ -7615,11 +9281,11 @@
       </c>
       <c r="E171" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="6"/>
-        <v>3.3253012048192772</v>
+        <v>3.4096385542168677</v>
       </c>
       <c r="G171" s="3">
         <v>166</v>
@@ -7631,11 +9297,11 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="6"/>
-        <v>3.3053892215568861</v>
+        <v>3.3892215568862274</v>
       </c>
       <c r="G172" s="3">
         <v>167</v>
@@ -7647,11 +9313,11 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>3.2857142857142856</v>
+        <v>3.3690476190476191</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -7663,11 +9329,11 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>3.2662721893491122</v>
+        <v>3.3491124260355027</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -7679,11 +9345,11 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>3.2470588235294118</v>
+        <v>3.3294117647058825</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -7695,11 +9361,11 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>3.2280701754385963</v>
+        <v>3.3099415204678362</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -7711,11 +9377,11 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>3.2093023255813953</v>
+        <v>3.2906976744186047</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -7727,11 +9393,11 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>3.1907514450867054</v>
+        <v>3.2716763005780347</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -7743,11 +9409,11 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>3.1724137931034484</v>
+        <v>3.2528735632183907</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -7759,11 +9425,11 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>3.1542857142857144</v>
+        <v>3.2342857142857144</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -7775,11 +9441,11 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>3.1363636363636362</v>
+        <v>3.2159090909090908</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -7791,11 +9457,11 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>3.1186440677966103</v>
+        <v>3.1977401129943503</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -7807,11 +9473,11 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>3.101123595505618</v>
+        <v>3.1797752808988764</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -7823,11 +9489,11 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>3.0837988826815641</v>
+        <v>3.1620111731843576</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -7839,11 +9505,11 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>3.0666666666666669</v>
+        <v>3.1444444444444444</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -7855,11 +9521,11 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>3.0497237569060776</v>
+        <v>3.1270718232044197</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -7871,11 +9537,11 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>3.0329670329670328</v>
+        <v>3.1098901098901099</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -7887,11 +9553,11 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>3.0163934426229506</v>
+        <v>3.0928961748633879</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -7903,11 +9569,11 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>3.0760869565217392</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -7919,11 +9585,11 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>2.9837837837837839</v>
+        <v>3.0594594594594593</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -7935,11 +9601,11 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>2.967741935483871</v>
+        <v>3.043010752688172</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -7951,11 +9617,11 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>2.9518716577540105</v>
+        <v>3.0267379679144386</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -7967,11 +9633,11 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>2.9361702127659575</v>
+        <v>3.0106382978723403</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -7983,11 +9649,11 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>2.9206349206349205</v>
+        <v>2.9947089947089949</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -7999,11 +9665,11 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>2.905263157894737</v>
+        <v>2.9789473684210526</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -8015,11 +9681,11 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>2.8900523560209423</v>
+        <v>2.9633507853403143</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -8031,11 +9697,11 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>2.875</v>
+        <v>2.9479166666666665</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -8047,11 +9713,11 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>2.8601036269430051</v>
+        <v>2.9326424870466323</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -8063,11 +9729,11 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>2.8453608247422681</v>
+        <v>2.9175257731958761</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -8079,11 +9745,11 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>2.8307692307692309</v>
+        <v>2.9025641025641025</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -8095,11 +9761,11 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>2.8163265306122449</v>
+        <v>2.8877551020408165</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -8111,11 +9777,11 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>2.8020304568527918</v>
+        <v>2.8730964467005076</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -8127,11 +9793,11 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>2.7878787878787881</v>
+        <v>2.8585858585858586</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -8143,11 +9809,11 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>2.7738693467336684</v>
+        <v>2.8442211055276383</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -8159,11 +9825,11 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -8175,11 +9841,11 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>2.7462686567164178</v>
+        <v>2.8159203980099501</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -8191,11 +9857,11 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>2.7326732673267329</v>
+        <v>2.8019801980198018</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -8207,11 +9873,11 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.7192118226600983</v>
+        <v>2.7881773399014778</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -8223,11 +9889,11 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.7058823529411766</v>
+        <v>2.7745098039215685</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -8239,11 +9905,11 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.6926829268292685</v>
+        <v>2.7609756097560973</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -8255,11 +9921,11 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.679611650485437</v>
+        <v>2.7475728155339807</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -8271,11 +9937,11 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.6666666666666665</v>
+        <v>2.7342995169082127</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -8287,11 +9953,11 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.6538461538461537</v>
+        <v>2.7211538461538463</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -8303,11 +9969,11 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.6411483253588517</v>
+        <v>2.7081339712918662</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -8319,11 +9985,11 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.6285714285714286</v>
+        <v>2.6952380952380954</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -8335,11 +10001,11 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.6161137440758293</v>
+        <v>2.6824644549763033</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -8351,11 +10017,11 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.6037735849056602</v>
+        <v>2.6698113207547172</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -8367,11 +10033,11 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.591549295774648</v>
+        <v>2.6572769953051645</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -8383,11 +10049,11 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.5794392523364484</v>
+        <v>2.6448598130841123</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -8399,11 +10065,11 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.5674418604651161</v>
+        <v>2.6325581395348836</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -8415,11 +10081,11 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.5555555555555554</v>
+        <v>2.6203703703703702</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -8431,11 +10097,11 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.5437788018433181</v>
+        <v>2.6082949308755761</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -8447,11 +10113,11 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.5321100917431192</v>
+        <v>2.596330275229358</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -8463,11 +10129,11 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.5205479452054793</v>
+        <v>2.5844748858447488</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -8479,11 +10145,11 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.5090909090909093</v>
+        <v>2.5727272727272728</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -8495,11 +10161,11 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.497737556561086</v>
+        <v>2.5610859728506785</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -8511,11 +10177,11 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.4864864864864864</v>
+        <v>2.5495495495495497</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -8527,11 +10193,11 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.4753363228699552</v>
+        <v>2.5381165919282513</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -8543,11 +10209,11 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.4642857142857144</v>
+        <v>2.5267857142857144</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -8559,11 +10225,11 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.4533333333333331</v>
+        <v>2.5155555555555558</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -8575,11 +10241,11 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.4424778761061945</v>
+        <v>2.5044247787610621</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -8591,11 +10257,11 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.4317180616740086</v>
+        <v>2.4933920704845813</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -8607,11 +10273,11 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.4210526315789473</v>
+        <v>2.4824561403508771</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -8623,11 +10289,11 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.410480349344978</v>
+        <v>2.4716157205240177</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -8639,11 +10305,11 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.4</v>
+        <v>2.4608695652173913</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -8655,11 +10321,11 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.3896103896103895</v>
+        <v>2.4502164502164501</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -8671,11 +10337,11 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.3793103448275863</v>
+        <v>2.4396551724137931</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -8687,11 +10353,11 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.3690987124463518</v>
+        <v>2.429184549356223</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -8703,11 +10369,11 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.358974358974359</v>
+        <v>2.4188034188034186</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -8719,11 +10385,11 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.3489361702127658</v>
+        <v>2.4085106382978725</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -8735,11 +10401,11 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.3389830508474576</v>
+        <v>2.3983050847457625</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -8751,11 +10417,11 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.3291139240506329</v>
+        <v>2.388185654008439</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -8767,11 +10433,11 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.3193277310924372</v>
+        <v>2.3781512605042017</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -8783,11 +10449,11 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.3096234309623429</v>
+        <v>2.3682008368200838</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -8799,11 +10465,11 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.2999999999999998</v>
+        <v>2.3583333333333334</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -8815,11 +10481,11 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.2904564315352696</v>
+        <v>2.3485477178423237</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -8831,11 +10497,11 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.28099173553719</v>
+        <v>2.3388429752066116</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -8847,11 +10513,11 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.2716049382716048</v>
+        <v>2.3292181069958846</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -8863,11 +10529,11 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>2.262295081967213</v>
+        <v>2.319672131147541</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -8879,11 +10545,11 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>2.2530612244897958</v>
+        <v>2.3102040816326532</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -8895,11 +10561,11 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>2.2439024390243905</v>
+        <v>2.3008130081300813</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -8911,11 +10577,11 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>2.2348178137651824</v>
+        <v>2.2914979757085021</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -8927,11 +10593,11 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>2.225806451612903</v>
+        <v>2.282258064516129</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -8943,11 +10609,11 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>2.2168674698795181</v>
+        <v>2.2730923694779115</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -8959,11 +10625,11 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>2.2080000000000002</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -8975,11 +10641,11 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>2.1992031872509958</v>
+        <v>2.2549800796812751</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -8991,11 +10657,11 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>2.1904761904761907</v>
+        <v>2.246031746031746</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -9007,11 +10673,11 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>2.1818181818181817</v>
+        <v>2.2371541501976284</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -9023,11 +10689,11 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>2.173228346456693</v>
+        <v>2.2283464566929134</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -9039,11 +10705,11 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>2.164705882352941</v>
+        <v>2.219607843137255</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -9055,11 +10721,11 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>2.15625</v>
+        <v>2.2109375</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -9071,11 +10737,11 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>2.1478599221789882</v>
+        <v>2.2023346303501947</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -9087,11 +10753,11 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>2.13953488372093</v>
+        <v>2.193798449612403</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -9103,11 +10769,11 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>2.1312741312741315</v>
+        <v>2.1853281853281854</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -9119,11 +10785,11 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>2.1230769230769231</v>
+        <v>2.1769230769230767</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -9135,11 +10801,11 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>2.1149425287356323</v>
+        <v>2.1685823754789273</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -9151,11 +10817,11 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>2.1068702290076335</v>
+        <v>2.1603053435114505</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -9167,11 +10833,11 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>2.0988593155893538</v>
+        <v>2.1520912547528517</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -9183,11 +10849,11 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>2.0909090909090908</v>
+        <v>2.143939393939394</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -9199,11 +10865,11 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>2.0830188679245283</v>
+        <v>2.1358490566037736</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -9215,11 +10881,11 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>2.0751879699248121</v>
+        <v>2.1278195488721803</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -9231,11 +10897,11 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>2.0674157303370788</v>
+        <v>2.1198501872659175</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -9247,11 +10913,11 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>2.0597014925373136</v>
+        <v>2.1119402985074629</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -9263,11 +10929,11 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>2.0520446096654275</v>
+        <v>2.1040892193308549</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -9279,11 +10945,11 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>2.0444444444444443</v>
+        <v>2.0962962962962961</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -9295,11 +10961,11 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>2.03690036900369</v>
+        <v>2.0885608856088562</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -9311,11 +10977,11 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>2.0294117647058822</v>
+        <v>2.0808823529411766</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -9327,11 +10993,11 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>2.0219780219780219</v>
+        <v>2.0732600732600734</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -9343,11 +11009,11 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>2.0145985401459856</v>
+        <v>2.0656934306569341</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -9359,11 +11025,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>2.0072727272727273</v>
+        <v>2.0581818181818181</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -9375,11 +11041,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2.0507246376811592</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -9391,11 +11057,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>1.9927797833935017</v>
+        <v>2.0433212996389893</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -9407,11 +11073,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>1.985611510791367</v>
+        <v>2.035971223021583</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -9423,11 +11089,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>1.978494623655914</v>
+        <v>2.0286738351254479</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -9439,11 +11105,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>1.9714285714285715</v>
+        <v>2.0214285714285714</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -9455,11 +11121,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>1.9644128113879002</v>
+        <v>2.0142348754448398</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -9471,11 +11137,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>1.9574468085106382</v>
+        <v>2.0070921985815602</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -9487,11 +11153,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>1.9505300353356891</v>
+        <v>2</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -9503,11 +11169,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>1.943661971830986</v>
+        <v>1.9929577464788732</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -9519,11 +11185,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>1.9368421052631579</v>
+        <v>1.9859649122807017</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -9535,11 +11201,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>1.93006993006993</v>
+        <v>1.979020979020979</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -9551,11 +11217,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>1.9233449477351916</v>
+        <v>1.9721254355400697</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -9567,11 +11233,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>1.9166666666666667</v>
+        <v>1.9652777777777777</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -9583,11 +11249,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>1.9100346020761245</v>
+        <v>1.9584775086505191</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -9599,11 +11265,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>1.903448275862069</v>
+        <v>1.9517241379310344</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -9615,11 +11281,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>1.8969072164948453</v>
+        <v>1.9450171821305842</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -9631,11 +11297,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>1.8904109589041096</v>
+        <v>1.9383561643835616</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -9647,11 +11313,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>1.8839590443686007</v>
+        <v>1.9317406143344711</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -9663,11 +11329,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>1.8775510204081634</v>
+        <v>1.9251700680272108</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -9679,11 +11345,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>1.8711864406779661</v>
+        <v>1.9186440677966101</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -9695,11 +11361,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>1.8648648648648649</v>
+        <v>1.9121621621621621</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -9711,11 +11377,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>1.8585858585858586</v>
+        <v>1.9057239057239057</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -9727,11 +11393,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>1.8523489932885906</v>
+        <v>1.8993288590604027</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -9743,11 +11409,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>1.8461538461538463</v>
+        <v>1.8929765886287626</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -9759,11 +11425,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>1.84</v>
+        <v>1.8866666666666667</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -9775,11 +11441,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>1.8338870431893688</v>
+        <v>1.8803986710963456</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -9791,11 +11457,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>1.8278145695364238</v>
+        <v>1.8741721854304636</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -9807,11 +11473,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>1.8217821782178218</v>
+        <v>1.8679867986798679</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -9823,11 +11489,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.8157894736842106</v>
+        <v>1.861842105263158</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -9839,11 +11505,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.8098360655737704</v>
+        <v>1.8557377049180328</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -9855,11 +11521,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.803921568627451</v>
+        <v>1.8496732026143792</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -9871,11 +11537,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.7980456026058631</v>
+        <v>1.8436482084690553</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -9887,11 +11553,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.7922077922077921</v>
+        <v>1.8376623376623376</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -9903,11 +11569,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.7864077669902914</v>
+        <v>1.8317152103559871</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -9919,11 +11585,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.7806451612903227</v>
+        <v>1.8258064516129033</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -9935,11 +11601,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.77491961414791</v>
+        <v>1.819935691318328</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -9951,11 +11617,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.7692307692307692</v>
+        <v>1.8141025641025641</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -9967,11 +11633,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.7635782747603834</v>
+        <v>1.8083067092651757</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -9983,11 +11649,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.7579617834394905</v>
+        <v>1.802547770700637</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -9999,11 +11665,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.7523809523809524</v>
+        <v>1.7968253968253969</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -10015,11 +11681,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.7468354430379747</v>
+        <v>1.7911392405063291</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -10031,11 +11697,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.7413249211356467</v>
+        <v>1.7854889589905363</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -10047,11 +11713,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.7358490566037736</v>
+        <v>1.779874213836478</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -10063,11 +11729,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.7304075235109717</v>
+        <v>1.7742946708463949</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -10079,11 +11745,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.7250000000000001</v>
+        <v>1.76875</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -10095,11 +11761,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.719626168224299</v>
+        <v>1.7632398753894081</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -10111,11 +11777,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.7142857142857142</v>
+        <v>1.7577639751552796</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -10127,11 +11793,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.7089783281733746</v>
+        <v>1.7523219814241486</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -10143,11 +11809,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.7037037037037037</v>
+        <v>1.7469135802469136</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -10159,11 +11825,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.6984615384615385</v>
+        <v>1.7415384615384615</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -10175,11 +11841,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.6932515337423313</v>
+        <v>1.7361963190184049</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -10191,11 +11857,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.6880733944954129</v>
+        <v>1.7308868501529051</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -10207,11 +11873,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.6829268292682926</v>
+        <v>1.725609756097561</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -10223,11 +11889,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.6778115501519757</v>
+        <v>1.7203647416413375</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -10239,11 +11905,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.6727272727272726</v>
+        <v>1.7151515151515151</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -10255,11 +11921,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.6676737160120847</v>
+        <v>1.7099697885196374</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -10271,11 +11937,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.6626506024096386</v>
+        <v>1.7048192771084338</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -10287,11 +11953,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.6576576576576576</v>
+        <v>1.6996996996996998</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -10303,11 +11969,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.652694610778443</v>
+        <v>1.6946107784431137</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -10319,11 +11985,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.6477611940298507</v>
+        <v>1.6895522388059701</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -10335,11 +12001,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.6428571428571428</v>
+        <v>1.6845238095238095</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -10351,11 +12017,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.6379821958456973</v>
+        <v>1.6795252225519288</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -10367,11 +12033,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.6331360946745561</v>
+        <v>1.6745562130177514</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -10383,11 +12049,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.6283185840707965</v>
+        <v>1.6696165191740413</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -10399,11 +12065,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.6235294117647059</v>
+        <v>1.6647058823529413</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -10415,11 +12081,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.6187683284457477</v>
+        <v>1.6598240469208212</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -10431,11 +12097,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.6140350877192982</v>
+        <v>1.6549707602339181</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -10447,11 +12113,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.6093294460641399</v>
+        <v>1.6501457725947521</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -10463,11 +12129,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.6046511627906976</v>
+        <v>1.6453488372093024</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -10479,11 +12145,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.6</v>
+        <v>1.6405797101449275</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -10495,11 +12161,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.5953757225433527</v>
+        <v>1.6358381502890174</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -10511,11 +12177,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.5907780979827089</v>
+        <v>1.6311239193083573</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -10527,11 +12193,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.5862068965517242</v>
+        <v>1.6264367816091954</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -10543,11 +12209,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.5816618911174785</v>
+        <v>1.6217765042979944</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -10559,11 +12225,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.5771428571428572</v>
+        <v>1.6171428571428572</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -10575,11 +12241,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.5726495726495726</v>
+        <v>1.6125356125356125</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -10591,11 +12257,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.5681818181818181</v>
+        <v>1.6079545454545454</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -10607,11 +12273,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.5637393767705383</v>
+        <v>1.6033994334277621</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -10623,11 +12289,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.5593220338983051</v>
+        <v>1.5988700564971752</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -10639,11 +12305,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.5549295774647887</v>
+        <v>1.5943661971830987</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -10655,11 +12321,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.550561797752809</v>
+        <v>1.5898876404494382</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -10671,11 +12337,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.546218487394958</v>
+        <v>1.5854341736694677</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -10687,11 +12353,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.5418994413407821</v>
+        <v>1.5810055865921788</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -10703,11 +12369,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.5376044568245126</v>
+        <v>1.5766016713091922</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -10719,11 +12385,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.5333333333333334</v>
+        <v>1.5722222222222222</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -10735,11 +12401,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.5290858725761773</v>
+        <v>1.5678670360110802</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -10751,11 +12417,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.5248618784530388</v>
+        <v>1.5635359116022098</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -10767,11 +12433,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.5206611570247934</v>
+        <v>1.559228650137741</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -10783,11 +12449,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.5164835164835164</v>
+        <v>1.554945054945055</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -10799,20 +12465,21 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.5123287671232877</v>
+        <v>1.5506849315068494</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K43:K48" formulaRange="1"/>
+    <ignoredError sqref="K62:K67 O62:O78 O79:O84" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B5551-65E9-6340-AEFE-D9B77468CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9797EA6F-C90D-F54D-8469-66C2A48D85E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$N$62:$N$113</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$O$62:$O$113</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5312,7 +5308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9797EA6F-C90D-F54D-8469-66C2A48D85E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F4443D-D660-7F4B-AF80-6664A02A4F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>running sum</t>
   </si>
@@ -707,6 +707,21 @@
   </si>
   <si>
     <t>King's Disease</t>
+  </si>
+  <si>
+    <t>ZUU</t>
+  </si>
+  <si>
+    <t>Yeezus</t>
+  </si>
+  <si>
+    <t>Rodeo</t>
+  </si>
+  <si>
+    <t>Since I Left You</t>
+  </si>
+  <si>
+    <t>Led Zeppelin IV</t>
   </si>
 </sst>
 </file>
@@ -1367,628 +1382,628 @@
                   <c:v>3.605095541401274</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.5822784810126582</c:v>
+                  <c:v>3.6075949367088609</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.5597484276729561</c:v>
+                  <c:v>3.6037735849056602</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.5375000000000001</c:v>
+                  <c:v>3.6062500000000002</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.5155279503105592</c:v>
+                  <c:v>3.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.4938271604938271</c:v>
+                  <c:v>3.6049382716049383</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.4723926380368098</c:v>
+                  <c:v>3.6134969325153374</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.4512195121951219</c:v>
+                  <c:v>3.5914634146341462</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.4303030303030302</c:v>
+                  <c:v>3.5696969696969698</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.4096385542168677</c:v>
+                  <c:v>3.5481927710843375</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.3892215568862274</c:v>
+                  <c:v>3.5269461077844313</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.3690476190476191</c:v>
+                  <c:v>3.5059523809523809</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.3491124260355027</c:v>
+                  <c:v>3.4852071005917158</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.3294117647058825</c:v>
+                  <c:v>3.4647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.3099415204678362</c:v>
+                  <c:v>3.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.2906976744186047</c:v>
+                  <c:v>3.4244186046511627</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.2716763005780347</c:v>
+                  <c:v>3.4046242774566475</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.2528735632183907</c:v>
+                  <c:v>3.3850574712643677</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.2342857142857144</c:v>
+                  <c:v>3.3657142857142857</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.2159090909090908</c:v>
+                  <c:v>3.3465909090909092</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.1977401129943503</c:v>
+                  <c:v>3.3276836158192089</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.1797752808988764</c:v>
+                  <c:v>3.308988764044944</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.1620111731843576</c:v>
+                  <c:v>3.2905027932960893</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.1444444444444444</c:v>
+                  <c:v>3.2722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.1270718232044197</c:v>
+                  <c:v>3.2541436464088398</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.1098901098901099</c:v>
+                  <c:v>3.2362637362637363</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.0928961748633879</c:v>
+                  <c:v>3.2185792349726774</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.0760869565217392</c:v>
+                  <c:v>3.2010869565217392</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.0594594594594593</c:v>
+                  <c:v>3.1837837837837837</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.043010752688172</c:v>
+                  <c:v>3.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.0267379679144386</c:v>
+                  <c:v>3.1497326203208558</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.0106382978723403</c:v>
+                  <c:v>3.1329787234042552</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.9947089947089949</c:v>
+                  <c:v>3.1164021164021163</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.9789473684210526</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.9633507853403143</c:v>
+                  <c:v>3.0837696335078535</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.9479166666666665</c:v>
+                  <c:v>3.0677083333333335</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.9326424870466323</c:v>
+                  <c:v>3.0518134715025909</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.9175257731958761</c:v>
+                  <c:v>3.036082474226804</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.9025641025641025</c:v>
+                  <c:v>3.0205128205128204</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.8877551020408165</c:v>
+                  <c:v>3.0051020408163267</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.8730964467005076</c:v>
+                  <c:v>2.9898477157360408</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.8585858585858586</c:v>
+                  <c:v>2.9747474747474749</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.8442211055276383</c:v>
+                  <c:v>2.9597989949748742</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.83</c:v>
+                  <c:v>2.9449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.8159203980099501</c:v>
+                  <c:v>2.9303482587064678</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.8019801980198018</c:v>
+                  <c:v>2.9158415841584158</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.7881773399014778</c:v>
+                  <c:v>2.9014778325123154</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.7745098039215685</c:v>
+                  <c:v>2.8872549019607843</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.7609756097560973</c:v>
+                  <c:v>2.873170731707317</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.7475728155339807</c:v>
+                  <c:v>2.8592233009708736</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.7342995169082127</c:v>
+                  <c:v>2.8454106280193239</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.7211538461538463</c:v>
+                  <c:v>2.8317307692307692</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.7081339712918662</c:v>
+                  <c:v>2.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.6952380952380954</c:v>
+                  <c:v>2.8047619047619046</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.6824644549763033</c:v>
+                  <c:v>2.7914691943127963</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.6698113207547172</c:v>
+                  <c:v>2.7783018867924527</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.6572769953051645</c:v>
+                  <c:v>2.7652582159624415</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.6448598130841123</c:v>
+                  <c:v>2.7523364485981308</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.6325581395348836</c:v>
+                  <c:v>2.7395348837209301</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.6203703703703702</c:v>
+                  <c:v>2.7268518518518516</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.6082949308755761</c:v>
+                  <c:v>2.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.596330275229358</c:v>
+                  <c:v>2.7018348623853212</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.5844748858447488</c:v>
+                  <c:v>2.689497716894977</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.5727272727272728</c:v>
+                  <c:v>2.6772727272727272</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.5610859728506785</c:v>
+                  <c:v>2.6651583710407238</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.5495495495495497</c:v>
+                  <c:v>2.6531531531531534</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.5381165919282513</c:v>
+                  <c:v>2.6412556053811658</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.5267857142857144</c:v>
+                  <c:v>2.6294642857142856</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.5155555555555558</c:v>
+                  <c:v>2.617777777777778</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.5044247787610621</c:v>
+                  <c:v>2.6061946902654869</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.4933920704845813</c:v>
+                  <c:v>2.5947136563876652</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.4824561403508771</c:v>
+                  <c:v>2.5833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.4716157205240177</c:v>
+                  <c:v>2.572052401746725</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.4608695652173913</c:v>
+                  <c:v>2.5608695652173914</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.4502164502164501</c:v>
+                  <c:v>2.5497835497835499</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.4396551724137931</c:v>
+                  <c:v>2.5387931034482758</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.429184549356223</c:v>
+                  <c:v>2.5278969957081543</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.4188034188034186</c:v>
+                  <c:v>2.517094017094017</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.4085106382978725</c:v>
+                  <c:v>2.5063829787234044</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.3983050847457625</c:v>
+                  <c:v>2.4957627118644066</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.388185654008439</c:v>
+                  <c:v>2.4852320675105486</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.3781512605042017</c:v>
+                  <c:v>2.4747899159663866</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.3682008368200838</c:v>
+                  <c:v>2.4644351464435146</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.3583333333333334</c:v>
+                  <c:v>2.4541666666666666</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.3485477178423237</c:v>
+                  <c:v>2.4439834024896268</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.3388429752066116</c:v>
+                  <c:v>2.4338842975206614</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.3292181069958846</c:v>
+                  <c:v>2.4238683127572016</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.319672131147541</c:v>
+                  <c:v>2.4139344262295084</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.3102040816326532</c:v>
+                  <c:v>2.4040816326530612</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.3008130081300813</c:v>
+                  <c:v>2.3943089430894311</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.2914979757085021</c:v>
+                  <c:v>2.3846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.282258064516129</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.2730923694779115</c:v>
+                  <c:v>2.3654618473895583</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.2639999999999998</c:v>
+                  <c:v>2.3559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.2549800796812751</c:v>
+                  <c:v>2.3466135458167332</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.246031746031746</c:v>
+                  <c:v>2.3373015873015874</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.2371541501976284</c:v>
+                  <c:v>2.3280632411067192</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.2283464566929134</c:v>
+                  <c:v>2.3188976377952755</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.219607843137255</c:v>
+                  <c:v>2.3098039215686272</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.2109375</c:v>
+                  <c:v>2.30078125</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.2023346303501947</c:v>
+                  <c:v>2.2918287937743189</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.193798449612403</c:v>
+                  <c:v>2.2829457364341086</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.1853281853281854</c:v>
+                  <c:v>2.2741312741312742</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.1769230769230767</c:v>
+                  <c:v>2.2653846153846153</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.1685823754789273</c:v>
+                  <c:v>2.2567049808429118</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.1603053435114505</c:v>
+                  <c:v>2.2480916030534353</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.1520912547528517</c:v>
+                  <c:v>2.2395437262357416</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.143939393939394</c:v>
+                  <c:v>2.231060606060606</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.1358490566037736</c:v>
+                  <c:v>2.2226415094339624</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.1278195488721803</c:v>
+                  <c:v>2.2142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.1198501872659175</c:v>
+                  <c:v>2.2059925093632957</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.1119402985074629</c:v>
+                  <c:v>2.1977611940298507</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.1040892193308549</c:v>
+                  <c:v>2.1895910780669143</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.0962962962962961</c:v>
+                  <c:v>2.1814814814814816</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.0885608856088562</c:v>
+                  <c:v>2.1734317343173433</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.0808823529411766</c:v>
+                  <c:v>2.1654411764705883</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.0732600732600734</c:v>
+                  <c:v>2.1575091575091574</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.0656934306569341</c:v>
+                  <c:v>2.1496350364963503</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.0581818181818181</c:v>
+                  <c:v>2.1418181818181816</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.0507246376811592</c:v>
+                  <c:v>2.1340579710144927</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.0433212996389893</c:v>
+                  <c:v>2.1263537906137184</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.035971223021583</c:v>
+                  <c:v>2.1187050359712232</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.0286738351254479</c:v>
+                  <c:v>2.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.0214285714285714</c:v>
+                  <c:v>2.1035714285714286</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.0142348754448398</c:v>
+                  <c:v>2.0960854092526691</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.0070921985815602</c:v>
+                  <c:v>2.0886524822695036</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2</c:v>
+                  <c:v>2.0812720848056538</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.9929577464788732</c:v>
+                  <c:v>2.073943661971831</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.9859649122807017</c:v>
+                  <c:v>2.0666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.979020979020979</c:v>
+                  <c:v>2.0594405594405596</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.9721254355400697</c:v>
+                  <c:v>2.0522648083623691</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.9652777777777777</c:v>
+                  <c:v>2.0451388888888888</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.9584775086505191</c:v>
+                  <c:v>2.0380622837370241</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.9517241379310344</c:v>
+                  <c:v>2.0310344827586206</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.9450171821305842</c:v>
+                  <c:v>2.0240549828178693</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.9383561643835616</c:v>
+                  <c:v>2.0171232876712328</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.9317406143344711</c:v>
+                  <c:v>2.0102389078498293</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.9251700680272108</c:v>
+                  <c:v>2.0034013605442178</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.9186440677966101</c:v>
+                  <c:v>1.9966101694915255</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.9121621621621621</c:v>
+                  <c:v>1.9898648648648649</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.9057239057239057</c:v>
+                  <c:v>1.9831649831649831</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.8993288590604027</c:v>
+                  <c:v>1.976510067114094</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.8929765886287626</c:v>
+                  <c:v>1.9698996655518395</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.8866666666666667</c:v>
+                  <c:v>1.9633333333333334</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.8803986710963456</c:v>
+                  <c:v>1.9568106312292359</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.8741721854304636</c:v>
+                  <c:v>1.9503311258278146</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.8679867986798679</c:v>
+                  <c:v>1.943894389438944</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.861842105263158</c:v>
+                  <c:v>1.9375</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.8557377049180328</c:v>
+                  <c:v>1.9311475409836065</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.8496732026143792</c:v>
+                  <c:v>1.9248366013071896</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.8436482084690553</c:v>
+                  <c:v>1.9185667752442996</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.8376623376623376</c:v>
+                  <c:v>1.9123376623376624</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.8317152103559871</c:v>
+                  <c:v>1.9061488673139158</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.8258064516129033</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.819935691318328</c:v>
+                  <c:v>1.8938906752411575</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.8141025641025641</c:v>
+                  <c:v>1.8878205128205128</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.8083067092651757</c:v>
+                  <c:v>1.8817891373801916</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.802547770700637</c:v>
+                  <c:v>1.875796178343949</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.7968253968253969</c:v>
+                  <c:v>1.8698412698412699</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.7911392405063291</c:v>
+                  <c:v>1.8639240506329113</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.7854889589905363</c:v>
+                  <c:v>1.8580441640378549</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.779874213836478</c:v>
+                  <c:v>1.8522012578616351</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.7742946708463949</c:v>
+                  <c:v>1.8463949843260188</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.76875</c:v>
+                  <c:v>1.840625</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.7632398753894081</c:v>
+                  <c:v>1.8348909657320873</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.7577639751552796</c:v>
+                  <c:v>1.829192546583851</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.7523219814241486</c:v>
+                  <c:v>1.8235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.7469135802469136</c:v>
+                  <c:v>1.8179012345679013</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.7415384615384615</c:v>
+                  <c:v>1.8123076923076924</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.7361963190184049</c:v>
+                  <c:v>1.8067484662576687</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.7308868501529051</c:v>
+                  <c:v>1.8012232415902141</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.725609756097561</c:v>
+                  <c:v>1.7957317073170731</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.7203647416413375</c:v>
+                  <c:v>1.790273556231003</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.7151515151515151</c:v>
+                  <c:v>1.7848484848484849</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.7099697885196374</c:v>
+                  <c:v>1.7794561933534743</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.7048192771084338</c:v>
+                  <c:v>1.7740963855421688</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.6996996996996998</c:v>
+                  <c:v>1.7687687687687688</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.6946107784431137</c:v>
+                  <c:v>1.7634730538922156</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.6895522388059701</c:v>
+                  <c:v>1.7582089552238807</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.6845238095238095</c:v>
+                  <c:v>1.7529761904761905</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.6795252225519288</c:v>
+                  <c:v>1.7477744807121662</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.6745562130177514</c:v>
+                  <c:v>1.7426035502958579</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.6696165191740413</c:v>
+                  <c:v>1.7374631268436578</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.6647058823529413</c:v>
+                  <c:v>1.7323529411764707</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.6598240469208212</c:v>
+                  <c:v>1.7272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.6549707602339181</c:v>
+                  <c:v>1.7222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.6501457725947521</c:v>
+                  <c:v>1.717201166180758</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.6453488372093024</c:v>
+                  <c:v>1.7122093023255813</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.6405797101449275</c:v>
+                  <c:v>1.7072463768115942</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.6358381502890174</c:v>
+                  <c:v>1.7023121387283238</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.6311239193083573</c:v>
+                  <c:v>1.6974063400576369</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.6264367816091954</c:v>
+                  <c:v>1.6925287356321839</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.6217765042979944</c:v>
+                  <c:v>1.6876790830945558</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.6171428571428572</c:v>
+                  <c:v>1.6828571428571428</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.6125356125356125</c:v>
+                  <c:v>1.6780626780626782</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.6079545454545454</c:v>
+                  <c:v>1.6732954545454546</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.6033994334277621</c:v>
+                  <c:v>1.6685552407932012</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.5988700564971752</c:v>
+                  <c:v>1.6638418079096045</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.5943661971830987</c:v>
+                  <c:v>1.6591549295774648</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.5898876404494382</c:v>
+                  <c:v>1.654494382022472</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.5854341736694677</c:v>
+                  <c:v>1.6498599439775909</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.5810055865921788</c:v>
+                  <c:v>1.6452513966480447</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.5766016713091922</c:v>
+                  <c:v>1.6406685236768803</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.5722222222222222</c:v>
+                  <c:v>1.6361111111111111</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.5678670360110802</c:v>
+                  <c:v>1.631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.5635359116022098</c:v>
+                  <c:v>1.6270718232044199</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.559228650137741</c:v>
+                  <c:v>1.6225895316804408</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.554945054945055</c:v>
+                  <c:v>1.6181318681318682</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.5506849315068494</c:v>
+                  <c:v>1.6136986301369862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,7 +2385,7 @@
                   <c:v>3.6774193548387095</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.7</c:v>
+                  <c:v>1.4666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2922,7 +2937,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5308,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6808,7 @@
       </c>
       <c r="K67" s="3">
         <f>SUM(D157:D186)/30</f>
-        <v>0.7</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>174</v>
@@ -7308,7 +7326,7 @@
       </c>
       <c r="O84" s="5">
         <f>SUM(D160:D166)/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
@@ -7335,7 +7353,10 @@
       <c r="N85" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O85" s="5"/>
+      <c r="O85" s="5">
+        <f>SUM(D167:D173)/7</f>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
@@ -9147,13 +9168,19 @@
       <c r="B163" s="1">
         <v>44719</v>
       </c>
+      <c r="C163" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="3">
+        <v>4</v>
+      </c>
       <c r="E163" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="6"/>
-        <v>3.5822784810126582</v>
+        <v>3.6075949367088609</v>
       </c>
       <c r="G163" s="3">
         <v>158</v>
@@ -9163,13 +9190,19 @@
       <c r="B164" s="1">
         <v>44720</v>
       </c>
+      <c r="C164" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D164" s="3">
+        <v>3</v>
+      </c>
       <c r="E164" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="6"/>
-        <v>3.5597484276729561</v>
+        <v>3.6037735849056602</v>
       </c>
       <c r="G164" s="3">
         <v>159</v>
@@ -9179,13 +9212,19 @@
       <c r="B165" s="1">
         <v>44721</v>
       </c>
+      <c r="C165" s="4">
+        <v>1999</v>
+      </c>
+      <c r="D165" s="3">
+        <v>4</v>
+      </c>
       <c r="E165" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="6"/>
-        <v>3.5375000000000001</v>
+        <v>3.6062500000000002</v>
       </c>
       <c r="G165" s="3">
         <v>160</v>
@@ -9195,13 +9234,19 @@
       <c r="B166" s="1">
         <v>44722</v>
       </c>
+      <c r="C166" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" s="3">
+        <v>4</v>
+      </c>
       <c r="E166" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="6"/>
-        <v>3.5155279503105592</v>
+        <v>3.6086956521739131</v>
       </c>
       <c r="G166" s="3">
         <v>161</v>
@@ -9211,13 +9256,19 @@
       <c r="B167" s="1">
         <v>44723</v>
       </c>
+      <c r="C167" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" s="3">
+        <v>3</v>
+      </c>
       <c r="E167" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="6"/>
-        <v>3.4938271604938271</v>
+        <v>3.6049382716049383</v>
       </c>
       <c r="G167" s="3">
         <v>162</v>
@@ -9227,13 +9278,19 @@
       <c r="B168" s="1">
         <v>44724</v>
       </c>
+      <c r="C168" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D168" s="3">
+        <v>5</v>
+      </c>
       <c r="E168" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="6"/>
-        <v>3.4723926380368098</v>
+        <v>3.6134969325153374</v>
       </c>
       <c r="G168" s="3">
         <v>163</v>
@@ -9245,11 +9302,11 @@
       </c>
       <c r="E169" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="6"/>
-        <v>3.4512195121951219</v>
+        <v>3.5914634146341462</v>
       </c>
       <c r="G169" s="3">
         <v>164</v>
@@ -9261,11 +9318,11 @@
       </c>
       <c r="E170" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="6"/>
-        <v>3.4303030303030302</v>
+        <v>3.5696969696969698</v>
       </c>
       <c r="G170" s="3">
         <v>165</v>
@@ -9277,11 +9334,11 @@
       </c>
       <c r="E171" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="6"/>
-        <v>3.4096385542168677</v>
+        <v>3.5481927710843375</v>
       </c>
       <c r="G171" s="3">
         <v>166</v>
@@ -9293,11 +9350,11 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="6"/>
-        <v>3.3892215568862274</v>
+        <v>3.5269461077844313</v>
       </c>
       <c r="G172" s="3">
         <v>167</v>
@@ -9309,11 +9366,11 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>3.3690476190476191</v>
+        <v>3.5059523809523809</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -9325,11 +9382,11 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>3.3491124260355027</v>
+        <v>3.4852071005917158</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -9341,11 +9398,11 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>3.3294117647058825</v>
+        <v>3.4647058823529413</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -9357,11 +9414,11 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>3.3099415204678362</v>
+        <v>3.4444444444444446</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -9373,11 +9430,11 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>3.2906976744186047</v>
+        <v>3.4244186046511627</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -9389,11 +9446,11 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>3.2716763005780347</v>
+        <v>3.4046242774566475</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -9405,11 +9462,11 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>3.2528735632183907</v>
+        <v>3.3850574712643677</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -9421,11 +9478,11 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>3.2342857142857144</v>
+        <v>3.3657142857142857</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -9437,11 +9494,11 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>3.2159090909090908</v>
+        <v>3.3465909090909092</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -9453,11 +9510,11 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>3.1977401129943503</v>
+        <v>3.3276836158192089</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -9469,11 +9526,11 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>3.1797752808988764</v>
+        <v>3.308988764044944</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -9485,11 +9542,11 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>3.1620111731843576</v>
+        <v>3.2905027932960893</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -9501,11 +9558,11 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>3.1444444444444444</v>
+        <v>3.2722222222222221</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -9517,11 +9574,11 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>3.1270718232044197</v>
+        <v>3.2541436464088398</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -9533,11 +9590,11 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>3.1098901098901099</v>
+        <v>3.2362637362637363</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -9549,11 +9606,11 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>3.0928961748633879</v>
+        <v>3.2185792349726774</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -9565,11 +9622,11 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>3.0760869565217392</v>
+        <v>3.2010869565217392</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -9581,11 +9638,11 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>3.0594594594594593</v>
+        <v>3.1837837837837837</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -9597,11 +9654,11 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>3.043010752688172</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -9613,11 +9670,11 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>3.0267379679144386</v>
+        <v>3.1497326203208558</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -9629,11 +9686,11 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>3.0106382978723403</v>
+        <v>3.1329787234042552</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -9645,11 +9702,11 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>2.9947089947089949</v>
+        <v>3.1164021164021163</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -9661,11 +9718,11 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>2.9789473684210526</v>
+        <v>3.1</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -9677,11 +9734,11 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>2.9633507853403143</v>
+        <v>3.0837696335078535</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -9693,11 +9750,11 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>2.9479166666666665</v>
+        <v>3.0677083333333335</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -9709,11 +9766,11 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>2.9326424870466323</v>
+        <v>3.0518134715025909</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -9725,11 +9782,11 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>2.9175257731958761</v>
+        <v>3.036082474226804</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -9741,11 +9798,11 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>2.9025641025641025</v>
+        <v>3.0205128205128204</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -9757,11 +9814,11 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>2.8877551020408165</v>
+        <v>3.0051020408163267</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -9773,11 +9830,11 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>2.8730964467005076</v>
+        <v>2.9898477157360408</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -9789,11 +9846,11 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>2.8585858585858586</v>
+        <v>2.9747474747474749</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -9805,11 +9862,11 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>2.8442211055276383</v>
+        <v>2.9597989949748742</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -9821,11 +9878,11 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>2.83</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -9837,11 +9894,11 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>2.8159203980099501</v>
+        <v>2.9303482587064678</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -9853,11 +9910,11 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>2.8019801980198018</v>
+        <v>2.9158415841584158</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -9869,11 +9926,11 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.7881773399014778</v>
+        <v>2.9014778325123154</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -9885,11 +9942,11 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.7745098039215685</v>
+        <v>2.8872549019607843</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -9901,11 +9958,11 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.7609756097560973</v>
+        <v>2.873170731707317</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -9917,11 +9974,11 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.7475728155339807</v>
+        <v>2.8592233009708736</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -9933,11 +9990,11 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.7342995169082127</v>
+        <v>2.8454106280193239</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -9949,11 +10006,11 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.7211538461538463</v>
+        <v>2.8317307692307692</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -9965,11 +10022,11 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.7081339712918662</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -9981,11 +10038,11 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.6952380952380954</v>
+        <v>2.8047619047619046</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -9997,11 +10054,11 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.6824644549763033</v>
+        <v>2.7914691943127963</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -10013,11 +10070,11 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.6698113207547172</v>
+        <v>2.7783018867924527</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -10029,11 +10086,11 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.6572769953051645</v>
+        <v>2.7652582159624415</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -10045,11 +10102,11 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.6448598130841123</v>
+        <v>2.7523364485981308</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -10061,11 +10118,11 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.6325581395348836</v>
+        <v>2.7395348837209301</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -10077,11 +10134,11 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.6203703703703702</v>
+        <v>2.7268518518518516</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -10093,11 +10150,11 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.6082949308755761</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -10109,11 +10166,11 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.596330275229358</v>
+        <v>2.7018348623853212</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -10125,11 +10182,11 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.5844748858447488</v>
+        <v>2.689497716894977</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -10141,11 +10198,11 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.5727272727272728</v>
+        <v>2.6772727272727272</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -10157,11 +10214,11 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.5610859728506785</v>
+        <v>2.6651583710407238</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -10173,11 +10230,11 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.5495495495495497</v>
+        <v>2.6531531531531534</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -10189,11 +10246,11 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.5381165919282513</v>
+        <v>2.6412556053811658</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -10205,11 +10262,11 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.5267857142857144</v>
+        <v>2.6294642857142856</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -10221,11 +10278,11 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.5155555555555558</v>
+        <v>2.617777777777778</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -10237,11 +10294,11 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.5044247787610621</v>
+        <v>2.6061946902654869</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -10253,11 +10310,11 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.4933920704845813</v>
+        <v>2.5947136563876652</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -10269,11 +10326,11 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.4824561403508771</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -10285,11 +10342,11 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.4716157205240177</v>
+        <v>2.572052401746725</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -10301,11 +10358,11 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.4608695652173913</v>
+        <v>2.5608695652173914</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -10317,11 +10374,11 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.4502164502164501</v>
+        <v>2.5497835497835499</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -10333,11 +10390,11 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.4396551724137931</v>
+        <v>2.5387931034482758</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -10349,11 +10406,11 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.429184549356223</v>
+        <v>2.5278969957081543</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -10365,11 +10422,11 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.4188034188034186</v>
+        <v>2.517094017094017</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -10381,11 +10438,11 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.4085106382978725</v>
+        <v>2.5063829787234044</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -10397,11 +10454,11 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.3983050847457625</v>
+        <v>2.4957627118644066</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -10413,11 +10470,11 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.388185654008439</v>
+        <v>2.4852320675105486</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -10429,11 +10486,11 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.3781512605042017</v>
+        <v>2.4747899159663866</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -10445,11 +10502,11 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.3682008368200838</v>
+        <v>2.4644351464435146</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -10461,11 +10518,11 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.3583333333333334</v>
+        <v>2.4541666666666666</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -10477,11 +10534,11 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.3485477178423237</v>
+        <v>2.4439834024896268</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -10493,11 +10550,11 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.3388429752066116</v>
+        <v>2.4338842975206614</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -10509,11 +10566,11 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.3292181069958846</v>
+        <v>2.4238683127572016</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -10525,11 +10582,11 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>2.319672131147541</v>
+        <v>2.4139344262295084</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -10541,11 +10598,11 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>2.3102040816326532</v>
+        <v>2.4040816326530612</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -10557,11 +10614,11 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>2.3008130081300813</v>
+        <v>2.3943089430894311</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -10573,11 +10630,11 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>2.2914979757085021</v>
+        <v>2.3846153846153846</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -10589,11 +10646,11 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>2.282258064516129</v>
+        <v>2.375</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -10605,11 +10662,11 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>2.2730923694779115</v>
+        <v>2.3654618473895583</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -10621,11 +10678,11 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>2.2639999999999998</v>
+        <v>2.3559999999999999</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -10637,11 +10694,11 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>2.2549800796812751</v>
+        <v>2.3466135458167332</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -10653,11 +10710,11 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>2.246031746031746</v>
+        <v>2.3373015873015874</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -10669,11 +10726,11 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>2.2371541501976284</v>
+        <v>2.3280632411067192</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -10685,11 +10742,11 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>2.2283464566929134</v>
+        <v>2.3188976377952755</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -10701,11 +10758,11 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>2.219607843137255</v>
+        <v>2.3098039215686272</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -10717,11 +10774,11 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>2.2109375</v>
+        <v>2.30078125</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -10733,11 +10790,11 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>2.2023346303501947</v>
+        <v>2.2918287937743189</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -10749,11 +10806,11 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>2.193798449612403</v>
+        <v>2.2829457364341086</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -10765,11 +10822,11 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>2.1853281853281854</v>
+        <v>2.2741312741312742</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -10781,11 +10838,11 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>2.1769230769230767</v>
+        <v>2.2653846153846153</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -10797,11 +10854,11 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>2.1685823754789273</v>
+        <v>2.2567049808429118</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -10813,11 +10870,11 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>2.1603053435114505</v>
+        <v>2.2480916030534353</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -10829,11 +10886,11 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>2.1520912547528517</v>
+        <v>2.2395437262357416</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -10845,11 +10902,11 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>2.143939393939394</v>
+        <v>2.231060606060606</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -10861,11 +10918,11 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>2.1358490566037736</v>
+        <v>2.2226415094339624</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -10877,11 +10934,11 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>2.1278195488721803</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -10893,11 +10950,11 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>2.1198501872659175</v>
+        <v>2.2059925093632957</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -10909,11 +10966,11 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>2.1119402985074629</v>
+        <v>2.1977611940298507</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -10925,11 +10982,11 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>2.1040892193308549</v>
+        <v>2.1895910780669143</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -10941,11 +10998,11 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>2.0962962962962961</v>
+        <v>2.1814814814814816</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -10957,11 +11014,11 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>2.0885608856088562</v>
+        <v>2.1734317343173433</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -10973,11 +11030,11 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>2.0808823529411766</v>
+        <v>2.1654411764705883</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -10989,11 +11046,11 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>2.0732600732600734</v>
+        <v>2.1575091575091574</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -11005,11 +11062,11 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>2.0656934306569341</v>
+        <v>2.1496350364963503</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -11021,11 +11078,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>2.0581818181818181</v>
+        <v>2.1418181818181816</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -11037,11 +11094,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>2.0507246376811592</v>
+        <v>2.1340579710144927</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -11053,11 +11110,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>2.0433212996389893</v>
+        <v>2.1263537906137184</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -11069,11 +11126,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>2.035971223021583</v>
+        <v>2.1187050359712232</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -11085,11 +11142,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>2.0286738351254479</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -11101,11 +11158,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>2.0214285714285714</v>
+        <v>2.1035714285714286</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -11117,11 +11174,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>2.0142348754448398</v>
+        <v>2.0960854092526691</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -11133,11 +11190,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>2.0070921985815602</v>
+        <v>2.0886524822695036</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -11149,11 +11206,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2.0812720848056538</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -11165,11 +11222,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>1.9929577464788732</v>
+        <v>2.073943661971831</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -11181,11 +11238,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>1.9859649122807017</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -11197,11 +11254,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>1.979020979020979</v>
+        <v>2.0594405594405596</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -11213,11 +11270,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>1.9721254355400697</v>
+        <v>2.0522648083623691</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -11229,11 +11286,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>1.9652777777777777</v>
+        <v>2.0451388888888888</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -11245,11 +11302,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>1.9584775086505191</v>
+        <v>2.0380622837370241</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -11261,11 +11318,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>1.9517241379310344</v>
+        <v>2.0310344827586206</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -11277,11 +11334,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>1.9450171821305842</v>
+        <v>2.0240549828178693</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -11293,11 +11350,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>1.9383561643835616</v>
+        <v>2.0171232876712328</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -11309,11 +11366,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>1.9317406143344711</v>
+        <v>2.0102389078498293</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -11325,11 +11382,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>1.9251700680272108</v>
+        <v>2.0034013605442178</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -11341,11 +11398,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>1.9186440677966101</v>
+        <v>1.9966101694915255</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -11357,11 +11414,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>1.9121621621621621</v>
+        <v>1.9898648648648649</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -11373,11 +11430,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>1.9057239057239057</v>
+        <v>1.9831649831649831</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -11389,11 +11446,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>1.8993288590604027</v>
+        <v>1.976510067114094</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -11405,11 +11462,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>1.8929765886287626</v>
+        <v>1.9698996655518395</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -11421,11 +11478,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>1.8866666666666667</v>
+        <v>1.9633333333333334</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -11437,11 +11494,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>1.8803986710963456</v>
+        <v>1.9568106312292359</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -11453,11 +11510,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>1.8741721854304636</v>
+        <v>1.9503311258278146</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -11469,11 +11526,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>1.8679867986798679</v>
+        <v>1.943894389438944</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -11485,11 +11542,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.861842105263158</v>
+        <v>1.9375</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -11501,11 +11558,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.8557377049180328</v>
+        <v>1.9311475409836065</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -11517,11 +11574,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.8496732026143792</v>
+        <v>1.9248366013071896</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -11533,11 +11590,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.8436482084690553</v>
+        <v>1.9185667752442996</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -11549,11 +11606,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.8376623376623376</v>
+        <v>1.9123376623376624</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -11565,11 +11622,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.8317152103559871</v>
+        <v>1.9061488673139158</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -11581,11 +11638,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.8258064516129033</v>
+        <v>1.9</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -11597,11 +11654,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.819935691318328</v>
+        <v>1.8938906752411575</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -11613,11 +11670,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.8141025641025641</v>
+        <v>1.8878205128205128</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -11629,11 +11686,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.8083067092651757</v>
+        <v>1.8817891373801916</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -11645,11 +11702,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.802547770700637</v>
+        <v>1.875796178343949</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -11661,11 +11718,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.7968253968253969</v>
+        <v>1.8698412698412699</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -11677,11 +11734,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.7911392405063291</v>
+        <v>1.8639240506329113</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -11693,11 +11750,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.7854889589905363</v>
+        <v>1.8580441640378549</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -11709,11 +11766,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.779874213836478</v>
+        <v>1.8522012578616351</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -11725,11 +11782,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.7742946708463949</v>
+        <v>1.8463949843260188</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -11741,11 +11798,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.76875</v>
+        <v>1.840625</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -11757,11 +11814,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.7632398753894081</v>
+        <v>1.8348909657320873</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -11773,11 +11830,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.7577639751552796</v>
+        <v>1.829192546583851</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -11789,11 +11846,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.7523219814241486</v>
+        <v>1.8235294117647058</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -11805,11 +11862,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.7469135802469136</v>
+        <v>1.8179012345679013</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -11821,11 +11878,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.7415384615384615</v>
+        <v>1.8123076923076924</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -11837,11 +11894,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.7361963190184049</v>
+        <v>1.8067484662576687</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -11853,11 +11910,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.7308868501529051</v>
+        <v>1.8012232415902141</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -11869,11 +11926,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.725609756097561</v>
+        <v>1.7957317073170731</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -11885,11 +11942,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.7203647416413375</v>
+        <v>1.790273556231003</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -11901,11 +11958,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.7151515151515151</v>
+        <v>1.7848484848484849</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -11917,11 +11974,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.7099697885196374</v>
+        <v>1.7794561933534743</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -11933,11 +11990,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.7048192771084338</v>
+        <v>1.7740963855421688</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -11949,11 +12006,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.6996996996996998</v>
+        <v>1.7687687687687688</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -11965,11 +12022,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.6946107784431137</v>
+        <v>1.7634730538922156</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -11981,11 +12038,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.6895522388059701</v>
+        <v>1.7582089552238807</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -11997,11 +12054,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.6845238095238095</v>
+        <v>1.7529761904761905</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -12013,11 +12070,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.6795252225519288</v>
+        <v>1.7477744807121662</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -12029,11 +12086,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.6745562130177514</v>
+        <v>1.7426035502958579</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -12045,11 +12102,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.6696165191740413</v>
+        <v>1.7374631268436578</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -12061,11 +12118,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.6647058823529413</v>
+        <v>1.7323529411764707</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -12077,11 +12134,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.6598240469208212</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -12093,11 +12150,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.6549707602339181</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -12109,11 +12166,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.6501457725947521</v>
+        <v>1.717201166180758</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -12125,11 +12182,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.6453488372093024</v>
+        <v>1.7122093023255813</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -12141,11 +12198,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.6405797101449275</v>
+        <v>1.7072463768115942</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -12157,11 +12214,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.6358381502890174</v>
+        <v>1.7023121387283238</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -12173,11 +12230,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.6311239193083573</v>
+        <v>1.6974063400576369</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -12189,11 +12246,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.6264367816091954</v>
+        <v>1.6925287356321839</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -12205,11 +12262,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.6217765042979944</v>
+        <v>1.6876790830945558</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -12221,11 +12278,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.6171428571428572</v>
+        <v>1.6828571428571428</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -12237,11 +12294,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.6125356125356125</v>
+        <v>1.6780626780626782</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -12253,11 +12310,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.6079545454545454</v>
+        <v>1.6732954545454546</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -12269,11 +12326,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.6033994334277621</v>
+        <v>1.6685552407932012</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -12285,11 +12342,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.5988700564971752</v>
+        <v>1.6638418079096045</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -12301,11 +12358,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.5943661971830987</v>
+        <v>1.6591549295774648</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -12317,11 +12374,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.5898876404494382</v>
+        <v>1.654494382022472</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -12333,11 +12390,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.5854341736694677</v>
+        <v>1.6498599439775909</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -12349,11 +12406,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.5810055865921788</v>
+        <v>1.6452513966480447</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -12365,11 +12422,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.5766016713091922</v>
+        <v>1.6406685236768803</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -12381,11 +12438,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.5722222222222222</v>
+        <v>1.6361111111111111</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -12397,11 +12454,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.5678670360110802</v>
+        <v>1.631578947368421</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -12413,11 +12470,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.5635359116022098</v>
+        <v>1.6270718232044199</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -12429,11 +12486,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.559228650137741</v>
+        <v>1.6225895316804408</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -12445,11 +12502,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.554945054945055</v>
+        <v>1.6181318681318682</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -12461,11 +12518,11 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.5506849315068494</v>
+        <v>1.6136986301369862</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>
@@ -12475,7 +12532,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K62:K67 O62:O78 O79:O84" formulaRange="1"/>
+    <ignoredError sqref="K62:K67 O62:O85" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F4443D-D660-7F4B-AF80-6664A02A4F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EE46C7-3B64-694F-9E13-566775CDB3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>running sum</t>
   </si>
@@ -722,6 +722,15 @@
   </si>
   <si>
     <t>Led Zeppelin IV</t>
+  </si>
+  <si>
+    <t>Are You Experienced</t>
+  </si>
+  <si>
+    <t>The Rise and Fall of Ziggy Stardust</t>
+  </si>
+  <si>
+    <t>Meddle</t>
   </si>
 </sst>
 </file>
@@ -1400,610 +1409,610 @@
                   <c:v>3.6134969325153374</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5914634146341462</c:v>
+                  <c:v>3.6158536585365852</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.5696969696969698</c:v>
+                  <c:v>3.624242424242424</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.5481927710843375</c:v>
+                  <c:v>3.6325301204819276</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.5269461077844313</c:v>
+                  <c:v>3.6107784431137726</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.5059523809523809</c:v>
+                  <c:v>3.5892857142857144</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.4852071005917158</c:v>
+                  <c:v>3.5680473372781063</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.4647058823529413</c:v>
+                  <c:v>3.5470588235294116</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.4444444444444446</c:v>
+                  <c:v>3.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.4244186046511627</c:v>
+                  <c:v>3.5058139534883721</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.4046242774566475</c:v>
+                  <c:v>3.4855491329479769</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.3850574712643677</c:v>
+                  <c:v>3.4655172413793105</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.3657142857142857</c:v>
+                  <c:v>3.4457142857142857</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.3465909090909092</c:v>
+                  <c:v>3.4261363636363638</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.3276836158192089</c:v>
+                  <c:v>3.406779661016949</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.308988764044944</c:v>
+                  <c:v>3.3876404494382024</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.2905027932960893</c:v>
+                  <c:v>3.3687150837988828</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.2722222222222221</c:v>
+                  <c:v>3.35</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.2541436464088398</c:v>
+                  <c:v>3.3314917127071824</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.2362637362637363</c:v>
+                  <c:v>3.3131868131868134</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.2185792349726774</c:v>
+                  <c:v>3.2950819672131146</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.2010869565217392</c:v>
+                  <c:v>3.277173913043478</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.1837837837837837</c:v>
+                  <c:v>3.2594594594594595</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.1666666666666665</c:v>
+                  <c:v>3.2419354838709675</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.1497326203208558</c:v>
+                  <c:v>3.2245989304812834</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.1329787234042552</c:v>
+                  <c:v>3.2074468085106385</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.1164021164021163</c:v>
+                  <c:v>3.1904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.1</c:v>
+                  <c:v>3.1736842105263157</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.0837696335078535</c:v>
+                  <c:v>3.157068062827225</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.0677083333333335</c:v>
+                  <c:v>3.140625</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.0518134715025909</c:v>
+                  <c:v>3.1243523316062176</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.036082474226804</c:v>
+                  <c:v>3.1082474226804124</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.0205128205128204</c:v>
+                  <c:v>3.0923076923076924</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.0051020408163267</c:v>
+                  <c:v>3.0765306122448979</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.9898477157360408</c:v>
+                  <c:v>3.0609137055837565</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.9747474747474749</c:v>
+                  <c:v>3.0454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.9597989949748742</c:v>
+                  <c:v>3.0301507537688441</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.9449999999999998</c:v>
+                  <c:v>3.0150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.9303482587064678</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.9158415841584158</c:v>
+                  <c:v>2.9851485148514851</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.9014778325123154</c:v>
+                  <c:v>2.9704433497536944</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.8872549019607843</c:v>
+                  <c:v>2.9558823529411766</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.873170731707317</c:v>
+                  <c:v>2.9414634146341463</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.8592233009708736</c:v>
+                  <c:v>2.9271844660194173</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.8454106280193239</c:v>
+                  <c:v>2.9130434782608696</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.8317307692307692</c:v>
+                  <c:v>2.8990384615384617</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.8181818181818183</c:v>
+                  <c:v>2.8851674641148324</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.8047619047619046</c:v>
+                  <c:v>2.8714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.7914691943127963</c:v>
+                  <c:v>2.8578199052132702</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.7783018867924527</c:v>
+                  <c:v>2.8443396226415096</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.7652582159624415</c:v>
+                  <c:v>2.8309859154929575</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.7523364485981308</c:v>
+                  <c:v>2.8177570093457942</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.7395348837209301</c:v>
+                  <c:v>2.8046511627906976</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.7268518518518516</c:v>
+                  <c:v>2.7916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>2.7788018433179724</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.7018348623853212</c:v>
+                  <c:v>2.7660550458715596</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.689497716894977</c:v>
+                  <c:v>2.7534246575342465</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.6772727272727272</c:v>
+                  <c:v>2.7409090909090907</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.6651583710407238</c:v>
+                  <c:v>2.7285067873303168</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.6531531531531534</c:v>
+                  <c:v>2.7162162162162162</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.6412556053811658</c:v>
+                  <c:v>2.7040358744394619</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.6294642857142856</c:v>
+                  <c:v>2.6919642857142856</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.617777777777778</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.6061946902654869</c:v>
+                  <c:v>2.668141592920354</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.5947136563876652</c:v>
+                  <c:v>2.6563876651982379</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.5833333333333335</c:v>
+                  <c:v>2.6447368421052633</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.572052401746725</c:v>
+                  <c:v>2.6331877729257642</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.5608695652173914</c:v>
+                  <c:v>2.6217391304347828</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.5497835497835499</c:v>
+                  <c:v>2.6103896103896105</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.5387931034482758</c:v>
+                  <c:v>2.5991379310344827</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.5278969957081543</c:v>
+                  <c:v>2.5879828326180259</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.517094017094017</c:v>
+                  <c:v>2.5769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.5063829787234044</c:v>
+                  <c:v>2.5659574468085107</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.4957627118644066</c:v>
+                  <c:v>2.5550847457627119</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.4852320675105486</c:v>
+                  <c:v>2.5443037974683542</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.4747899159663866</c:v>
+                  <c:v>2.5336134453781511</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.4644351464435146</c:v>
+                  <c:v>2.5230125523012554</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.4541666666666666</c:v>
+                  <c:v>2.5125000000000002</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.4439834024896268</c:v>
+                  <c:v>2.5020746887966805</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.4338842975206614</c:v>
+                  <c:v>2.4917355371900825</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.4238683127572016</c:v>
+                  <c:v>2.4814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.4139344262295084</c:v>
+                  <c:v>2.471311475409836</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.4040816326530612</c:v>
+                  <c:v>2.4612244897959186</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.3943089430894311</c:v>
+                  <c:v>2.4512195121951219</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.3846153846153846</c:v>
+                  <c:v>2.4412955465587043</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.375</c:v>
+                  <c:v>2.431451612903226</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.3654618473895583</c:v>
+                  <c:v>2.4216867469879517</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.3559999999999999</c:v>
+                  <c:v>2.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.3466135458167332</c:v>
+                  <c:v>2.402390438247012</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.3373015873015874</c:v>
+                  <c:v>2.3928571428571428</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.3280632411067192</c:v>
+                  <c:v>2.383399209486166</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.3188976377952755</c:v>
+                  <c:v>2.3740157480314958</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.3098039215686272</c:v>
+                  <c:v>2.3647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.30078125</c:v>
+                  <c:v>2.35546875</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.2918287937743189</c:v>
+                  <c:v>2.3463035019455254</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.2829457364341086</c:v>
+                  <c:v>2.3372093023255816</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.2741312741312742</c:v>
+                  <c:v>2.3281853281853282</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.2653846153846153</c:v>
+                  <c:v>2.3192307692307694</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.2567049808429118</c:v>
+                  <c:v>2.3103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.2480916030534353</c:v>
+                  <c:v>2.3015267175572518</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.2395437262357416</c:v>
+                  <c:v>2.2927756653992395</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.231060606060606</c:v>
+                  <c:v>2.2840909090909092</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.2226415094339624</c:v>
+                  <c:v>2.2754716981132077</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.2142857142857144</c:v>
+                  <c:v>2.2669172932330826</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.2059925093632957</c:v>
+                  <c:v>2.2584269662921348</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.1977611940298507</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.1895910780669143</c:v>
+                  <c:v>2.2416356877323418</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.1814814814814816</c:v>
+                  <c:v>2.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.1734317343173433</c:v>
+                  <c:v>2.2250922509225091</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.1654411764705883</c:v>
+                  <c:v>2.2169117647058822</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.1575091575091574</c:v>
+                  <c:v>2.2087912087912089</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.1496350364963503</c:v>
+                  <c:v>2.2007299270072993</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.1418181818181816</c:v>
+                  <c:v>2.1927272727272729</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.1340579710144927</c:v>
+                  <c:v>2.1847826086956523</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.1263537906137184</c:v>
+                  <c:v>2.1768953068592056</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.1187050359712232</c:v>
+                  <c:v>2.1690647482014387</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.1111111111111112</c:v>
+                  <c:v>2.161290322580645</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.1035714285714286</c:v>
+                  <c:v>2.1535714285714285</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.0960854092526691</c:v>
+                  <c:v>2.1459074733096086</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.0886524822695036</c:v>
+                  <c:v>2.1382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2.0812720848056538</c:v>
+                  <c:v>2.1307420494699647</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2.073943661971831</c:v>
+                  <c:v>2.1232394366197185</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2.0666666666666669</c:v>
+                  <c:v>2.1157894736842104</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2.0594405594405596</c:v>
+                  <c:v>2.1083916083916083</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2.0522648083623691</c:v>
+                  <c:v>2.1010452961672472</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2.0451388888888888</c:v>
+                  <c:v>2.09375</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.0380622837370241</c:v>
+                  <c:v>2.0865051903114189</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2.0310344827586206</c:v>
+                  <c:v>2.079310344827586</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.0240549828178693</c:v>
+                  <c:v>2.0721649484536084</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2.0171232876712328</c:v>
+                  <c:v>2.0650684931506849</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2.0102389078498293</c:v>
+                  <c:v>2.0580204778156999</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2.0034013605442178</c:v>
+                  <c:v>2.0510204081632653</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.9966101694915255</c:v>
+                  <c:v>2.0440677966101695</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.9898648648648649</c:v>
+                  <c:v>2.0371621621621623</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.9831649831649831</c:v>
+                  <c:v>2.0303030303030303</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.976510067114094</c:v>
+                  <c:v>2.023489932885906</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.9698996655518395</c:v>
+                  <c:v>2.0167224080267561</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.9633333333333334</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.9568106312292359</c:v>
+                  <c:v>2.0033222591362128</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.9503311258278146</c:v>
+                  <c:v>1.9966887417218544</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.943894389438944</c:v>
+                  <c:v>1.9900990099009901</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.9375</c:v>
+                  <c:v>1.9835526315789473</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.9311475409836065</c:v>
+                  <c:v>1.9770491803278689</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.9248366013071896</c:v>
+                  <c:v>1.9705882352941178</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.9185667752442996</c:v>
+                  <c:v>1.9641693811074918</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.9123376623376624</c:v>
+                  <c:v>1.9577922077922079</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.9061488673139158</c:v>
+                  <c:v>1.9514563106796117</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.9</c:v>
+                  <c:v>1.9451612903225806</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.8938906752411575</c:v>
+                  <c:v>1.9389067524115755</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.8878205128205128</c:v>
+                  <c:v>1.9326923076923077</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.8817891373801916</c:v>
+                  <c:v>1.9265175718849841</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.875796178343949</c:v>
+                  <c:v>1.9203821656050954</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.8698412698412699</c:v>
+                  <c:v>1.9142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.8639240506329113</c:v>
+                  <c:v>1.9082278481012658</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.8580441640378549</c:v>
+                  <c:v>1.9022082018927444</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.8522012578616351</c:v>
+                  <c:v>1.8962264150943395</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.8463949843260188</c:v>
+                  <c:v>1.890282131661442</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.840625</c:v>
+                  <c:v>1.8843749999999999</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.8348909657320873</c:v>
+                  <c:v>1.8785046728971964</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.829192546583851</c:v>
+                  <c:v>1.8726708074534162</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.8235294117647058</c:v>
+                  <c:v>1.8668730650154799</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.8179012345679013</c:v>
+                  <c:v>1.8611111111111112</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.8123076923076924</c:v>
+                  <c:v>1.8553846153846154</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.8067484662576687</c:v>
+                  <c:v>1.8496932515337423</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.8012232415902141</c:v>
+                  <c:v>1.8440366972477065</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.7957317073170731</c:v>
+                  <c:v>1.8384146341463414</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.790273556231003</c:v>
+                  <c:v>1.8328267477203648</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.7848484848484849</c:v>
+                  <c:v>1.8272727272727274</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.7794561933534743</c:v>
+                  <c:v>1.8217522658610272</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.7740963855421688</c:v>
+                  <c:v>1.8162650602409638</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.7687687687687688</c:v>
+                  <c:v>1.8108108108108107</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.7634730538922156</c:v>
+                  <c:v>1.8053892215568863</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.7582089552238807</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.7529761904761905</c:v>
+                  <c:v>1.7946428571428572</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.7477744807121662</c:v>
+                  <c:v>1.7893175074183976</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.7426035502958579</c:v>
+                  <c:v>1.7840236686390532</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.7374631268436578</c:v>
+                  <c:v>1.7787610619469028</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.7323529411764707</c:v>
+                  <c:v>1.7735294117647058</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.7272727272727273</c:v>
+                  <c:v>1.7683284457478006</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.7222222222222223</c:v>
+                  <c:v>1.763157894736842</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.717201166180758</c:v>
+                  <c:v>1.7580174927113703</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.7122093023255813</c:v>
+                  <c:v>1.7529069767441861</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.7072463768115942</c:v>
+                  <c:v>1.7478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.7023121387283238</c:v>
+                  <c:v>1.7427745664739884</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.6974063400576369</c:v>
+                  <c:v>1.7377521613832854</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.6925287356321839</c:v>
+                  <c:v>1.7327586206896552</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.6876790830945558</c:v>
+                  <c:v>1.7277936962750717</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.6828571428571428</c:v>
+                  <c:v>1.7228571428571429</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.6780626780626782</c:v>
+                  <c:v>1.7179487179487178</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.6732954545454546</c:v>
+                  <c:v>1.7130681818181819</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.6685552407932012</c:v>
+                  <c:v>1.708215297450425</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.6638418079096045</c:v>
+                  <c:v>1.7033898305084745</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.6591549295774648</c:v>
+                  <c:v>1.6985915492957746</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.654494382022472</c:v>
+                  <c:v>1.6938202247191012</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.6498599439775909</c:v>
+                  <c:v>1.6890756302521008</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.6452513966480447</c:v>
+                  <c:v>1.6843575418994414</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.6406685236768803</c:v>
+                  <c:v>1.6796657381615598</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.6361111111111111</c:v>
+                  <c:v>1.675</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.631578947368421</c:v>
+                  <c:v>1.6703601108033241</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.6270718232044199</c:v>
+                  <c:v>1.6657458563535912</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.6225895316804408</c:v>
+                  <c:v>1.6611570247933884</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.6181318681318682</c:v>
+                  <c:v>1.6565934065934067</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.6136986301369862</c:v>
+                  <c:v>1.6520547945205479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,7 +2394,7 @@
                   <c:v>3.6774193548387095</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.4666666666666666</c:v>
+                  <c:v>1.9333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,7 +2949,7 @@
                   <c:v>3.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1428571428571428</c:v>
+                  <c:v>3.1428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6808,7 +6817,7 @@
       </c>
       <c r="K67" s="3">
         <f>SUM(D157:D186)/30</f>
-        <v>1.4666666666666666</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>174</v>
@@ -7355,7 +7364,7 @@
       </c>
       <c r="O85" s="5">
         <f>SUM(D167:D173)/7</f>
-        <v>1.1428571428571428</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
@@ -9300,13 +9309,19 @@
       <c r="B169" s="1">
         <v>44725</v>
       </c>
+      <c r="C169" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" s="3">
+        <v>4</v>
+      </c>
       <c r="E169" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="6"/>
-        <v>3.5914634146341462</v>
+        <v>3.6158536585365852</v>
       </c>
       <c r="G169" s="3">
         <v>164</v>
@@ -9316,13 +9331,19 @@
       <c r="B170" s="1">
         <v>44726</v>
       </c>
+      <c r="C170" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D170" s="3">
+        <v>5</v>
+      </c>
       <c r="E170" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="6"/>
-        <v>3.5696969696969698</v>
+        <v>3.624242424242424</v>
       </c>
       <c r="G170" s="3">
         <v>165</v>
@@ -9332,13 +9353,19 @@
       <c r="B171" s="1">
         <v>44727</v>
       </c>
+      <c r="C171" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171" s="3">
+        <v>5</v>
+      </c>
       <c r="E171" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="6"/>
-        <v>3.5481927710843375</v>
+        <v>3.6325301204819276</v>
       </c>
       <c r="G171" s="3">
         <v>166</v>
@@ -9350,11 +9377,11 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="6"/>
-        <v>3.5269461077844313</v>
+        <v>3.6107784431137726</v>
       </c>
       <c r="G172" s="3">
         <v>167</v>
@@ -9366,11 +9393,11 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>3.5059523809523809</v>
+        <v>3.5892857142857144</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -9382,11 +9409,11 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>3.4852071005917158</v>
+        <v>3.5680473372781063</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -9398,11 +9425,11 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>3.4647058823529413</v>
+        <v>3.5470588235294116</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -9414,11 +9441,11 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>3.4444444444444446</v>
+        <v>3.5263157894736841</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -9430,11 +9457,11 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>3.4244186046511627</v>
+        <v>3.5058139534883721</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -9446,11 +9473,11 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>3.4046242774566475</v>
+        <v>3.4855491329479769</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -9462,11 +9489,11 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>3.3850574712643677</v>
+        <v>3.4655172413793105</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -9478,11 +9505,11 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>3.3657142857142857</v>
+        <v>3.4457142857142857</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -9494,11 +9521,11 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>3.3465909090909092</v>
+        <v>3.4261363636363638</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -9510,11 +9537,11 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>3.3276836158192089</v>
+        <v>3.406779661016949</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -9526,11 +9553,11 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>3.308988764044944</v>
+        <v>3.3876404494382024</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -9542,11 +9569,11 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>3.2905027932960893</v>
+        <v>3.3687150837988828</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -9558,11 +9585,11 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>3.2722222222222221</v>
+        <v>3.35</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -9574,11 +9601,11 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>3.2541436464088398</v>
+        <v>3.3314917127071824</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -9590,11 +9617,11 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>3.2362637362637363</v>
+        <v>3.3131868131868134</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -9606,11 +9633,11 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>3.2185792349726774</v>
+        <v>3.2950819672131146</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -9622,11 +9649,11 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>3.2010869565217392</v>
+        <v>3.277173913043478</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -9638,11 +9665,11 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>3.1837837837837837</v>
+        <v>3.2594594594594595</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -9654,11 +9681,11 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>3.1666666666666665</v>
+        <v>3.2419354838709675</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -9670,11 +9697,11 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>3.1497326203208558</v>
+        <v>3.2245989304812834</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -9686,11 +9713,11 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>3.1329787234042552</v>
+        <v>3.2074468085106385</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -9702,11 +9729,11 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>3.1164021164021163</v>
+        <v>3.1904761904761907</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -9718,11 +9745,11 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>3.1</v>
+        <v>3.1736842105263157</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -9734,11 +9761,11 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>3.0837696335078535</v>
+        <v>3.157068062827225</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -9750,11 +9777,11 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>3.0677083333333335</v>
+        <v>3.140625</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -9766,11 +9793,11 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>3.0518134715025909</v>
+        <v>3.1243523316062176</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -9782,11 +9809,11 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>3.036082474226804</v>
+        <v>3.1082474226804124</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -9798,11 +9825,11 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>3.0205128205128204</v>
+        <v>3.0923076923076924</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -9814,11 +9841,11 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>3.0051020408163267</v>
+        <v>3.0765306122448979</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -9830,11 +9857,11 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>2.9898477157360408</v>
+        <v>3.0609137055837565</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -9846,11 +9873,11 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>2.9747474747474749</v>
+        <v>3.0454545454545454</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -9862,11 +9889,11 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>2.9597989949748742</v>
+        <v>3.0301507537688441</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -9878,11 +9905,11 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>2.9449999999999998</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -9894,11 +9921,11 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>2.9303482587064678</v>
+        <v>3</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -9910,11 +9937,11 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>2.9158415841584158</v>
+        <v>2.9851485148514851</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -9926,11 +9953,11 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.9014778325123154</v>
+        <v>2.9704433497536944</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -9942,11 +9969,11 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.8872549019607843</v>
+        <v>2.9558823529411766</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -9958,11 +9985,11 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.873170731707317</v>
+        <v>2.9414634146341463</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -9974,11 +10001,11 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.8592233009708736</v>
+        <v>2.9271844660194173</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -9990,11 +10017,11 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.8454106280193239</v>
+        <v>2.9130434782608696</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -10006,11 +10033,11 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.8317307692307692</v>
+        <v>2.8990384615384617</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -10022,11 +10049,11 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.8181818181818183</v>
+        <v>2.8851674641148324</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -10038,11 +10065,11 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.8047619047619046</v>
+        <v>2.8714285714285714</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -10054,11 +10081,11 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.7914691943127963</v>
+        <v>2.8578199052132702</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -10070,11 +10097,11 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.7783018867924527</v>
+        <v>2.8443396226415096</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -10086,11 +10113,11 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.7652582159624415</v>
+        <v>2.8309859154929575</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -10102,11 +10129,11 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.7523364485981308</v>
+        <v>2.8177570093457942</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -10118,11 +10145,11 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.7395348837209301</v>
+        <v>2.8046511627906976</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -10134,11 +10161,11 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.7268518518518516</v>
+        <v>2.7916666666666665</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -10150,11 +10177,11 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
+        <v>2.7788018433179724</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -10166,11 +10193,11 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.7018348623853212</v>
+        <v>2.7660550458715596</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -10182,11 +10209,11 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.689497716894977</v>
+        <v>2.7534246575342465</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -10198,11 +10225,11 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.6772727272727272</v>
+        <v>2.7409090909090907</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -10214,11 +10241,11 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.6651583710407238</v>
+        <v>2.7285067873303168</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -10230,11 +10257,11 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.6531531531531534</v>
+        <v>2.7162162162162162</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -10246,11 +10273,11 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.6412556053811658</v>
+        <v>2.7040358744394619</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -10262,11 +10289,11 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.6294642857142856</v>
+        <v>2.6919642857142856</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -10278,11 +10305,11 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.617777777777778</v>
+        <v>2.68</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -10294,11 +10321,11 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.6061946902654869</v>
+        <v>2.668141592920354</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -10310,11 +10337,11 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.5947136563876652</v>
+        <v>2.6563876651982379</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -10326,11 +10353,11 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.5833333333333335</v>
+        <v>2.6447368421052633</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -10342,11 +10369,11 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.572052401746725</v>
+        <v>2.6331877729257642</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -10358,11 +10385,11 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.5608695652173914</v>
+        <v>2.6217391304347828</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -10374,11 +10401,11 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.5497835497835499</v>
+        <v>2.6103896103896105</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -10390,11 +10417,11 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.5387931034482758</v>
+        <v>2.5991379310344827</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -10406,11 +10433,11 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.5278969957081543</v>
+        <v>2.5879828326180259</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -10422,11 +10449,11 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.517094017094017</v>
+        <v>2.5769230769230771</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -10438,11 +10465,11 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.5063829787234044</v>
+        <v>2.5659574468085107</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -10454,11 +10481,11 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.4957627118644066</v>
+        <v>2.5550847457627119</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -10470,11 +10497,11 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.4852320675105486</v>
+        <v>2.5443037974683542</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -10486,11 +10513,11 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.4747899159663866</v>
+        <v>2.5336134453781511</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -10502,11 +10529,11 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.4644351464435146</v>
+        <v>2.5230125523012554</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -10518,11 +10545,11 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.4541666666666666</v>
+        <v>2.5125000000000002</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -10534,11 +10561,11 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.4439834024896268</v>
+        <v>2.5020746887966805</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -10550,11 +10577,11 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.4338842975206614</v>
+        <v>2.4917355371900825</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -10566,11 +10593,11 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.4238683127572016</v>
+        <v>2.4814814814814814</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -10582,11 +10609,11 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>2.4139344262295084</v>
+        <v>2.471311475409836</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -10598,11 +10625,11 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>2.4040816326530612</v>
+        <v>2.4612244897959186</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -10614,11 +10641,11 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>2.3943089430894311</v>
+        <v>2.4512195121951219</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -10630,11 +10657,11 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>2.3846153846153846</v>
+        <v>2.4412955465587043</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -10646,11 +10673,11 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>2.375</v>
+        <v>2.431451612903226</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -10662,11 +10689,11 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>2.3654618473895583</v>
+        <v>2.4216867469879517</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -10678,11 +10705,11 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>2.3559999999999999</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -10694,11 +10721,11 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>2.3466135458167332</v>
+        <v>2.402390438247012</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -10710,11 +10737,11 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>2.3373015873015874</v>
+        <v>2.3928571428571428</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -10726,11 +10753,11 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>2.3280632411067192</v>
+        <v>2.383399209486166</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -10742,11 +10769,11 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>2.3188976377952755</v>
+        <v>2.3740157480314958</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -10758,11 +10785,11 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>2.3098039215686272</v>
+        <v>2.3647058823529412</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -10774,11 +10801,11 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>2.30078125</v>
+        <v>2.35546875</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -10790,11 +10817,11 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>2.2918287937743189</v>
+        <v>2.3463035019455254</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -10806,11 +10833,11 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>2.2829457364341086</v>
+        <v>2.3372093023255816</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -10822,11 +10849,11 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>2.2741312741312742</v>
+        <v>2.3281853281853282</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -10838,11 +10865,11 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>2.2653846153846153</v>
+        <v>2.3192307692307694</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -10854,11 +10881,11 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>2.2567049808429118</v>
+        <v>2.3103448275862069</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -10870,11 +10897,11 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>2.2480916030534353</v>
+        <v>2.3015267175572518</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -10886,11 +10913,11 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>2.2395437262357416</v>
+        <v>2.2927756653992395</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -10902,11 +10929,11 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>2.231060606060606</v>
+        <v>2.2840909090909092</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -10918,11 +10945,11 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>2.2226415094339624</v>
+        <v>2.2754716981132077</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -10934,11 +10961,11 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>2.2142857142857144</v>
+        <v>2.2669172932330826</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -10950,11 +10977,11 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>2.2059925093632957</v>
+        <v>2.2584269662921348</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -10966,11 +10993,11 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>2.1977611940298507</v>
+        <v>2.25</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -10982,11 +11009,11 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>2.1895910780669143</v>
+        <v>2.2416356877323418</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -10998,11 +11025,11 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>2.1814814814814816</v>
+        <v>2.2333333333333334</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -11014,11 +11041,11 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>2.1734317343173433</v>
+        <v>2.2250922509225091</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -11030,11 +11057,11 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>2.1654411764705883</v>
+        <v>2.2169117647058822</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -11046,11 +11073,11 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>2.1575091575091574</v>
+        <v>2.2087912087912089</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -11062,11 +11089,11 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>2.1496350364963503</v>
+        <v>2.2007299270072993</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -11078,11 +11105,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>2.1418181818181816</v>
+        <v>2.1927272727272729</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -11094,11 +11121,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>2.1340579710144927</v>
+        <v>2.1847826086956523</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -11110,11 +11137,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>2.1263537906137184</v>
+        <v>2.1768953068592056</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -11126,11 +11153,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>2.1187050359712232</v>
+        <v>2.1690647482014387</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -11142,11 +11169,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>2.1111111111111112</v>
+        <v>2.161290322580645</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -11158,11 +11185,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>2.1035714285714286</v>
+        <v>2.1535714285714285</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -11174,11 +11201,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>2.0960854092526691</v>
+        <v>2.1459074733096086</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -11190,11 +11217,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>2.0886524822695036</v>
+        <v>2.1382978723404253</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -11206,11 +11233,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>2.0812720848056538</v>
+        <v>2.1307420494699647</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -11222,11 +11249,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>2.073943661971831</v>
+        <v>2.1232394366197185</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -11238,11 +11265,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>2.0666666666666669</v>
+        <v>2.1157894736842104</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -11254,11 +11281,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>2.0594405594405596</v>
+        <v>2.1083916083916083</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -11270,11 +11297,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>2.0522648083623691</v>
+        <v>2.1010452961672472</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -11286,11 +11313,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>2.0451388888888888</v>
+        <v>2.09375</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -11302,11 +11329,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>2.0380622837370241</v>
+        <v>2.0865051903114189</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -11318,11 +11345,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>2.0310344827586206</v>
+        <v>2.079310344827586</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -11334,11 +11361,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>2.0240549828178693</v>
+        <v>2.0721649484536084</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -11350,11 +11377,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>2.0171232876712328</v>
+        <v>2.0650684931506849</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -11366,11 +11393,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>2.0102389078498293</v>
+        <v>2.0580204778156999</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -11382,11 +11409,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>2.0034013605442178</v>
+        <v>2.0510204081632653</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -11398,11 +11425,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>1.9966101694915255</v>
+        <v>2.0440677966101695</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -11414,11 +11441,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>1.9898648648648649</v>
+        <v>2.0371621621621623</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -11430,11 +11457,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>1.9831649831649831</v>
+        <v>2.0303030303030303</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -11446,11 +11473,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>1.976510067114094</v>
+        <v>2.023489932885906</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -11462,11 +11489,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>1.9698996655518395</v>
+        <v>2.0167224080267561</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -11478,11 +11505,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>1.9633333333333334</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -11494,11 +11521,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>1.9568106312292359</v>
+        <v>2.0033222591362128</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -11510,11 +11537,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>1.9503311258278146</v>
+        <v>1.9966887417218544</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -11526,11 +11553,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>1.943894389438944</v>
+        <v>1.9900990099009901</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -11542,11 +11569,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.9375</v>
+        <v>1.9835526315789473</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -11558,11 +11585,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.9311475409836065</v>
+        <v>1.9770491803278689</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -11574,11 +11601,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.9248366013071896</v>
+        <v>1.9705882352941178</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -11590,11 +11617,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.9185667752442996</v>
+        <v>1.9641693811074918</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -11606,11 +11633,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.9123376623376624</v>
+        <v>1.9577922077922079</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -11622,11 +11649,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.9061488673139158</v>
+        <v>1.9514563106796117</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -11638,11 +11665,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.9</v>
+        <v>1.9451612903225806</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -11654,11 +11681,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.8938906752411575</v>
+        <v>1.9389067524115755</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -11670,11 +11697,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.8878205128205128</v>
+        <v>1.9326923076923077</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -11686,11 +11713,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.8817891373801916</v>
+        <v>1.9265175718849841</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -11702,11 +11729,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.875796178343949</v>
+        <v>1.9203821656050954</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -11718,11 +11745,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.8698412698412699</v>
+        <v>1.9142857142857144</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -11734,11 +11761,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.8639240506329113</v>
+        <v>1.9082278481012658</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -11750,11 +11777,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.8580441640378549</v>
+        <v>1.9022082018927444</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -11766,11 +11793,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.8522012578616351</v>
+        <v>1.8962264150943395</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -11782,11 +11809,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.8463949843260188</v>
+        <v>1.890282131661442</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -11798,11 +11825,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.840625</v>
+        <v>1.8843749999999999</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -11814,11 +11841,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.8348909657320873</v>
+        <v>1.8785046728971964</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -11830,11 +11857,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.829192546583851</v>
+        <v>1.8726708074534162</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -11846,11 +11873,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.8235294117647058</v>
+        <v>1.8668730650154799</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -11862,11 +11889,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.8179012345679013</v>
+        <v>1.8611111111111112</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -11878,11 +11905,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.8123076923076924</v>
+        <v>1.8553846153846154</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -11894,11 +11921,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.8067484662576687</v>
+        <v>1.8496932515337423</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -11910,11 +11937,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.8012232415902141</v>
+        <v>1.8440366972477065</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -11926,11 +11953,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.7957317073170731</v>
+        <v>1.8384146341463414</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -11942,11 +11969,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.790273556231003</v>
+        <v>1.8328267477203648</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -11958,11 +11985,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.7848484848484849</v>
+        <v>1.8272727272727274</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -11974,11 +12001,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.7794561933534743</v>
+        <v>1.8217522658610272</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -11990,11 +12017,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.7740963855421688</v>
+        <v>1.8162650602409638</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -12006,11 +12033,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.7687687687687688</v>
+        <v>1.8108108108108107</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -12022,11 +12049,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.7634730538922156</v>
+        <v>1.8053892215568863</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -12038,11 +12065,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.7582089552238807</v>
+        <v>1.8</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -12054,11 +12081,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.7529761904761905</v>
+        <v>1.7946428571428572</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -12070,11 +12097,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.7477744807121662</v>
+        <v>1.7893175074183976</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -12086,11 +12113,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.7426035502958579</v>
+        <v>1.7840236686390532</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -12102,11 +12129,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.7374631268436578</v>
+        <v>1.7787610619469028</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -12118,11 +12145,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.7323529411764707</v>
+        <v>1.7735294117647058</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -12134,11 +12161,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.7272727272727273</v>
+        <v>1.7683284457478006</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -12150,11 +12177,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.7222222222222223</v>
+        <v>1.763157894736842</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -12166,11 +12193,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.717201166180758</v>
+        <v>1.7580174927113703</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -12182,11 +12209,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.7122093023255813</v>
+        <v>1.7529069767441861</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -12198,11 +12225,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.7072463768115942</v>
+        <v>1.7478260869565216</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -12214,11 +12241,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.7023121387283238</v>
+        <v>1.7427745664739884</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -12230,11 +12257,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.6974063400576369</v>
+        <v>1.7377521613832854</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -12246,11 +12273,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.6925287356321839</v>
+        <v>1.7327586206896552</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -12262,11 +12289,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.6876790830945558</v>
+        <v>1.7277936962750717</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -12278,11 +12305,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.6828571428571428</v>
+        <v>1.7228571428571429</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -12294,11 +12321,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.6780626780626782</v>
+        <v>1.7179487179487178</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -12310,11 +12337,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.6732954545454546</v>
+        <v>1.7130681818181819</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -12326,11 +12353,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.6685552407932012</v>
+        <v>1.708215297450425</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -12342,11 +12369,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.6638418079096045</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -12358,11 +12385,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.6591549295774648</v>
+        <v>1.6985915492957746</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -12374,11 +12401,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.654494382022472</v>
+        <v>1.6938202247191012</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -12390,11 +12417,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.6498599439775909</v>
+        <v>1.6890756302521008</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -12406,11 +12433,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.6452513966480447</v>
+        <v>1.6843575418994414</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -12422,11 +12449,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.6406685236768803</v>
+        <v>1.6796657381615598</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -12438,11 +12465,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.6361111111111111</v>
+        <v>1.675</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -12454,11 +12481,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.631578947368421</v>
+        <v>1.6703601108033241</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -12470,11 +12497,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.6270718232044199</v>
+        <v>1.6657458563535912</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -12486,11 +12513,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.6225895316804408</v>
+        <v>1.6611570247933884</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -12502,11 +12529,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.6181318681318682</v>
+        <v>1.6565934065934067</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -12518,11 +12545,11 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.6136986301369862</v>
+        <v>1.6520547945205479</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EE46C7-3B64-694F-9E13-566775CDB3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA40F7-C1C5-FF44-937A-28ED3659B3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>running sum</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>Meddle</t>
+  </si>
+  <si>
+    <t>Comfort Eagle</t>
   </si>
 </sst>
 </file>
@@ -1418,601 +1421,601 @@
                   <c:v>3.6325301204819276</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.6107784431137726</c:v>
+                  <c:v>3.6287425149700598</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.5892857142857144</c:v>
+                  <c:v>3.6071428571428572</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.5680473372781063</c:v>
+                  <c:v>3.5857988165680474</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.5470588235294116</c:v>
+                  <c:v>3.5647058823529414</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.5263157894736841</c:v>
+                  <c:v>3.5438596491228069</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.5058139534883721</c:v>
+                  <c:v>3.5232558139534884</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.4855491329479769</c:v>
+                  <c:v>3.5028901734104045</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.4655172413793105</c:v>
+                  <c:v>3.4827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.4457142857142857</c:v>
+                  <c:v>3.4628571428571431</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.4261363636363638</c:v>
+                  <c:v>3.4431818181818183</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.406779661016949</c:v>
+                  <c:v>3.4237288135593222</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.3876404494382024</c:v>
+                  <c:v>3.404494382022472</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.3687150837988828</c:v>
+                  <c:v>3.3854748603351954</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.35</c:v>
+                  <c:v>3.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.3314917127071824</c:v>
+                  <c:v>3.3480662983425415</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.3131868131868134</c:v>
+                  <c:v>3.3296703296703298</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.2950819672131146</c:v>
+                  <c:v>3.3114754098360657</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.277173913043478</c:v>
+                  <c:v>3.2934782608695654</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.2594594594594595</c:v>
+                  <c:v>3.2756756756756755</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.2419354838709675</c:v>
+                  <c:v>3.2580645161290325</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.2245989304812834</c:v>
+                  <c:v>3.2406417112299466</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.2074468085106385</c:v>
+                  <c:v>3.2234042553191489</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.1904761904761907</c:v>
+                  <c:v>3.2063492063492065</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.1736842105263157</c:v>
+                  <c:v>3.1894736842105265</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.157068062827225</c:v>
+                  <c:v>3.1727748691099475</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.140625</c:v>
+                  <c:v>3.15625</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.1243523316062176</c:v>
+                  <c:v>3.1398963730569949</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.1082474226804124</c:v>
+                  <c:v>3.1237113402061856</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.0923076923076924</c:v>
+                  <c:v>3.1076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.0765306122448979</c:v>
+                  <c:v>3.0918367346938775</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.0609137055837565</c:v>
+                  <c:v>3.0761421319796955</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.0454545454545454</c:v>
+                  <c:v>3.0606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.0301507537688441</c:v>
+                  <c:v>3.0452261306532664</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.0150000000000001</c:v>
+                  <c:v>3.03</c:v>
                 </c:pt>
                 <c:pt idx="200">
+                  <c:v>3.0149253731343282</c:v>
+                </c:pt>
+                <c:pt idx="201">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="201">
-                  <c:v>2.9851485148514851</c:v>
-                </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.9704433497536944</c:v>
+                  <c:v>2.9852216748768474</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.9558823529411766</c:v>
+                  <c:v>2.9705882352941178</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.9414634146341463</c:v>
+                  <c:v>2.9560975609756097</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.9271844660194173</c:v>
+                  <c:v>2.941747572815534</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.9130434782608696</c:v>
+                  <c:v>2.9275362318840581</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.8990384615384617</c:v>
+                  <c:v>2.9134615384615383</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.8851674641148324</c:v>
+                  <c:v>2.8995215311004783</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.8714285714285714</c:v>
+                  <c:v>2.8857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.8578199052132702</c:v>
+                  <c:v>2.8720379146919433</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.8443396226415096</c:v>
+                  <c:v>2.858490566037736</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.8309859154929575</c:v>
+                  <c:v>2.8450704225352115</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.8177570093457942</c:v>
+                  <c:v>2.8317757009345796</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.8046511627906976</c:v>
+                  <c:v>2.8186046511627909</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.7916666666666665</c:v>
+                  <c:v>2.8055555555555554</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.7788018433179724</c:v>
+                  <c:v>2.7926267281105992</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.7660550458715596</c:v>
+                  <c:v>2.7798165137614679</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.7534246575342465</c:v>
+                  <c:v>2.7671232876712328</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.7409090909090907</c:v>
+                  <c:v>2.7545454545454544</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.7285067873303168</c:v>
+                  <c:v>2.7420814479638009</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.7162162162162162</c:v>
+                  <c:v>2.7297297297297298</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.7040358744394619</c:v>
+                  <c:v>2.717488789237668</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.6919642857142856</c:v>
+                  <c:v>2.7053571428571428</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.68</c:v>
+                  <c:v>2.6933333333333334</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.668141592920354</c:v>
+                  <c:v>2.6814159292035398</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.6563876651982379</c:v>
+                  <c:v>2.6696035242290748</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.6447368421052633</c:v>
+                  <c:v>2.6578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.6331877729257642</c:v>
+                  <c:v>2.6462882096069871</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.6217391304347828</c:v>
+                  <c:v>2.6347826086956521</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.6103896103896105</c:v>
+                  <c:v>2.6233766233766236</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.5991379310344827</c:v>
+                  <c:v>2.6120689655172415</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.5879828326180259</c:v>
+                  <c:v>2.6008583690987126</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.5769230769230771</c:v>
+                  <c:v>2.5897435897435899</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.5659574468085107</c:v>
+                  <c:v>2.5787234042553191</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.5550847457627119</c:v>
+                  <c:v>2.5677966101694913</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.5443037974683542</c:v>
+                  <c:v>2.5569620253164556</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.5336134453781511</c:v>
+                  <c:v>2.5462184873949578</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.5230125523012554</c:v>
+                  <c:v>2.5355648535564854</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.5125000000000002</c:v>
+                  <c:v>2.5249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.5020746887966805</c:v>
+                  <c:v>2.5145228215767634</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.4917355371900825</c:v>
+                  <c:v>2.5041322314049586</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.4814814814814814</c:v>
+                  <c:v>2.4938271604938271</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.471311475409836</c:v>
+                  <c:v>2.4836065573770494</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.4612244897959186</c:v>
+                  <c:v>2.4734693877551019</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.4512195121951219</c:v>
+                  <c:v>2.4634146341463414</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.4412955465587043</c:v>
+                  <c:v>2.4534412955465585</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.431451612903226</c:v>
+                  <c:v>2.443548387096774</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.4216867469879517</c:v>
+                  <c:v>2.4337349397590362</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.4119999999999999</c:v>
+                  <c:v>2.4239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.402390438247012</c:v>
+                  <c:v>2.4143426294820718</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.3928571428571428</c:v>
+                  <c:v>2.4047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.383399209486166</c:v>
+                  <c:v>2.3952569169960474</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.3740157480314958</c:v>
+                  <c:v>2.3858267716535435</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.3647058823529412</c:v>
+                  <c:v>2.3764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.35546875</c:v>
+                  <c:v>2.3671875</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.3463035019455254</c:v>
+                  <c:v>2.3579766536964981</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.3372093023255816</c:v>
+                  <c:v>2.3488372093023258</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.3281853281853282</c:v>
+                  <c:v>2.33976833976834</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.3192307692307694</c:v>
+                  <c:v>2.3307692307692309</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.3103448275862069</c:v>
+                  <c:v>2.3218390804597702</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.3015267175572518</c:v>
+                  <c:v>2.3129770992366412</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.2927756653992395</c:v>
+                  <c:v>2.3041825095057034</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.2840909090909092</c:v>
+                  <c:v>2.2954545454545454</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.2754716981132077</c:v>
+                  <c:v>2.2867924528301886</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.2669172932330826</c:v>
+                  <c:v>2.2781954887218046</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.2584269662921348</c:v>
+                  <c:v>2.2696629213483148</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.25</c:v>
+                  <c:v>2.2611940298507465</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.2416356877323418</c:v>
+                  <c:v>2.2527881040892193</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.2333333333333334</c:v>
+                  <c:v>2.2444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.2250922509225091</c:v>
+                  <c:v>2.2361623616236161</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.2169117647058822</c:v>
+                  <c:v>2.2279411764705883</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.2087912087912089</c:v>
+                  <c:v>2.2197802197802199</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.2007299270072993</c:v>
+                  <c:v>2.2116788321167884</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.1927272727272729</c:v>
+                  <c:v>2.2036363636363636</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.1847826086956523</c:v>
+                  <c:v>2.1956521739130435</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.1768953068592056</c:v>
+                  <c:v>2.1877256317689531</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.1690647482014387</c:v>
+                  <c:v>2.1798561151079139</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.161290322580645</c:v>
+                  <c:v>2.172043010752688</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.1535714285714285</c:v>
+                  <c:v>2.1642857142857141</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.1459074733096086</c:v>
+                  <c:v>2.1565836298932384</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.1382978723404253</c:v>
+                  <c:v>2.1489361702127661</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2.1307420494699647</c:v>
+                  <c:v>2.1413427561837457</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2.1232394366197185</c:v>
+                  <c:v>2.1338028169014085</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2.1157894736842104</c:v>
+                  <c:v>2.1263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2.1083916083916083</c:v>
+                  <c:v>2.1188811188811187</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2.1010452961672472</c:v>
+                  <c:v>2.1114982578397212</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2.09375</c:v>
+                  <c:v>2.1041666666666665</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.0865051903114189</c:v>
+                  <c:v>2.0968858131487891</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2.079310344827586</c:v>
+                  <c:v>2.0896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.0721649484536084</c:v>
+                  <c:v>2.0824742268041239</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2.0650684931506849</c:v>
+                  <c:v>2.0753424657534247</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2.0580204778156999</c:v>
+                  <c:v>2.0682593856655291</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2.0510204081632653</c:v>
+                  <c:v>2.0612244897959182</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2.0440677966101695</c:v>
+                  <c:v>2.0542372881355933</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2.0371621621621623</c:v>
+                  <c:v>2.0472972972972974</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2.0303030303030303</c:v>
+                  <c:v>2.0404040404040402</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2.023489932885906</c:v>
+                  <c:v>2.0335570469798658</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2.0167224080267561</c:v>
+                  <c:v>2.0267558528428093</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>2.0033222591362128</c:v>
+                  <c:v>2.0132890365448506</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.9966887417218544</c:v>
+                  <c:v>2.0066225165562912</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.9900990099009901</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.9835526315789473</c:v>
+                  <c:v>1.993421052631579</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.9770491803278689</c:v>
+                  <c:v>1.9868852459016393</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.9705882352941178</c:v>
+                  <c:v>1.9803921568627452</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.9641693811074918</c:v>
+                  <c:v>1.9739413680781759</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.9577922077922079</c:v>
+                  <c:v>1.9675324675324675</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.9514563106796117</c:v>
+                  <c:v>1.9611650485436893</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.9451612903225806</c:v>
+                  <c:v>1.9548387096774194</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.9389067524115755</c:v>
+                  <c:v>1.9485530546623795</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.9326923076923077</c:v>
+                  <c:v>1.9423076923076923</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.9265175718849841</c:v>
+                  <c:v>1.9361022364217253</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.9203821656050954</c:v>
+                  <c:v>1.9299363057324841</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.9142857142857144</c:v>
+                  <c:v>1.9238095238095239</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.9082278481012658</c:v>
+                  <c:v>1.9177215189873418</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.9022082018927444</c:v>
+                  <c:v>1.9116719242902209</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.8962264150943395</c:v>
+                  <c:v>1.9056603773584906</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.890282131661442</c:v>
+                  <c:v>1.8996865203761755</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.8843749999999999</c:v>
+                  <c:v>1.89375</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.8785046728971964</c:v>
+                  <c:v>1.8878504672897196</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.8726708074534162</c:v>
+                  <c:v>1.8819875776397517</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.8668730650154799</c:v>
+                  <c:v>1.8761609907120742</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.8611111111111112</c:v>
+                  <c:v>1.8703703703703705</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.8553846153846154</c:v>
+                  <c:v>1.8646153846153846</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.8496932515337423</c:v>
+                  <c:v>1.8588957055214723</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.8440366972477065</c:v>
+                  <c:v>1.8532110091743119</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.8384146341463414</c:v>
+                  <c:v>1.8475609756097562</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.8328267477203648</c:v>
+                  <c:v>1.8419452887537995</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.8272727272727274</c:v>
+                  <c:v>1.8363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.8217522658610272</c:v>
+                  <c:v>1.8308157099697886</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.8162650602409638</c:v>
+                  <c:v>1.8253012048192772</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.8108108108108107</c:v>
+                  <c:v>1.8198198198198199</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.8053892215568863</c:v>
+                  <c:v>1.8143712574850299</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.8</c:v>
+                  <c:v>1.808955223880597</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.7946428571428572</c:v>
+                  <c:v>1.8035714285714286</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.7893175074183976</c:v>
+                  <c:v>1.7982195845697329</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.7840236686390532</c:v>
+                  <c:v>1.7928994082840237</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.7787610619469028</c:v>
+                  <c:v>1.7876106194690264</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.7735294117647058</c:v>
+                  <c:v>1.7823529411764707</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.7683284457478006</c:v>
+                  <c:v>1.7771260997067448</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.763157894736842</c:v>
+                  <c:v>1.7719298245614035</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.7580174927113703</c:v>
+                  <c:v>1.7667638483965014</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.7529069767441861</c:v>
+                  <c:v>1.7616279069767442</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.7478260869565216</c:v>
+                  <c:v>1.7565217391304349</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.7427745664739884</c:v>
+                  <c:v>1.7514450867052023</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.7377521613832854</c:v>
+                  <c:v>1.7463976945244957</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.7327586206896552</c:v>
+                  <c:v>1.7413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.7277936962750717</c:v>
+                  <c:v>1.7363896848137537</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.7228571428571429</c:v>
+                  <c:v>1.7314285714285715</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.7179487179487178</c:v>
+                  <c:v>1.7264957264957266</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.7130681818181819</c:v>
+                  <c:v>1.7215909090909092</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.708215297450425</c:v>
+                  <c:v>1.7167138810198301</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.7033898305084745</c:v>
+                  <c:v>1.7118644067796611</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.6985915492957746</c:v>
+                  <c:v>1.7070422535211267</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.6938202247191012</c:v>
+                  <c:v>1.702247191011236</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.6890756302521008</c:v>
+                  <c:v>1.6974789915966386</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.6843575418994414</c:v>
+                  <c:v>1.6927374301675977</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.6796657381615598</c:v>
+                  <c:v>1.6880222841225627</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.675</c:v>
+                  <c:v>1.6833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.6703601108033241</c:v>
+                  <c:v>1.6786703601108033</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.6657458563535912</c:v>
+                  <c:v>1.6740331491712708</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.6611570247933884</c:v>
+                  <c:v>1.6694214876033058</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.6565934065934067</c:v>
+                  <c:v>1.6648351648351649</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.6520547945205479</c:v>
+                  <c:v>1.6602739726027398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2397,7 @@
                   <c:v>3.6774193548387095</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.9333333333333333</c:v>
+                  <c:v>2.0333333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +2952,7 @@
                   <c:v>3.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1428571428571428</c:v>
+                  <c:v>3.5714285714285716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6817,7 +6820,7 @@
       </c>
       <c r="K67" s="3">
         <f>SUM(D157:D186)/30</f>
-        <v>1.9333333333333333</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>174</v>
@@ -7364,7 +7367,7 @@
       </c>
       <c r="O85" s="5">
         <f>SUM(D167:D173)/7</f>
-        <v>3.1428571428571428</v>
+        <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
@@ -9375,13 +9378,19 @@
       <c r="B172" s="1">
         <v>44728</v>
       </c>
+      <c r="C172" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D172" s="3">
+        <v>3</v>
+      </c>
       <c r="E172" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="6"/>
-        <v>3.6107784431137726</v>
+        <v>3.6287425149700598</v>
       </c>
       <c r="G172" s="3">
         <v>167</v>
@@ -9393,11 +9402,11 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>3.5892857142857144</v>
+        <v>3.6071428571428572</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -9409,11 +9418,11 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>3.5680473372781063</v>
+        <v>3.5857988165680474</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -9425,11 +9434,11 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>3.5470588235294116</v>
+        <v>3.5647058823529414</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -9441,11 +9450,11 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>3.5263157894736841</v>
+        <v>3.5438596491228069</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -9457,11 +9466,11 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>3.5058139534883721</v>
+        <v>3.5232558139534884</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -9473,11 +9482,11 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>3.4855491329479769</v>
+        <v>3.5028901734104045</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -9489,11 +9498,11 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>3.4655172413793105</v>
+        <v>3.4827586206896552</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -9505,11 +9514,11 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>3.4457142857142857</v>
+        <v>3.4628571428571431</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -9521,11 +9530,11 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>3.4261363636363638</v>
+        <v>3.4431818181818183</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -9537,11 +9546,11 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>3.406779661016949</v>
+        <v>3.4237288135593222</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -9553,11 +9562,11 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>3.3876404494382024</v>
+        <v>3.404494382022472</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -9569,11 +9578,11 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>3.3687150837988828</v>
+        <v>3.3854748603351954</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -9585,11 +9594,11 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>3.35</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -9601,11 +9610,11 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>3.3314917127071824</v>
+        <v>3.3480662983425415</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -9617,11 +9626,11 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>3.3131868131868134</v>
+        <v>3.3296703296703298</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -9633,11 +9642,11 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>3.2950819672131146</v>
+        <v>3.3114754098360657</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -9649,11 +9658,11 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>3.277173913043478</v>
+        <v>3.2934782608695654</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -9665,11 +9674,11 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>3.2594594594594595</v>
+        <v>3.2756756756756755</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -9681,11 +9690,11 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>3.2419354838709675</v>
+        <v>3.2580645161290325</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -9697,11 +9706,11 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>3.2245989304812834</v>
+        <v>3.2406417112299466</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -9713,11 +9722,11 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>3.2074468085106385</v>
+        <v>3.2234042553191489</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -9729,11 +9738,11 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>3.1904761904761907</v>
+        <v>3.2063492063492065</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -9745,11 +9754,11 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>3.1736842105263157</v>
+        <v>3.1894736842105265</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -9761,11 +9770,11 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>3.157068062827225</v>
+        <v>3.1727748691099475</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -9777,11 +9786,11 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>3.140625</v>
+        <v>3.15625</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -9793,11 +9802,11 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>3.1243523316062176</v>
+        <v>3.1398963730569949</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -9809,11 +9818,11 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>3.1082474226804124</v>
+        <v>3.1237113402061856</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -9825,11 +9834,11 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>3.0923076923076924</v>
+        <v>3.1076923076923078</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -9841,11 +9850,11 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>3.0765306122448979</v>
+        <v>3.0918367346938775</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -9857,11 +9866,11 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>3.0609137055837565</v>
+        <v>3.0761421319796955</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -9873,11 +9882,11 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>3.0454545454545454</v>
+        <v>3.0606060606060606</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -9889,11 +9898,11 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>3.0301507537688441</v>
+        <v>3.0452261306532664</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -9905,11 +9914,11 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>3.0150000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -9921,11 +9930,11 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>3.0149253731343282</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -9937,11 +9946,11 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>2.9851485148514851</v>
+        <v>3</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -9953,11 +9962,11 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.9704433497536944</v>
+        <v>2.9852216748768474</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -9969,11 +9978,11 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.9558823529411766</v>
+        <v>2.9705882352941178</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -9985,11 +9994,11 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.9414634146341463</v>
+        <v>2.9560975609756097</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -10001,11 +10010,11 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.9271844660194173</v>
+        <v>2.941747572815534</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -10017,11 +10026,11 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.9130434782608696</v>
+        <v>2.9275362318840581</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -10033,11 +10042,11 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.8990384615384617</v>
+        <v>2.9134615384615383</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -10049,11 +10058,11 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.8851674641148324</v>
+        <v>2.8995215311004783</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -10065,11 +10074,11 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.8714285714285714</v>
+        <v>2.8857142857142857</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -10081,11 +10090,11 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.8578199052132702</v>
+        <v>2.8720379146919433</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -10097,11 +10106,11 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.8443396226415096</v>
+        <v>2.858490566037736</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -10113,11 +10122,11 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.8309859154929575</v>
+        <v>2.8450704225352115</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -10129,11 +10138,11 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.8177570093457942</v>
+        <v>2.8317757009345796</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -10145,11 +10154,11 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.8046511627906976</v>
+        <v>2.8186046511627909</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -10161,11 +10170,11 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.7916666666666665</v>
+        <v>2.8055555555555554</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -10177,11 +10186,11 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.7788018433179724</v>
+        <v>2.7926267281105992</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -10193,11 +10202,11 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.7660550458715596</v>
+        <v>2.7798165137614679</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -10209,11 +10218,11 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.7534246575342465</v>
+        <v>2.7671232876712328</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -10225,11 +10234,11 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.7409090909090907</v>
+        <v>2.7545454545454544</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -10241,11 +10250,11 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.7285067873303168</v>
+        <v>2.7420814479638009</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -10257,11 +10266,11 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.7162162162162162</v>
+        <v>2.7297297297297298</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -10273,11 +10282,11 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.7040358744394619</v>
+        <v>2.717488789237668</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -10289,11 +10298,11 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.6919642857142856</v>
+        <v>2.7053571428571428</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -10305,11 +10314,11 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.68</v>
+        <v>2.6933333333333334</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -10321,11 +10330,11 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.668141592920354</v>
+        <v>2.6814159292035398</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -10337,11 +10346,11 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.6563876651982379</v>
+        <v>2.6696035242290748</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -10353,11 +10362,11 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.6447368421052633</v>
+        <v>2.6578947368421053</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -10369,11 +10378,11 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.6331877729257642</v>
+        <v>2.6462882096069871</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -10385,11 +10394,11 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.6217391304347828</v>
+        <v>2.6347826086956521</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -10401,11 +10410,11 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.6103896103896105</v>
+        <v>2.6233766233766236</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -10417,11 +10426,11 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.5991379310344827</v>
+        <v>2.6120689655172415</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -10433,11 +10442,11 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.5879828326180259</v>
+        <v>2.6008583690987126</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -10449,11 +10458,11 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.5769230769230771</v>
+        <v>2.5897435897435899</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -10465,11 +10474,11 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.5659574468085107</v>
+        <v>2.5787234042553191</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -10481,11 +10490,11 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.5550847457627119</v>
+        <v>2.5677966101694913</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -10497,11 +10506,11 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.5443037974683542</v>
+        <v>2.5569620253164556</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -10513,11 +10522,11 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.5336134453781511</v>
+        <v>2.5462184873949578</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -10529,11 +10538,11 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.5230125523012554</v>
+        <v>2.5355648535564854</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -10545,11 +10554,11 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.5125000000000002</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -10561,11 +10570,11 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.5020746887966805</v>
+        <v>2.5145228215767634</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -10577,11 +10586,11 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.4917355371900825</v>
+        <v>2.5041322314049586</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -10593,11 +10602,11 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.4814814814814814</v>
+        <v>2.4938271604938271</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -10609,11 +10618,11 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>2.471311475409836</v>
+        <v>2.4836065573770494</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -10625,11 +10634,11 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>2.4612244897959186</v>
+        <v>2.4734693877551019</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -10641,11 +10650,11 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>2.4512195121951219</v>
+        <v>2.4634146341463414</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -10657,11 +10666,11 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>2.4412955465587043</v>
+        <v>2.4534412955465585</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -10673,11 +10682,11 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>2.431451612903226</v>
+        <v>2.443548387096774</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -10689,11 +10698,11 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>2.4216867469879517</v>
+        <v>2.4337349397590362</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -10705,11 +10714,11 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>2.4119999999999999</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -10721,11 +10730,11 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>2.402390438247012</v>
+        <v>2.4143426294820718</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -10737,11 +10746,11 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>2.3928571428571428</v>
+        <v>2.4047619047619047</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -10753,11 +10762,11 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>2.383399209486166</v>
+        <v>2.3952569169960474</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -10769,11 +10778,11 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>2.3740157480314958</v>
+        <v>2.3858267716535435</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -10785,11 +10794,11 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>2.3647058823529412</v>
+        <v>2.3764705882352941</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -10801,11 +10810,11 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>2.35546875</v>
+        <v>2.3671875</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -10817,11 +10826,11 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>2.3463035019455254</v>
+        <v>2.3579766536964981</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -10833,11 +10842,11 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>2.3372093023255816</v>
+        <v>2.3488372093023258</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -10849,11 +10858,11 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>2.3281853281853282</v>
+        <v>2.33976833976834</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -10865,11 +10874,11 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>2.3192307692307694</v>
+        <v>2.3307692307692309</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -10881,11 +10890,11 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>2.3103448275862069</v>
+        <v>2.3218390804597702</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -10897,11 +10906,11 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>2.3015267175572518</v>
+        <v>2.3129770992366412</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -10913,11 +10922,11 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>2.2927756653992395</v>
+        <v>2.3041825095057034</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -10929,11 +10938,11 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>2.2840909090909092</v>
+        <v>2.2954545454545454</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -10945,11 +10954,11 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>2.2754716981132077</v>
+        <v>2.2867924528301886</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -10961,11 +10970,11 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>2.2669172932330826</v>
+        <v>2.2781954887218046</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -10977,11 +10986,11 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>2.2584269662921348</v>
+        <v>2.2696629213483148</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -10993,11 +11002,11 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>2.25</v>
+        <v>2.2611940298507465</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -11009,11 +11018,11 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>2.2416356877323418</v>
+        <v>2.2527881040892193</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -11025,11 +11034,11 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>2.2333333333333334</v>
+        <v>2.2444444444444445</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -11041,11 +11050,11 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>2.2250922509225091</v>
+        <v>2.2361623616236161</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -11057,11 +11066,11 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>2.2169117647058822</v>
+        <v>2.2279411764705883</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -11073,11 +11082,11 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>2.2087912087912089</v>
+        <v>2.2197802197802199</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -11089,11 +11098,11 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>2.2007299270072993</v>
+        <v>2.2116788321167884</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -11105,11 +11114,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>2.1927272727272729</v>
+        <v>2.2036363636363636</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -11121,11 +11130,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>2.1847826086956523</v>
+        <v>2.1956521739130435</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -11137,11 +11146,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>2.1768953068592056</v>
+        <v>2.1877256317689531</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -11153,11 +11162,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>2.1690647482014387</v>
+        <v>2.1798561151079139</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -11169,11 +11178,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>2.161290322580645</v>
+        <v>2.172043010752688</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -11185,11 +11194,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>2.1535714285714285</v>
+        <v>2.1642857142857141</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -11201,11 +11210,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>2.1459074733096086</v>
+        <v>2.1565836298932384</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -11217,11 +11226,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>2.1382978723404253</v>
+        <v>2.1489361702127661</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -11233,11 +11242,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>2.1307420494699647</v>
+        <v>2.1413427561837457</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -11249,11 +11258,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>2.1232394366197185</v>
+        <v>2.1338028169014085</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -11265,11 +11274,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>2.1157894736842104</v>
+        <v>2.1263157894736842</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -11281,11 +11290,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>2.1083916083916083</v>
+        <v>2.1188811188811187</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -11297,11 +11306,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>2.1010452961672472</v>
+        <v>2.1114982578397212</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -11313,11 +11322,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>2.09375</v>
+        <v>2.1041666666666665</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -11329,11 +11338,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>2.0865051903114189</v>
+        <v>2.0968858131487891</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -11345,11 +11354,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>2.079310344827586</v>
+        <v>2.0896551724137931</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -11361,11 +11370,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>2.0721649484536084</v>
+        <v>2.0824742268041239</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -11377,11 +11386,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>2.0650684931506849</v>
+        <v>2.0753424657534247</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -11393,11 +11402,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>2.0580204778156999</v>
+        <v>2.0682593856655291</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -11409,11 +11418,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>2.0510204081632653</v>
+        <v>2.0612244897959182</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -11425,11 +11434,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>2.0440677966101695</v>
+        <v>2.0542372881355933</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -11441,11 +11450,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>2.0371621621621623</v>
+        <v>2.0472972972972974</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -11457,11 +11466,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>2.0303030303030303</v>
+        <v>2.0404040404040402</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -11473,11 +11482,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>2.023489932885906</v>
+        <v>2.0335570469798658</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -11489,11 +11498,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>2.0167224080267561</v>
+        <v>2.0267558528428093</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -11505,11 +11514,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -11521,11 +11530,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>2.0033222591362128</v>
+        <v>2.0132890365448506</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -11537,11 +11546,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>1.9966887417218544</v>
+        <v>2.0066225165562912</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -11553,11 +11562,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>1.9900990099009901</v>
+        <v>2</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -11569,11 +11578,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.9835526315789473</v>
+        <v>1.993421052631579</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -11585,11 +11594,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.9770491803278689</v>
+        <v>1.9868852459016393</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -11601,11 +11610,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.9705882352941178</v>
+        <v>1.9803921568627452</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -11617,11 +11626,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.9641693811074918</v>
+        <v>1.9739413680781759</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -11633,11 +11642,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.9577922077922079</v>
+        <v>1.9675324675324675</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -11649,11 +11658,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.9514563106796117</v>
+        <v>1.9611650485436893</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -11665,11 +11674,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.9451612903225806</v>
+        <v>1.9548387096774194</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -11681,11 +11690,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.9389067524115755</v>
+        <v>1.9485530546623795</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -11697,11 +11706,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.9326923076923077</v>
+        <v>1.9423076923076923</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -11713,11 +11722,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.9265175718849841</v>
+        <v>1.9361022364217253</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -11729,11 +11738,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.9203821656050954</v>
+        <v>1.9299363057324841</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -11745,11 +11754,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.9142857142857144</v>
+        <v>1.9238095238095239</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -11761,11 +11770,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.9082278481012658</v>
+        <v>1.9177215189873418</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -11777,11 +11786,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.9022082018927444</v>
+        <v>1.9116719242902209</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -11793,11 +11802,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.8962264150943395</v>
+        <v>1.9056603773584906</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -11809,11 +11818,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.890282131661442</v>
+        <v>1.8996865203761755</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -11825,11 +11834,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.8843749999999999</v>
+        <v>1.89375</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -11841,11 +11850,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.8785046728971964</v>
+        <v>1.8878504672897196</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -11857,11 +11866,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.8726708074534162</v>
+        <v>1.8819875776397517</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -11873,11 +11882,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.8668730650154799</v>
+        <v>1.8761609907120742</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -11889,11 +11898,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.8611111111111112</v>
+        <v>1.8703703703703705</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -11905,11 +11914,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.8553846153846154</v>
+        <v>1.8646153846153846</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -11921,11 +11930,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.8496932515337423</v>
+        <v>1.8588957055214723</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -11937,11 +11946,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.8440366972477065</v>
+        <v>1.8532110091743119</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -11953,11 +11962,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.8384146341463414</v>
+        <v>1.8475609756097562</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -11969,11 +11978,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.8328267477203648</v>
+        <v>1.8419452887537995</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -11985,11 +11994,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.8272727272727274</v>
+        <v>1.8363636363636364</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -12001,11 +12010,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.8217522658610272</v>
+        <v>1.8308157099697886</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -12017,11 +12026,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.8162650602409638</v>
+        <v>1.8253012048192772</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -12033,11 +12042,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.8108108108108107</v>
+        <v>1.8198198198198199</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -12049,11 +12058,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.8053892215568863</v>
+        <v>1.8143712574850299</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -12065,11 +12074,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.8</v>
+        <v>1.808955223880597</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -12081,11 +12090,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.7946428571428572</v>
+        <v>1.8035714285714286</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -12097,11 +12106,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.7893175074183976</v>
+        <v>1.7982195845697329</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -12113,11 +12122,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.7840236686390532</v>
+        <v>1.7928994082840237</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -12129,11 +12138,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.7787610619469028</v>
+        <v>1.7876106194690264</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -12145,11 +12154,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.7735294117647058</v>
+        <v>1.7823529411764707</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -12161,11 +12170,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.7683284457478006</v>
+        <v>1.7771260997067448</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -12177,11 +12186,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.763157894736842</v>
+        <v>1.7719298245614035</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -12193,11 +12202,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.7580174927113703</v>
+        <v>1.7667638483965014</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -12209,11 +12218,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.7529069767441861</v>
+        <v>1.7616279069767442</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -12225,11 +12234,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.7478260869565216</v>
+        <v>1.7565217391304349</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -12241,11 +12250,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.7427745664739884</v>
+        <v>1.7514450867052023</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -12257,11 +12266,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.7377521613832854</v>
+        <v>1.7463976945244957</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -12273,11 +12282,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.7327586206896552</v>
+        <v>1.7413793103448276</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -12289,11 +12298,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.7277936962750717</v>
+        <v>1.7363896848137537</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -12305,11 +12314,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.7228571428571429</v>
+        <v>1.7314285714285715</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -12321,11 +12330,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.7179487179487178</v>
+        <v>1.7264957264957266</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -12337,11 +12346,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.7130681818181819</v>
+        <v>1.7215909090909092</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -12353,11 +12362,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.708215297450425</v>
+        <v>1.7167138810198301</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -12369,11 +12378,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.7033898305084745</v>
+        <v>1.7118644067796611</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -12385,11 +12394,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.6985915492957746</v>
+        <v>1.7070422535211267</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -12401,11 +12410,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.6938202247191012</v>
+        <v>1.702247191011236</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -12417,11 +12426,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.6890756302521008</v>
+        <v>1.6974789915966386</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -12433,11 +12442,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.6843575418994414</v>
+        <v>1.6927374301675977</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -12449,11 +12458,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.6796657381615598</v>
+        <v>1.6880222841225627</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -12465,11 +12474,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.675</v>
+        <v>1.6833333333333333</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -12481,11 +12490,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.6703601108033241</v>
+        <v>1.6786703601108033</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -12497,11 +12506,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.6657458563535912</v>
+        <v>1.6740331491712708</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -12513,11 +12522,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.6611570247933884</v>
+        <v>1.6694214876033058</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -12529,11 +12538,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.6565934065934067</v>
+        <v>1.6648351648351649</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -12545,11 +12554,11 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.6520547945205479</v>
+        <v>1.6602739726027398</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>

--- a/microblog/album_project/list of averages for album project.xlsx
+++ b/microblog/album_project/list of averages for album project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kodiak/Desktop/windows me/online/main/microblog/album_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA40F7-C1C5-FF44-937A-28ED3659B3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D2809-663E-E643-ABCD-4172E1FC0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBFAA4D0-BDBA-8A4B-8DA1-4DEBBE9A92C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>running sum</t>
   </si>
@@ -734,6 +734,78 @@
   </si>
   <si>
     <t>Comfort Eagle</t>
+  </si>
+  <si>
+    <t>Q: Are We Not Men? A: We Are Devo!</t>
+  </si>
+  <si>
+    <t>Chutes Too Narrow</t>
+  </si>
+  <si>
+    <t>Sling</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>Summertime '06</t>
+  </si>
+  <si>
+    <t>Atrocity Exhibition</t>
+  </si>
+  <si>
+    <t>Run The Jewels 3</t>
+  </si>
+  <si>
+    <t>CAPRISONGS</t>
+  </si>
+  <si>
+    <t>Kaleidoscope Dream</t>
+  </si>
+  <si>
+    <t>untitled unmastered.</t>
+  </si>
+  <si>
+    <t>The Slow Rush</t>
+  </si>
+  <si>
+    <t>Trench</t>
+  </si>
+  <si>
+    <t>On Your Own Love Again</t>
+  </si>
+  <si>
+    <t>To Be Kind</t>
+  </si>
+  <si>
+    <t>The Money Store</t>
+  </si>
+  <si>
+    <t>MM…FOOD</t>
+  </si>
+  <si>
+    <t>beerbongs &amp; bentleys</t>
+  </si>
+  <si>
+    <t>Run The Jewels 4</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Sometimes I Sit and Think, and Sometimes I Just Sit</t>
+  </si>
+  <si>
+    <t>In The Aeroplane Over the Sea</t>
+  </si>
+  <si>
+    <t>Rumours</t>
+  </si>
+  <si>
+    <t>Selected Ambient Works 85-92</t>
+  </si>
+  <si>
+    <t>Dead Cities, Red Seas &amp; Lost Ghosts</t>
   </si>
 </sst>
 </file>
@@ -1424,598 +1496,598 @@
                   <c:v>3.6287425149700598</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.6071428571428572</c:v>
+                  <c:v>3.6190476190476191</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.5857988165680474</c:v>
+                  <c:v>3.6153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.5647058823529414</c:v>
+                  <c:v>3.6176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.5438596491228069</c:v>
+                  <c:v>3.6198830409356724</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.5232558139534884</c:v>
+                  <c:v>3.6220930232558142</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.5028901734104045</c:v>
+                  <c:v>3.6242774566473988</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.4827586206896552</c:v>
+                  <c:v>3.6206896551724137</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.4628571428571431</c:v>
+                  <c:v>3.617142857142857</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.4431818181818183</c:v>
+                  <c:v>3.6193181818181817</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.4237288135593222</c:v>
+                  <c:v>3.6214689265536721</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.404494382022472</c:v>
+                  <c:v>3.6235955056179776</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.3854748603351954</c:v>
+                  <c:v>3.6312849162011172</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.3666666666666667</c:v>
+                  <c:v>3.6277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.3480662983425415</c:v>
+                  <c:v>3.6353591160220993</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.3296703296703298</c:v>
+                  <c:v>3.6373626373626373</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.3114754098360657</c:v>
+                  <c:v>3.639344262295082</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.2934782608695654</c:v>
+                  <c:v>3.6358695652173911</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.2756756756756755</c:v>
+                  <c:v>3.6432432432432433</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.2580645161290325</c:v>
+                  <c:v>3.6451612903225805</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.2406417112299466</c:v>
+                  <c:v>3.6470588235294117</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.2234042553191489</c:v>
+                  <c:v>3.6489361702127661</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.2063492063492065</c:v>
+                  <c:v>3.6560846560846563</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.1894736842105265</c:v>
+                  <c:v>3.6578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.1727748691099475</c:v>
+                  <c:v>3.6544502617801049</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.15625</c:v>
+                  <c:v>3.6354166666666665</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.1398963730569949</c:v>
+                  <c:v>3.616580310880829</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.1237113402061856</c:v>
+                  <c:v>3.597938144329897</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.1076923076923078</c:v>
+                  <c:v>3.5794871794871796</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.0918367346938775</c:v>
+                  <c:v>3.5612244897959182</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.0761421319796955</c:v>
+                  <c:v>3.5431472081218276</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.0606060606060606</c:v>
+                  <c:v>3.5252525252525251</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.0452261306532664</c:v>
+                  <c:v>3.5075376884422109</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.03</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.0149253731343282</c:v>
+                  <c:v>3.472636815920398</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3</c:v>
+                  <c:v>3.4554455445544554</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.9852216748768474</c:v>
+                  <c:v>3.4384236453201971</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.9705882352941178</c:v>
+                  <c:v>3.4215686274509802</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.9560975609756097</c:v>
+                  <c:v>3.4048780487804877</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.941747572815534</c:v>
+                  <c:v>3.3883495145631066</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.9275362318840581</c:v>
+                  <c:v>3.3719806763285023</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.9134615384615383</c:v>
+                  <c:v>3.3557692307692308</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.8995215311004783</c:v>
+                  <c:v>3.339712918660287</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.8857142857142857</c:v>
+                  <c:v>3.323809523809524</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.8720379146919433</c:v>
+                  <c:v>3.3080568720379149</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.858490566037736</c:v>
+                  <c:v>3.2924528301886791</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.8450704225352115</c:v>
+                  <c:v>3.276995305164319</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.8317757009345796</c:v>
+                  <c:v>3.2616822429906542</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.8186046511627909</c:v>
+                  <c:v>3.2465116279069766</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.8055555555555554</c:v>
+                  <c:v>3.2314814814814814</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.7926267281105992</c:v>
+                  <c:v>3.2165898617511521</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.7798165137614679</c:v>
+                  <c:v>3.2018348623853212</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.7671232876712328</c:v>
+                  <c:v>3.1872146118721463</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.7545454545454544</c:v>
+                  <c:v>3.1727272727272728</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.7420814479638009</c:v>
+                  <c:v>3.1583710407239818</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.7297297297297298</c:v>
+                  <c:v>3.144144144144144</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.717488789237668</c:v>
+                  <c:v>3.1300448430493275</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.7053571428571428</c:v>
+                  <c:v>3.1160714285714284</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.6933333333333334</c:v>
+                  <c:v>3.1022222222222222</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.6814159292035398</c:v>
+                  <c:v>3.0884955752212391</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.6696035242290748</c:v>
+                  <c:v>3.0748898678414096</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.6578947368421053</c:v>
+                  <c:v>3.0614035087719298</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.6462882096069871</c:v>
+                  <c:v>3.0480349344978164</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.6347826086956521</c:v>
+                  <c:v>3.034782608695652</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.6233766233766236</c:v>
+                  <c:v>3.0216450216450217</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.6120689655172415</c:v>
+                  <c:v>3.0086206896551726</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.6008583690987126</c:v>
+                  <c:v>2.9957081545064379</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.5897435897435899</c:v>
+                  <c:v>2.982905982905983</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.5787234042553191</c:v>
+                  <c:v>2.9702127659574469</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.5677966101694913</c:v>
+                  <c:v>2.9576271186440679</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.5569620253164556</c:v>
+                  <c:v>2.9451476793248945</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.5462184873949578</c:v>
+                  <c:v>2.9327731092436973</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.5355648535564854</c:v>
+                  <c:v>2.9205020920502092</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.5249999999999999</c:v>
+                  <c:v>2.9083333333333332</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.5145228215767634</c:v>
+                  <c:v>2.896265560165975</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.5041322314049586</c:v>
+                  <c:v>2.884297520661157</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.4938271604938271</c:v>
+                  <c:v>2.8724279835390947</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.4836065573770494</c:v>
+                  <c:v>2.860655737704918</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.4734693877551019</c:v>
+                  <c:v>2.8489795918367347</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.4634146341463414</c:v>
+                  <c:v>2.8373983739837398</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.4534412955465585</c:v>
+                  <c:v>2.8259109311740889</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.443548387096774</c:v>
+                  <c:v>2.814516129032258</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.4337349397590362</c:v>
+                  <c:v>2.8032128514056227</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.4239999999999999</c:v>
+                  <c:v>2.7919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.4143426294820718</c:v>
+                  <c:v>2.7808764940239046</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.4047619047619047</c:v>
+                  <c:v>2.7698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.3952569169960474</c:v>
+                  <c:v>2.7588932806324111</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.3858267716535435</c:v>
+                  <c:v>2.7480314960629921</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.3764705882352941</c:v>
+                  <c:v>2.7372549019607844</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.3671875</c:v>
+                  <c:v>2.7265625</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.3579766536964981</c:v>
+                  <c:v>2.7159533073929962</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.3488372093023258</c:v>
+                  <c:v>2.7054263565891472</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.33976833976834</c:v>
+                  <c:v>2.6949806949806949</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.3307692307692309</c:v>
+                  <c:v>2.6846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.3218390804597702</c:v>
+                  <c:v>2.6743295019157087</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.3129770992366412</c:v>
+                  <c:v>2.66412213740458</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.3041825095057034</c:v>
+                  <c:v>2.6539923954372622</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.2954545454545454</c:v>
+                  <c:v>2.643939393939394</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.2867924528301886</c:v>
+                  <c:v>2.6339622641509433</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.2781954887218046</c:v>
+                  <c:v>2.6240601503759398</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.2696629213483148</c:v>
+                  <c:v>2.6142322097378279</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.2611940298507465</c:v>
+                  <c:v>2.6044776119402986</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.2527881040892193</c:v>
+                  <c:v>2.5947955390334574</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.2444444444444445</c:v>
+                  <c:v>2.585185185185185</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.2361623616236161</c:v>
+                  <c:v>2.5756457564575648</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.2279411764705883</c:v>
+                  <c:v>2.5661764705882355</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.2197802197802199</c:v>
+                  <c:v>2.5567765567765566</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.2116788321167884</c:v>
+                  <c:v>2.5474452554744524</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.2036363636363636</c:v>
+                  <c:v>2.5381818181818181</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.1956521739130435</c:v>
+                  <c:v>2.5289855072463769</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.1877256317689531</c:v>
+                  <c:v>2.5198555956678699</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.1798561151079139</c:v>
+                  <c:v>2.5107913669064748</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.172043010752688</c:v>
+                  <c:v>2.5017921146953404</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.1642857142857141</c:v>
+                  <c:v>2.4928571428571429</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.1565836298932384</c:v>
+                  <c:v>2.4839857651245554</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.1489361702127661</c:v>
+                  <c:v>2.4751773049645389</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2.1413427561837457</c:v>
+                  <c:v>2.4664310954063606</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2.1338028169014085</c:v>
+                  <c:v>2.4577464788732395</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2.1263157894736842</c:v>
+                  <c:v>2.4491228070175439</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2.1188811188811187</c:v>
+                  <c:v>2.4405594405594404</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2.1114982578397212</c:v>
+                  <c:v>2.4320557491289199</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2.1041666666666665</c:v>
+                  <c:v>2.4236111111111112</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.0968858131487891</c:v>
+                  <c:v>2.4152249134948098</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2.0896551724137931</c:v>
+                  <c:v>2.4068965517241381</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.0824742268041239</c:v>
+                  <c:v>2.3986254295532645</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2.0753424657534247</c:v>
+                  <c:v>2.3904109589041096</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2.0682593856655291</c:v>
+                  <c:v>2.3822525597269624</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2.0612244897959182</c:v>
+                  <c:v>2.3741496598639458</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2.0542372881355933</c:v>
+                  <c:v>2.3661016949152542</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2.0472972972972974</c:v>
+                  <c:v>2.3581081081081079</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2.0404040404040402</c:v>
+                  <c:v>2.3501683501683504</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2.0335570469798658</c:v>
+                  <c:v>2.3422818791946307</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2.0267558528428093</c:v>
+                  <c:v>2.3344481605351173</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2.02</c:v>
+                  <c:v>2.3266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>2.0132890365448506</c:v>
+                  <c:v>2.3189368770764118</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>2.0066225165562912</c:v>
+                  <c:v>2.3112582781456954</c:v>
                 </c:pt>
                 <c:pt idx="302">
+                  <c:v>2.3036303630363038</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2.2960526315789473</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2.2885245901639344</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2.2810457516339868</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.2736156351791532</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.2662337662337664</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2.2588996763754046</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2.2516129032258063</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.2443729903536975</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.2371794871794872</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2.230031948881789</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.2229299363057327</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.215873015873016</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.2088607594936707</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2.2018927444794953</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2.1949685534591197</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2.1880877742946709</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2.1812499999999999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2.1744548286604362</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2.1677018633540373</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.1609907120743035</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.1543209876543208</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2.1476923076923078</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2.1411042944785277</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2.1345565749235473</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2.1280487804878048</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2.1215805471124618</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2.1151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>2.1087613293051359</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2.1024096385542168</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2.0960960960960962</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2.0898203592814371</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.0835820895522388</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2.0773809523809526</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2.0712166172106823</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2.0650887573964498</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2.0589970501474926</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2.052941176470588</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2.0469208211143695</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2.0409356725146197</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2.0349854227405246</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>2.0290697674418605</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2.0231884057971015</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2.0173410404624277</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2.011527377521614</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2.0057471264367814</c:v>
+                </c:pt>
+                <c:pt idx="348">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="303">
-                  <c:v>1.993421052631579</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>1.9868852459016393</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>1.9803921568627452</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>1.9739413680781759</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>1.9675324675324675</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>1.9611650485436893</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>1.9548387096774194</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>1.9485530546623795</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>1.9423076923076923</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>1.9361022364217253</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>1.9299363057324841</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>1.9238095238095239</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1.9177215189873418</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>1.9116719242902209</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>1.9056603773584906</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>1.8996865203761755</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>1.89375</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>1.8878504672897196</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>1.8819875776397517</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>1.8761609907120742</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>1.8703703703703705</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>1.8646153846153846</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>1.8588957055214723</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>1.8532110091743119</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>1.8475609756097562</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>1.8419452887537995</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>1.8363636363636364</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>1.8308157099697886</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>1.8253012048192772</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>1.8198198198198199</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>1.8143712574850299</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>1.808955223880597</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>1.8035714285714286</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>1.7982195845697329</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>1.7928994082840237</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>1.7876106194690264</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>1.7823529411764707</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>1.7771260997067448</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>1.7719298245614035</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>1.7667638483965014</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>1.7616279069767442</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>1.7565217391304349</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>1.7514450867052023</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>1.7463976945244957</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>1.7413793103448276</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>1.7363896848137537</c:v>
-                </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.7314285714285715</c:v>
+                  <c:v>1.9942857142857142</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.7264957264957266</c:v>
+                  <c:v>1.9886039886039886</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.7215909090909092</c:v>
+                  <c:v>1.9829545454545454</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.7167138810198301</c:v>
+                  <c:v>1.9773371104815864</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.7118644067796611</c:v>
+                  <c:v>1.9717514124293785</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.7070422535211267</c:v>
+                  <c:v>1.9661971830985916</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.702247191011236</c:v>
+                  <c:v>1.9606741573033708</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.6974789915966386</c:v>
+                  <c:v>1.9551820728291316</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.6927374301675977</c:v>
+                  <c:v>1.9497206703910615</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.6880222841225627</c:v>
+                  <c:v>1.9442896935933147</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.6833333333333333</c:v>
+                  <c:v>1.9388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.6786703601108033</c:v>
+                  <c:v>1.9335180055401662</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.6740331491712708</c:v>
+                  <c:v>1.9281767955801106</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.6694214876033058</c:v>
+                  <c:v>1.9228650137741048</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.6648351648351649</c:v>
+                  <c:v>1.9175824175824177</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.6602739726027398</c:v>
+                  <c:v>1.9123287671232876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2469,10 @@
                   <c:v>3.6774193548387095</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>2.0333333333333332</c:v>
+                  <c:v>3.7666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.2903225806451613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,7 +3027,19 @@
                   <c:v>3.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>3.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E83A4-98E5-4C4B-888B-16FBBAABFC00}">
   <dimension ref="B5:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6820,7 +6907,7 @@
       </c>
       <c r="K67" s="3">
         <f>SUM(D157:D186)/30</f>
-        <v>2.0333333333333332</v>
+        <v>3.7666666666666666</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>174</v>
@@ -6854,6 +6941,10 @@
       <c r="J68" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="K68" s="3">
+        <f>SUM(D187:D217)/31</f>
+        <v>1.2903225806451613</v>
+      </c>
       <c r="N68" s="4" t="s">
         <v>175</v>
       </c>
@@ -7367,7 +7458,7 @@
       </c>
       <c r="O85" s="5">
         <f>SUM(D167:D173)/7</f>
-        <v>3.5714285714285716</v>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
@@ -7394,7 +7485,10 @@
       <c r="N86" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="O86" s="5"/>
+      <c r="O86" s="5">
+        <f>SUM(D174:D180)/7</f>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
@@ -7420,7 +7514,10 @@
       <c r="N87" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="O87" s="5"/>
+      <c r="O87" s="5">
+        <f>SUM(D181:D187)/7</f>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
@@ -7446,7 +7543,10 @@
       <c r="N88" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="O88" s="5"/>
+      <c r="O88" s="5">
+        <f>SUM(D188:D194)/7</f>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
@@ -7472,7 +7572,10 @@
       <c r="N89" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="O89" s="5"/>
+      <c r="O89" s="5">
+        <f>SUM(D195:D201)/7</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
@@ -9400,13 +9503,19 @@
       <c r="B173" s="1">
         <v>44729</v>
       </c>
+      <c r="C173" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2</v>
+      </c>
       <c r="E173" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>3.6071428571428572</v>
+        <v>3.6190476190476191</v>
       </c>
       <c r="G173" s="3">
         <v>168</v>
@@ -9416,13 +9525,19 @@
       <c r="B174" s="1">
         <v>44730</v>
       </c>
+      <c r="C174" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D174" s="3">
+        <v>3</v>
+      </c>
       <c r="E174" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>3.5857988165680474</v>
+        <v>3.6153846153846154</v>
       </c>
       <c r="G174" s="3">
         <v>169</v>
@@ -9432,13 +9547,19 @@
       <c r="B175" s="1">
         <v>44731</v>
       </c>
+      <c r="C175" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D175" s="3">
+        <v>4</v>
+      </c>
       <c r="E175" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>3.5647058823529414</v>
+        <v>3.6176470588235294</v>
       </c>
       <c r="G175" s="3">
         <v>170</v>
@@ -9448,13 +9569,19 @@
       <c r="B176" s="1">
         <v>44732</v>
       </c>
+      <c r="C176" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D176" s="3">
+        <v>4</v>
+      </c>
       <c r="E176" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>3.5438596491228069</v>
+        <v>3.6198830409356724</v>
       </c>
       <c r="G176" s="3">
         <v>171</v>
@@ -9464,13 +9591,19 @@
       <c r="B177" s="1">
         <v>44733</v>
       </c>
+      <c r="C177" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D177" s="3">
+        <v>4</v>
+      </c>
       <c r="E177" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>3.5232558139534884</v>
+        <v>3.6220930232558142</v>
       </c>
       <c r="G177" s="3">
         <v>172</v>
@@ -9480,13 +9613,19 @@
       <c r="B178" s="1">
         <v>44734</v>
       </c>
+      <c r="C178" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D178" s="3">
+        <v>4</v>
+      </c>
       <c r="E178" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>3.5028901734104045</v>
+        <v>3.6242774566473988</v>
       </c>
       <c r="G178" s="3">
         <v>173</v>
@@ -9496,13 +9635,19 @@
       <c r="B179" s="1">
         <v>44735</v>
       </c>
+      <c r="C179" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D179" s="3">
+        <v>3</v>
+      </c>
       <c r="E179" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>3.4827586206896552</v>
+        <v>3.6206896551724137</v>
       </c>
       <c r="G179" s="3">
         <v>174</v>
@@ -9512,13 +9657,19 @@
       <c r="B180" s="1">
         <v>44736</v>
       </c>
+      <c r="C180" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" s="3">
+        <v>3</v>
+      </c>
       <c r="E180" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>3.4628571428571431</v>
+        <v>3.617142857142857</v>
       </c>
       <c r="G180" s="3">
         <v>175</v>
@@ -9528,13 +9679,19 @@
       <c r="B181" s="1">
         <v>44737</v>
       </c>
+      <c r="C181" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D181" s="3">
+        <v>4</v>
+      </c>
       <c r="E181" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>3.4431818181818183</v>
+        <v>3.6193181818181817</v>
       </c>
       <c r="G181" s="3">
         <v>176</v>
@@ -9544,13 +9701,19 @@
       <c r="B182" s="1">
         <v>44738</v>
       </c>
+      <c r="C182" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" s="3">
+        <v>4</v>
+      </c>
       <c r="E182" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>3.4237288135593222</v>
+        <v>3.6214689265536721</v>
       </c>
       <c r="G182" s="3">
         <v>177</v>
@@ -9560,13 +9723,19 @@
       <c r="B183" s="1">
         <v>44739</v>
       </c>
+      <c r="C183" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D183" s="3">
+        <v>4</v>
+      </c>
       <c r="E183" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>3.404494382022472</v>
+        <v>3.6235955056179776</v>
       </c>
       <c r="G183" s="3">
         <v>178</v>
@@ -9576,13 +9745,19 @@
       <c r="B184" s="1">
         <v>44740</v>
       </c>
+      <c r="C184" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D184" s="3">
+        <v>5</v>
+      </c>
       <c r="E184" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>650</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>3.3854748603351954</v>
+        <v>3.6312849162011172</v>
       </c>
       <c r="G184" s="3">
         <v>179</v>
@@ -9592,13 +9767,19 @@
       <c r="B185" s="1">
         <v>44741</v>
       </c>
+      <c r="C185" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D185" s="3">
+        <v>3</v>
+      </c>
       <c r="E185" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>653</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>3.3666666666666667</v>
+        <v>3.6277777777777778</v>
       </c>
       <c r="G185" s="3">
         <v>180</v>
@@ -9608,13 +9789,19 @@
       <c r="B186" s="1">
         <v>44742</v>
       </c>
+      <c r="C186" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D186" s="3">
+        <v>5</v>
+      </c>
       <c r="E186" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>3.3480662983425415</v>
+        <v>3.6353591160220993</v>
       </c>
       <c r="G186" s="3">
         <v>181</v>
@@ -9624,13 +9811,19 @@
       <c r="B187" s="1">
         <v>44743</v>
       </c>
+      <c r="C187" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D187" s="3">
+        <v>4</v>
+      </c>
       <c r="E187" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>662</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>3.3296703296703298</v>
+        <v>3.6373626373626373</v>
       </c>
       <c r="G187" s="3">
         <v>182</v>
@@ -9640,13 +9833,19 @@
       <c r="B188" s="1">
         <v>44744</v>
       </c>
+      <c r="C188" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D188" s="3">
+        <v>4</v>
+      </c>
       <c r="E188" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>666</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>3.3114754098360657</v>
+        <v>3.639344262295082</v>
       </c>
       <c r="G188" s="3">
         <v>183</v>
@@ -9656,13 +9855,19 @@
       <c r="B189" s="1">
         <v>44745</v>
       </c>
+      <c r="C189" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D189" s="3">
+        <v>3</v>
+      </c>
       <c r="E189" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="F189" s="5">
         <f t="shared" si="6"/>
-        <v>3.2934782608695654</v>
+        <v>3.6358695652173911</v>
       </c>
       <c r="G189" s="3">
         <v>184</v>
@@ -9672,13 +9877,19 @@
       <c r="B190" s="1">
         <v>44746</v>
       </c>
+      <c r="C190" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D190" s="3">
+        <v>5</v>
+      </c>
       <c r="E190" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="6"/>
-        <v>3.2756756756756755</v>
+        <v>3.6432432432432433</v>
       </c>
       <c r="G190" s="3">
         <v>185</v>
@@ -9688,13 +9899,19 @@
       <c r="B191" s="1">
         <v>44747</v>
       </c>
+      <c r="C191" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D191" s="3">
+        <v>4</v>
+      </c>
       <c r="E191" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="6"/>
-        <v>3.2580645161290325</v>
+        <v>3.6451612903225805</v>
       </c>
       <c r="G191" s="3">
         <v>186</v>
@@ -9704,13 +9921,19 @@
       <c r="B192" s="1">
         <v>44748</v>
       </c>
+      <c r="C192" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D192" s="3">
+        <v>4</v>
+      </c>
       <c r="E192" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>682</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="6"/>
-        <v>3.2406417112299466</v>
+        <v>3.6470588235294117</v>
       </c>
       <c r="G192" s="3">
         <v>187</v>
@@ -9720,13 +9943,19 @@
       <c r="B193" s="1">
         <v>44749</v>
       </c>
+      <c r="C193" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D193" s="3">
+        <v>4</v>
+      </c>
       <c r="E193" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="6"/>
-        <v>3.2234042553191489</v>
+        <v>3.6489361702127661</v>
       </c>
       <c r="G193" s="3">
         <v>188</v>
@@ -9736,13 +9965,19 @@
       <c r="B194" s="1">
         <v>44750</v>
       </c>
+      <c r="C194" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D194" s="3">
+        <v>5</v>
+      </c>
       <c r="E194" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="6"/>
-        <v>3.2063492063492065</v>
+        <v>3.6560846560846563</v>
       </c>
       <c r="G194" s="3">
         <v>189</v>
@@ -9752,13 +9987,19 @@
       <c r="B195" s="1">
         <v>44751</v>
       </c>
+      <c r="C195" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D195" s="3">
+        <v>4</v>
+      </c>
       <c r="E195" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>695</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="6"/>
-        <v>3.1894736842105265</v>
+        <v>3.6578947368421053</v>
       </c>
       <c r="G195" s="3">
         <v>190</v>
@@ -9768,13 +10009,19 @@
       <c r="B196" s="1">
         <v>44752</v>
       </c>
+      <c r="C196" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D196" s="3">
+        <v>3</v>
+      </c>
       <c r="E196" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="6"/>
-        <v>3.1727748691099475</v>
+        <v>3.6544502617801049</v>
       </c>
       <c r="G196" s="3">
         <v>191</v>
@@ -9786,11 +10033,11 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="6"/>
-        <v>3.15625</v>
+        <v>3.6354166666666665</v>
       </c>
       <c r="G197" s="3">
         <v>192</v>
@@ -9802,11 +10049,11 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="6"/>
-        <v>3.1398963730569949</v>
+        <v>3.616580310880829</v>
       </c>
       <c r="G198" s="3">
         <v>193</v>
@@ -9818,11 +10065,11 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="6"/>
-        <v>3.1237113402061856</v>
+        <v>3.597938144329897</v>
       </c>
       <c r="G199" s="3">
         <v>194</v>
@@ -9834,11 +10081,11 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="6"/>
-        <v>3.1076923076923078</v>
+        <v>3.5794871794871796</v>
       </c>
       <c r="G200" s="3">
         <v>195</v>
@@ -9850,11 +10097,11 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="5"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="6"/>
-        <v>3.0918367346938775</v>
+        <v>3.5612244897959182</v>
       </c>
       <c r="G201" s="3">
         <v>196</v>
@@ -9866,11 +10113,11 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ref="E202:E265" si="7">E201+D202</f>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="6"/>
-        <v>3.0761421319796955</v>
+        <v>3.5431472081218276</v>
       </c>
       <c r="G202" s="3">
         <v>197</v>
@@ -9882,11 +10129,11 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="6"/>
-        <v>3.0606060606060606</v>
+        <v>3.5252525252525251</v>
       </c>
       <c r="G203" s="3">
         <v>198</v>
@@ -9898,11 +10145,11 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="6"/>
-        <v>3.0452261306532664</v>
+        <v>3.5075376884422109</v>
       </c>
       <c r="G204" s="3">
         <v>199</v>
@@ -9914,11 +10161,11 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="6"/>
-        <v>3.03</v>
+        <v>3.49</v>
       </c>
       <c r="G205" s="3">
         <v>200</v>
@@ -9930,11 +10177,11 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="6"/>
-        <v>3.0149253731343282</v>
+        <v>3.472636815920398</v>
       </c>
       <c r="G206" s="3">
         <v>201</v>
@@ -9946,11 +10193,11 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>3.4554455445544554</v>
       </c>
       <c r="G207" s="3">
         <v>202</v>
@@ -9962,11 +10209,11 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="6"/>
-        <v>2.9852216748768474</v>
+        <v>3.4384236453201971</v>
       </c>
       <c r="G208" s="3">
         <v>203</v>
@@ -9978,11 +10225,11 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="6"/>
-        <v>2.9705882352941178</v>
+        <v>3.4215686274509802</v>
       </c>
       <c r="G209" s="3">
         <v>204</v>
@@ -9994,11 +10241,11 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="6"/>
-        <v>2.9560975609756097</v>
+        <v>3.4048780487804877</v>
       </c>
       <c r="G210" s="3">
         <v>205</v>
@@ -10010,11 +10257,11 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="6"/>
-        <v>2.941747572815534</v>
+        <v>3.3883495145631066</v>
       </c>
       <c r="G211" s="3">
         <v>206</v>
@@ -10026,11 +10273,11 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="6"/>
-        <v>2.9275362318840581</v>
+        <v>3.3719806763285023</v>
       </c>
       <c r="G212" s="3">
         <v>207</v>
@@ -10042,11 +10289,11 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="6"/>
-        <v>2.9134615384615383</v>
+        <v>3.3557692307692308</v>
       </c>
       <c r="G213" s="3">
         <v>208</v>
@@ -10058,11 +10305,11 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="6"/>
-        <v>2.8995215311004783</v>
+        <v>3.339712918660287</v>
       </c>
       <c r="G214" s="3">
         <v>209</v>
@@ -10074,11 +10321,11 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="6"/>
-        <v>2.8857142857142857</v>
+        <v>3.323809523809524</v>
       </c>
       <c r="G215" s="3">
         <v>210</v>
@@ -10090,11 +10337,11 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="6"/>
-        <v>2.8720379146919433</v>
+        <v>3.3080568720379149</v>
       </c>
       <c r="G216" s="3">
         <v>211</v>
@@ -10106,11 +10353,11 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="6"/>
-        <v>2.858490566037736</v>
+        <v>3.2924528301886791</v>
       </c>
       <c r="G217" s="3">
         <v>212</v>
@@ -10122,11 +10369,11 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F218" s="5">
         <f t="shared" si="6"/>
-        <v>2.8450704225352115</v>
+        <v>3.276995305164319</v>
       </c>
       <c r="G218" s="3">
         <v>213</v>
@@ -10138,11 +10385,11 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F219" s="5">
         <f t="shared" ref="F219:F282" si="8">E219/G219</f>
-        <v>2.8317757009345796</v>
+        <v>3.2616822429906542</v>
       </c>
       <c r="G219" s="3">
         <v>214</v>
@@ -10154,11 +10401,11 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F220" s="5">
         <f t="shared" si="8"/>
-        <v>2.8186046511627909</v>
+        <v>3.2465116279069766</v>
       </c>
       <c r="G220" s="3">
         <v>215</v>
@@ -10170,11 +10417,11 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F221" s="5">
         <f t="shared" si="8"/>
-        <v>2.8055555555555554</v>
+        <v>3.2314814814814814</v>
       </c>
       <c r="G221" s="3">
         <v>216</v>
@@ -10186,11 +10433,11 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F222" s="5">
         <f t="shared" si="8"/>
-        <v>2.7926267281105992</v>
+        <v>3.2165898617511521</v>
       </c>
       <c r="G222" s="3">
         <v>217</v>
@@ -10202,11 +10449,11 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F223" s="5">
         <f t="shared" si="8"/>
-        <v>2.7798165137614679</v>
+        <v>3.2018348623853212</v>
       </c>
       <c r="G223" s="3">
         <v>218</v>
@@ -10218,11 +10465,11 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F224" s="5">
         <f t="shared" si="8"/>
-        <v>2.7671232876712328</v>
+        <v>3.1872146118721463</v>
       </c>
       <c r="G224" s="3">
         <v>219</v>
@@ -10234,11 +10481,11 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F225" s="5">
         <f t="shared" si="8"/>
-        <v>2.7545454545454544</v>
+        <v>3.1727272727272728</v>
       </c>
       <c r="G225" s="3">
         <v>220</v>
@@ -10250,11 +10497,11 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F226" s="5">
         <f t="shared" si="8"/>
-        <v>2.7420814479638009</v>
+        <v>3.1583710407239818</v>
       </c>
       <c r="G226" s="3">
         <v>221</v>
@@ -10266,11 +10513,11 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F227" s="5">
         <f t="shared" si="8"/>
-        <v>2.7297297297297298</v>
+        <v>3.144144144144144</v>
       </c>
       <c r="G227" s="3">
         <v>222</v>
@@ -10282,11 +10529,11 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F228" s="5">
         <f t="shared" si="8"/>
-        <v>2.717488789237668</v>
+        <v>3.1300448430493275</v>
       </c>
       <c r="G228" s="3">
         <v>223</v>
@@ -10298,11 +10545,11 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F229" s="5">
         <f t="shared" si="8"/>
-        <v>2.7053571428571428</v>
+        <v>3.1160714285714284</v>
       </c>
       <c r="G229" s="3">
         <v>224</v>
@@ -10314,11 +10561,11 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F230" s="5">
         <f t="shared" si="8"/>
-        <v>2.6933333333333334</v>
+        <v>3.1022222222222222</v>
       </c>
       <c r="G230" s="3">
         <v>225</v>
@@ -10330,11 +10577,11 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F231" s="5">
         <f t="shared" si="8"/>
-        <v>2.6814159292035398</v>
+        <v>3.0884955752212391</v>
       </c>
       <c r="G231" s="3">
         <v>226</v>
@@ -10346,11 +10593,11 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F232" s="5">
         <f t="shared" si="8"/>
-        <v>2.6696035242290748</v>
+        <v>3.0748898678414096</v>
       </c>
       <c r="G232" s="3">
         <v>227</v>
@@ -10362,11 +10609,11 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F233" s="5">
         <f t="shared" si="8"/>
-        <v>2.6578947368421053</v>
+        <v>3.0614035087719298</v>
       </c>
       <c r="G233" s="3">
         <v>228</v>
@@ -10378,11 +10625,11 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F234" s="5">
         <f t="shared" si="8"/>
-        <v>2.6462882096069871</v>
+        <v>3.0480349344978164</v>
       </c>
       <c r="G234" s="3">
         <v>229</v>
@@ -10394,11 +10641,11 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F235" s="5">
         <f t="shared" si="8"/>
-        <v>2.6347826086956521</v>
+        <v>3.034782608695652</v>
       </c>
       <c r="G235" s="3">
         <v>230</v>
@@ -10410,11 +10657,11 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F236" s="5">
         <f t="shared" si="8"/>
-        <v>2.6233766233766236</v>
+        <v>3.0216450216450217</v>
       </c>
       <c r="G236" s="3">
         <v>231</v>
@@ -10426,11 +10673,11 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F237" s="5">
         <f t="shared" si="8"/>
-        <v>2.6120689655172415</v>
+        <v>3.0086206896551726</v>
       </c>
       <c r="G237" s="3">
         <v>232</v>
@@ -10442,11 +10689,11 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F238" s="5">
         <f t="shared" si="8"/>
-        <v>2.6008583690987126</v>
+        <v>2.9957081545064379</v>
       </c>
       <c r="G238" s="3">
         <v>233</v>
@@ -10458,11 +10705,11 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F239" s="5">
         <f t="shared" si="8"/>
-        <v>2.5897435897435899</v>
+        <v>2.982905982905983</v>
       </c>
       <c r="G239" s="3">
         <v>234</v>
@@ -10474,11 +10721,11 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F240" s="5">
         <f t="shared" si="8"/>
-        <v>2.5787234042553191</v>
+        <v>2.9702127659574469</v>
       </c>
       <c r="G240" s="3">
         <v>235</v>
@@ -10490,11 +10737,11 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F241" s="5">
         <f t="shared" si="8"/>
-        <v>2.5677966101694913</v>
+        <v>2.9576271186440679</v>
       </c>
       <c r="G241" s="3">
         <v>236</v>
@@ -10506,11 +10753,11 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F242" s="5">
         <f t="shared" si="8"/>
-        <v>2.5569620253164556</v>
+        <v>2.9451476793248945</v>
       </c>
       <c r="G242" s="3">
         <v>237</v>
@@ -10522,11 +10769,11 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F243" s="5">
         <f t="shared" si="8"/>
-        <v>2.5462184873949578</v>
+        <v>2.9327731092436973</v>
       </c>
       <c r="G243" s="3">
         <v>238</v>
@@ -10538,11 +10785,11 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F244" s="5">
         <f t="shared" si="8"/>
-        <v>2.5355648535564854</v>
+        <v>2.9205020920502092</v>
       </c>
       <c r="G244" s="3">
         <v>239</v>
@@ -10554,11 +10801,11 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F245" s="5">
         <f t="shared" si="8"/>
-        <v>2.5249999999999999</v>
+        <v>2.9083333333333332</v>
       </c>
       <c r="G245" s="3">
         <v>240</v>
@@ -10570,11 +10817,11 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F246" s="5">
         <f t="shared" si="8"/>
-        <v>2.5145228215767634</v>
+        <v>2.896265560165975</v>
       </c>
       <c r="G246" s="3">
         <v>241</v>
@@ -10586,11 +10833,11 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F247" s="5">
         <f t="shared" si="8"/>
-        <v>2.5041322314049586</v>
+        <v>2.884297520661157</v>
       </c>
       <c r="G247" s="3">
         <v>242</v>
@@ -10602,11 +10849,11 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F248" s="5">
         <f t="shared" si="8"/>
-        <v>2.4938271604938271</v>
+        <v>2.8724279835390947</v>
       </c>
       <c r="G248" s="3">
         <v>243</v>
@@ -10618,11 +10865,11 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F249" s="5">
         <f t="shared" si="8"/>
-        <v>2.4836065573770494</v>
+        <v>2.860655737704918</v>
       </c>
       <c r="G249" s="3">
         <v>244</v>
@@ -10634,11 +10881,11 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F250" s="5">
         <f t="shared" si="8"/>
-        <v>2.4734693877551019</v>
+        <v>2.8489795918367347</v>
       </c>
       <c r="G250" s="3">
         <v>245</v>
@@ -10650,11 +10897,11 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F251" s="5">
         <f t="shared" si="8"/>
-        <v>2.4634146341463414</v>
+        <v>2.8373983739837398</v>
       </c>
       <c r="G251" s="3">
         <v>246</v>
@@ -10666,11 +10913,11 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F252" s="5">
         <f t="shared" si="8"/>
-        <v>2.4534412955465585</v>
+        <v>2.8259109311740889</v>
       </c>
       <c r="G252" s="3">
         <v>247</v>
@@ -10682,11 +10929,11 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F253" s="5">
         <f t="shared" si="8"/>
-        <v>2.443548387096774</v>
+        <v>2.814516129032258</v>
       </c>
       <c r="G253" s="3">
         <v>248</v>
@@ -10698,11 +10945,11 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F254" s="5">
         <f t="shared" si="8"/>
-        <v>2.4337349397590362</v>
+        <v>2.8032128514056227</v>
       </c>
       <c r="G254" s="3">
         <v>249</v>
@@ -10714,11 +10961,11 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F255" s="5">
         <f t="shared" si="8"/>
-        <v>2.4239999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="G255" s="3">
         <v>250</v>
@@ -10730,11 +10977,11 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F256" s="5">
         <f t="shared" si="8"/>
-        <v>2.4143426294820718</v>
+        <v>2.7808764940239046</v>
       </c>
       <c r="G256" s="3">
         <v>251</v>
@@ -10746,11 +10993,11 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F257" s="5">
         <f t="shared" si="8"/>
-        <v>2.4047619047619047</v>
+        <v>2.7698412698412698</v>
       </c>
       <c r="G257" s="3">
         <v>252</v>
@@ -10762,11 +11009,11 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F258" s="5">
         <f t="shared" si="8"/>
-        <v>2.3952569169960474</v>
+        <v>2.7588932806324111</v>
       </c>
       <c r="G258" s="3">
         <v>253</v>
@@ -10778,11 +11025,11 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F259" s="5">
         <f t="shared" si="8"/>
-        <v>2.3858267716535435</v>
+        <v>2.7480314960629921</v>
       </c>
       <c r="G259" s="3">
         <v>254</v>
@@ -10794,11 +11041,11 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F260" s="5">
         <f t="shared" si="8"/>
-        <v>2.3764705882352941</v>
+        <v>2.7372549019607844</v>
       </c>
       <c r="G260" s="3">
         <v>255</v>
@@ -10810,11 +11057,11 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F261" s="5">
         <f t="shared" si="8"/>
-        <v>2.3671875</v>
+        <v>2.7265625</v>
       </c>
       <c r="G261" s="3">
         <v>256</v>
@@ -10826,11 +11073,11 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F262" s="5">
         <f t="shared" si="8"/>
-        <v>2.3579766536964981</v>
+        <v>2.7159533073929962</v>
       </c>
       <c r="G262" s="3">
         <v>257</v>
@@ -10842,11 +11089,11 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F263" s="5">
         <f t="shared" si="8"/>
-        <v>2.3488372093023258</v>
+        <v>2.7054263565891472</v>
       </c>
       <c r="G263" s="3">
         <v>258</v>
@@ -10858,11 +11105,11 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F264" s="5">
         <f t="shared" si="8"/>
-        <v>2.33976833976834</v>
+        <v>2.6949806949806949</v>
       </c>
       <c r="G264" s="3">
         <v>259</v>
@@ -10874,11 +11121,11 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F265" s="5">
         <f t="shared" si="8"/>
-        <v>2.3307692307692309</v>
+        <v>2.6846153846153844</v>
       </c>
       <c r="G265" s="3">
         <v>260</v>
@@ -10890,11 +11137,11 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ref="E266:E329" si="9">E265+D266</f>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F266" s="5">
         <f t="shared" si="8"/>
-        <v>2.3218390804597702</v>
+        <v>2.6743295019157087</v>
       </c>
       <c r="G266" s="3">
         <v>261</v>
@@ -10906,11 +11153,11 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F267" s="5">
         <f t="shared" si="8"/>
-        <v>2.3129770992366412</v>
+        <v>2.66412213740458</v>
       </c>
       <c r="G267" s="3">
         <v>262</v>
@@ -10922,11 +11169,11 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F268" s="5">
         <f t="shared" si="8"/>
-        <v>2.3041825095057034</v>
+        <v>2.6539923954372622</v>
       </c>
       <c r="G268" s="3">
         <v>263</v>
@@ -10938,11 +11185,11 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F269" s="5">
         <f t="shared" si="8"/>
-        <v>2.2954545454545454</v>
+        <v>2.643939393939394</v>
       </c>
       <c r="G269" s="3">
         <v>264</v>
@@ -10954,11 +11201,11 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F270" s="5">
         <f t="shared" si="8"/>
-        <v>2.2867924528301886</v>
+        <v>2.6339622641509433</v>
       </c>
       <c r="G270" s="3">
         <v>265</v>
@@ -10970,11 +11217,11 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F271" s="5">
         <f t="shared" si="8"/>
-        <v>2.2781954887218046</v>
+        <v>2.6240601503759398</v>
       </c>
       <c r="G271" s="3">
         <v>266</v>
@@ -10986,11 +11233,11 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F272" s="5">
         <f t="shared" si="8"/>
-        <v>2.2696629213483148</v>
+        <v>2.6142322097378279</v>
       </c>
       <c r="G272" s="3">
         <v>267</v>
@@ -11002,11 +11249,11 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F273" s="5">
         <f t="shared" si="8"/>
-        <v>2.2611940298507465</v>
+        <v>2.6044776119402986</v>
       </c>
       <c r="G273" s="3">
         <v>268</v>
@@ -11018,11 +11265,11 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F274" s="5">
         <f t="shared" si="8"/>
-        <v>2.2527881040892193</v>
+        <v>2.5947955390334574</v>
       </c>
       <c r="G274" s="3">
         <v>269</v>
@@ -11034,11 +11281,11 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F275" s="5">
         <f t="shared" si="8"/>
-        <v>2.2444444444444445</v>
+        <v>2.585185185185185</v>
       </c>
       <c r="G275" s="3">
         <v>270</v>
@@ -11050,11 +11297,11 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F276" s="5">
         <f t="shared" si="8"/>
-        <v>2.2361623616236161</v>
+        <v>2.5756457564575648</v>
       </c>
       <c r="G276" s="3">
         <v>271</v>
@@ -11066,11 +11313,11 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F277" s="5">
         <f t="shared" si="8"/>
-        <v>2.2279411764705883</v>
+        <v>2.5661764705882355</v>
       </c>
       <c r="G277" s="3">
         <v>272</v>
@@ -11082,11 +11329,11 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F278" s="5">
         <f t="shared" si="8"/>
-        <v>2.2197802197802199</v>
+        <v>2.5567765567765566</v>
       </c>
       <c r="G278" s="3">
         <v>273</v>
@@ -11098,11 +11345,11 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F279" s="5">
         <f t="shared" si="8"/>
-        <v>2.2116788321167884</v>
+        <v>2.5474452554744524</v>
       </c>
       <c r="G279" s="3">
         <v>274</v>
@@ -11114,11 +11361,11 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F280" s="5">
         <f t="shared" si="8"/>
-        <v>2.2036363636363636</v>
+        <v>2.5381818181818181</v>
       </c>
       <c r="G280" s="3">
         <v>275</v>
@@ -11130,11 +11377,11 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F281" s="5">
         <f t="shared" si="8"/>
-        <v>2.1956521739130435</v>
+        <v>2.5289855072463769</v>
       </c>
       <c r="G281" s="3">
         <v>276</v>
@@ -11146,11 +11393,11 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F282" s="5">
         <f t="shared" si="8"/>
-        <v>2.1877256317689531</v>
+        <v>2.5198555956678699</v>
       </c>
       <c r="G282" s="3">
         <v>277</v>
@@ -11162,11 +11409,11 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F283" s="5">
         <f t="shared" ref="F283:F346" si="10">E283/G283</f>
-        <v>2.1798561151079139</v>
+        <v>2.5107913669064748</v>
       </c>
       <c r="G283" s="3">
         <v>278</v>
@@ -11178,11 +11425,11 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F284" s="5">
         <f t="shared" si="10"/>
-        <v>2.172043010752688</v>
+        <v>2.5017921146953404</v>
       </c>
       <c r="G284" s="3">
         <v>279</v>
@@ -11194,11 +11441,11 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F285" s="5">
         <f t="shared" si="10"/>
-        <v>2.1642857142857141</v>
+        <v>2.4928571428571429</v>
       </c>
       <c r="G285" s="3">
         <v>280</v>
@@ -11210,11 +11457,11 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F286" s="5">
         <f t="shared" si="10"/>
-        <v>2.1565836298932384</v>
+        <v>2.4839857651245554</v>
       </c>
       <c r="G286" s="3">
         <v>281</v>
@@ -11226,11 +11473,11 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F287" s="5">
         <f t="shared" si="10"/>
-        <v>2.1489361702127661</v>
+        <v>2.4751773049645389</v>
       </c>
       <c r="G287" s="3">
         <v>282</v>
@@ -11242,11 +11489,11 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F288" s="5">
         <f t="shared" si="10"/>
-        <v>2.1413427561837457</v>
+        <v>2.4664310954063606</v>
       </c>
       <c r="G288" s="3">
         <v>283</v>
@@ -11258,11 +11505,11 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F289" s="5">
         <f t="shared" si="10"/>
-        <v>2.1338028169014085</v>
+        <v>2.4577464788732395</v>
       </c>
       <c r="G289" s="3">
         <v>284</v>
@@ -11274,11 +11521,11 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F290" s="5">
         <f t="shared" si="10"/>
-        <v>2.1263157894736842</v>
+        <v>2.4491228070175439</v>
       </c>
       <c r="G290" s="3">
         <v>285</v>
@@ -11290,11 +11537,11 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F291" s="5">
         <f t="shared" si="10"/>
-        <v>2.1188811188811187</v>
+        <v>2.4405594405594404</v>
       </c>
       <c r="G291" s="3">
         <v>286</v>
@@ -11306,11 +11553,11 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F292" s="5">
         <f t="shared" si="10"/>
-        <v>2.1114982578397212</v>
+        <v>2.4320557491289199</v>
       </c>
       <c r="G292" s="3">
         <v>287</v>
@@ -11322,11 +11569,11 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F293" s="5">
         <f t="shared" si="10"/>
-        <v>2.1041666666666665</v>
+        <v>2.4236111111111112</v>
       </c>
       <c r="G293" s="3">
         <v>288</v>
@@ -11338,11 +11585,11 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F294" s="5">
         <f t="shared" si="10"/>
-        <v>2.0968858131487891</v>
+        <v>2.4152249134948098</v>
       </c>
       <c r="G294" s="3">
         <v>289</v>
@@ -11354,11 +11601,11 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F295" s="5">
         <f t="shared" si="10"/>
-        <v>2.0896551724137931</v>
+        <v>2.4068965517241381</v>
       </c>
       <c r="G295" s="3">
         <v>290</v>
@@ -11370,11 +11617,11 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F296" s="5">
         <f t="shared" si="10"/>
-        <v>2.0824742268041239</v>
+        <v>2.3986254295532645</v>
       </c>
       <c r="G296" s="3">
         <v>291</v>
@@ -11386,11 +11633,11 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F297" s="5">
         <f t="shared" si="10"/>
-        <v>2.0753424657534247</v>
+        <v>2.3904109589041096</v>
       </c>
       <c r="G297" s="3">
         <v>292</v>
@@ -11402,11 +11649,11 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F298" s="5">
         <f t="shared" si="10"/>
-        <v>2.0682593856655291</v>
+        <v>2.3822525597269624</v>
       </c>
       <c r="G298" s="3">
         <v>293</v>
@@ -11418,11 +11665,11 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F299" s="5">
         <f t="shared" si="10"/>
-        <v>2.0612244897959182</v>
+        <v>2.3741496598639458</v>
       </c>
       <c r="G299" s="3">
         <v>294</v>
@@ -11434,11 +11681,11 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F300" s="5">
         <f t="shared" si="10"/>
-        <v>2.0542372881355933</v>
+        <v>2.3661016949152542</v>
       </c>
       <c r="G300" s="3">
         <v>295</v>
@@ -11450,11 +11697,11 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F301" s="5">
         <f t="shared" si="10"/>
-        <v>2.0472972972972974</v>
+        <v>2.3581081081081079</v>
       </c>
       <c r="G301" s="3">
         <v>296</v>
@@ -11466,11 +11713,11 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F302" s="5">
         <f t="shared" si="10"/>
-        <v>2.0404040404040402</v>
+        <v>2.3501683501683504</v>
       </c>
       <c r="G302" s="3">
         <v>297</v>
@@ -11482,11 +11729,11 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F303" s="5">
         <f t="shared" si="10"/>
-        <v>2.0335570469798658</v>
+        <v>2.3422818791946307</v>
       </c>
       <c r="G303" s="3">
         <v>298</v>
@@ -11498,11 +11745,11 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F304" s="5">
         <f t="shared" si="10"/>
-        <v>2.0267558528428093</v>
+        <v>2.3344481605351173</v>
       </c>
       <c r="G304" s="3">
         <v>299</v>
@@ -11514,11 +11761,11 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F305" s="5">
         <f t="shared" si="10"/>
-        <v>2.02</v>
+        <v>2.3266666666666667</v>
       </c>
       <c r="G305" s="3">
         <v>300</v>
@@ -11530,11 +11777,11 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F306" s="5">
         <f t="shared" si="10"/>
-        <v>2.0132890365448506</v>
+        <v>2.3189368770764118</v>
       </c>
       <c r="G306" s="3">
         <v>301</v>
@@ -11546,11 +11793,11 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F307" s="5">
         <f t="shared" si="10"/>
-        <v>2.0066225165562912</v>
+        <v>2.3112582781456954</v>
       </c>
       <c r="G307" s="3">
         <v>302</v>
@@ -11562,11 +11809,11 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F308" s="5">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2.3036303630363038</v>
       </c>
       <c r="G308" s="3">
         <v>303</v>
@@ -11578,11 +11825,11 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F309" s="5">
         <f t="shared" si="10"/>
-        <v>1.993421052631579</v>
+        <v>2.2960526315789473</v>
       </c>
       <c r="G309" s="3">
         <v>304</v>
@@ -11594,11 +11841,11 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F310" s="5">
         <f t="shared" si="10"/>
-        <v>1.9868852459016393</v>
+        <v>2.2885245901639344</v>
       </c>
       <c r="G310" s="3">
         <v>305</v>
@@ -11610,11 +11857,11 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F311" s="5">
         <f t="shared" si="10"/>
-        <v>1.9803921568627452</v>
+        <v>2.2810457516339868</v>
       </c>
       <c r="G311" s="3">
         <v>306</v>
@@ -11626,11 +11873,11 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F312" s="5">
         <f t="shared" si="10"/>
-        <v>1.9739413680781759</v>
+        <v>2.2736156351791532</v>
       </c>
       <c r="G312" s="3">
         <v>307</v>
@@ -11642,11 +11889,11 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F313" s="5">
         <f t="shared" si="10"/>
-        <v>1.9675324675324675</v>
+        <v>2.2662337662337664</v>
       </c>
       <c r="G313" s="3">
         <v>308</v>
@@ -11658,11 +11905,11 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F314" s="5">
         <f t="shared" si="10"/>
-        <v>1.9611650485436893</v>
+        <v>2.2588996763754046</v>
       </c>
       <c r="G314" s="3">
         <v>309</v>
@@ -11674,11 +11921,11 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F315" s="5">
         <f t="shared" si="10"/>
-        <v>1.9548387096774194</v>
+        <v>2.2516129032258063</v>
       </c>
       <c r="G315" s="3">
         <v>310</v>
@@ -11690,11 +11937,11 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F316" s="5">
         <f t="shared" si="10"/>
-        <v>1.9485530546623795</v>
+        <v>2.2443729903536975</v>
       </c>
       <c r="G316" s="3">
         <v>311</v>
@@ -11706,11 +11953,11 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F317" s="5">
         <f t="shared" si="10"/>
-        <v>1.9423076923076923</v>
+        <v>2.2371794871794872</v>
       </c>
       <c r="G317" s="3">
         <v>312</v>
@@ -11722,11 +11969,11 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F318" s="5">
         <f t="shared" si="10"/>
-        <v>1.9361022364217253</v>
+        <v>2.230031948881789</v>
       </c>
       <c r="G318" s="3">
         <v>313</v>
@@ -11738,11 +11985,11 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F319" s="5">
         <f t="shared" si="10"/>
-        <v>1.9299363057324841</v>
+        <v>2.2229299363057327</v>
       </c>
       <c r="G319" s="3">
         <v>314</v>
@@ -11754,11 +12001,11 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F320" s="5">
         <f t="shared" si="10"/>
-        <v>1.9238095238095239</v>
+        <v>2.215873015873016</v>
       </c>
       <c r="G320" s="3">
         <v>315</v>
@@ -11770,11 +12017,11 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F321" s="5">
         <f t="shared" si="10"/>
-        <v>1.9177215189873418</v>
+        <v>2.2088607594936707</v>
       </c>
       <c r="G321" s="3">
         <v>316</v>
@@ -11786,11 +12033,11 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F322" s="5">
         <f t="shared" si="10"/>
-        <v>1.9116719242902209</v>
+        <v>2.2018927444794953</v>
       </c>
       <c r="G322" s="3">
         <v>317</v>
@@ -11802,11 +12049,11 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F323" s="5">
         <f t="shared" si="10"/>
-        <v>1.9056603773584906</v>
+        <v>2.1949685534591197</v>
       </c>
       <c r="G323" s="3">
         <v>318</v>
@@ -11818,11 +12065,11 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F324" s="5">
         <f t="shared" si="10"/>
-        <v>1.8996865203761755</v>
+        <v>2.1880877742946709</v>
       </c>
       <c r="G324" s="3">
         <v>319</v>
@@ -11834,11 +12081,11 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F325" s="5">
         <f t="shared" si="10"/>
-        <v>1.89375</v>
+        <v>2.1812499999999999</v>
       </c>
       <c r="G325" s="3">
         <v>320</v>
@@ -11850,11 +12097,11 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F326" s="5">
         <f t="shared" si="10"/>
-        <v>1.8878504672897196</v>
+        <v>2.1744548286604362</v>
       </c>
       <c r="G326" s="3">
         <v>321</v>
@@ -11866,11 +12113,11 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F327" s="5">
         <f t="shared" si="10"/>
-        <v>1.8819875776397517</v>
+        <v>2.1677018633540373</v>
       </c>
       <c r="G327" s="3">
         <v>322</v>
@@ -11882,11 +12129,11 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F328" s="5">
         <f t="shared" si="10"/>
-        <v>1.8761609907120742</v>
+        <v>2.1609907120743035</v>
       </c>
       <c r="G328" s="3">
         <v>323</v>
@@ -11898,11 +12145,11 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F329" s="5">
         <f t="shared" si="10"/>
-        <v>1.8703703703703705</v>
+        <v>2.1543209876543208</v>
       </c>
       <c r="G329" s="3">
         <v>324</v>
@@ -11914,11 +12161,11 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" ref="E330:E370" si="11">E329+D330</f>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F330" s="5">
         <f t="shared" si="10"/>
-        <v>1.8646153846153846</v>
+        <v>2.1476923076923078</v>
       </c>
       <c r="G330" s="3">
         <v>325</v>
@@ -11930,11 +12177,11 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F331" s="5">
         <f t="shared" si="10"/>
-        <v>1.8588957055214723</v>
+        <v>2.1411042944785277</v>
       </c>
       <c r="G331" s="3">
         <v>326</v>
@@ -11946,11 +12193,11 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F332" s="5">
         <f t="shared" si="10"/>
-        <v>1.8532110091743119</v>
+        <v>2.1345565749235473</v>
       </c>
       <c r="G332" s="3">
         <v>327</v>
@@ -11962,11 +12209,11 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F333" s="5">
         <f t="shared" si="10"/>
-        <v>1.8475609756097562</v>
+        <v>2.1280487804878048</v>
       </c>
       <c r="G333" s="3">
         <v>328</v>
@@ -11978,11 +12225,11 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F334" s="5">
         <f t="shared" si="10"/>
-        <v>1.8419452887537995</v>
+        <v>2.1215805471124618</v>
       </c>
       <c r="G334" s="3">
         <v>329</v>
@@ -11994,11 +12241,11 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F335" s="5">
         <f t="shared" si="10"/>
-        <v>1.8363636363636364</v>
+        <v>2.1151515151515152</v>
       </c>
       <c r="G335" s="3">
         <v>330</v>
@@ -12010,11 +12257,11 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F336" s="5">
         <f t="shared" si="10"/>
-        <v>1.8308157099697886</v>
+        <v>2.1087613293051359</v>
       </c>
       <c r="G336" s="3">
         <v>331</v>
@@ -12026,11 +12273,11 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F337" s="5">
         <f t="shared" si="10"/>
-        <v>1.8253012048192772</v>
+        <v>2.1024096385542168</v>
       </c>
       <c r="G337" s="3">
         <v>332</v>
@@ -12042,11 +12289,11 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F338" s="5">
         <f t="shared" si="10"/>
-        <v>1.8198198198198199</v>
+        <v>2.0960960960960962</v>
       </c>
       <c r="G338" s="3">
         <v>333</v>
@@ -12058,11 +12305,11 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F339" s="5">
         <f t="shared" si="10"/>
-        <v>1.8143712574850299</v>
+        <v>2.0898203592814371</v>
       </c>
       <c r="G339" s="3">
         <v>334</v>
@@ -12074,11 +12321,11 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F340" s="5">
         <f t="shared" si="10"/>
-        <v>1.808955223880597</v>
+        <v>2.0835820895522388</v>
       </c>
       <c r="G340" s="3">
         <v>335</v>
@@ -12090,11 +12337,11 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F341" s="5">
         <f t="shared" si="10"/>
-        <v>1.8035714285714286</v>
+        <v>2.0773809523809526</v>
       </c>
       <c r="G341" s="3">
         <v>336</v>
@@ -12106,11 +12353,11 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F342" s="5">
         <f t="shared" si="10"/>
-        <v>1.7982195845697329</v>
+        <v>2.0712166172106823</v>
       </c>
       <c r="G342" s="3">
         <v>337</v>
@@ -12122,11 +12369,11 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F343" s="5">
         <f t="shared" si="10"/>
-        <v>1.7928994082840237</v>
+        <v>2.0650887573964498</v>
       </c>
       <c r="G343" s="3">
         <v>338</v>
@@ -12138,11 +12385,11 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F344" s="5">
         <f t="shared" si="10"/>
-        <v>1.7876106194690264</v>
+        <v>2.0589970501474926</v>
       </c>
       <c r="G344" s="3">
         <v>339</v>
@@ -12154,11 +12401,11 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F345" s="5">
         <f t="shared" si="10"/>
-        <v>1.7823529411764707</v>
+        <v>2.052941176470588</v>
       </c>
       <c r="G345" s="3">
         <v>340</v>
@@ -12170,11 +12417,11 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F346" s="5">
         <f t="shared" si="10"/>
-        <v>1.7771260997067448</v>
+        <v>2.0469208211143695</v>
       </c>
       <c r="G346" s="3">
         <v>341</v>
@@ -12186,11 +12433,11 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F347" s="5">
         <f t="shared" ref="F347:F370" si="12">E347/G347</f>
-        <v>1.7719298245614035</v>
+        <v>2.0409356725146197</v>
       </c>
       <c r="G347" s="3">
         <v>342</v>
@@ -12202,11 +12449,11 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F348" s="5">
         <f t="shared" si="12"/>
-        <v>1.7667638483965014</v>
+        <v>2.0349854227405246</v>
       </c>
       <c r="G348" s="3">
         <v>343</v>
@@ -12218,11 +12465,11 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F349" s="5">
         <f t="shared" si="12"/>
-        <v>1.7616279069767442</v>
+        <v>2.0290697674418605</v>
       </c>
       <c r="G349" s="3">
         <v>344</v>
@@ -12234,11 +12481,11 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F350" s="5">
         <f t="shared" si="12"/>
-        <v>1.7565217391304349</v>
+        <v>2.0231884057971015</v>
       </c>
       <c r="G350" s="3">
         <v>345</v>
@@ -12250,11 +12497,11 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F351" s="5">
         <f t="shared" si="12"/>
-        <v>1.7514450867052023</v>
+        <v>2.0173410404624277</v>
       </c>
       <c r="G351" s="3">
         <v>346</v>
@@ -12266,11 +12513,11 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F352" s="5">
         <f t="shared" si="12"/>
-        <v>1.7463976945244957</v>
+        <v>2.011527377521614</v>
       </c>
       <c r="G352" s="3">
         <v>347</v>
@@ -12282,11 +12529,11 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F353" s="5">
         <f t="shared" si="12"/>
-        <v>1.7413793103448276</v>
+        <v>2.0057471264367814</v>
       </c>
       <c r="G353" s="3">
         <v>348</v>
@@ -12298,11 +12545,11 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F354" s="5">
         <f t="shared" si="12"/>
-        <v>1.7363896848137537</v>
+        <v>2</v>
       </c>
       <c r="G354" s="3">
         <v>349</v>
@@ -12314,11 +12561,11 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F355" s="5">
         <f t="shared" si="12"/>
-        <v>1.7314285714285715</v>
+        <v>1.9942857142857142</v>
       </c>
       <c r="G355" s="3">
         <v>350</v>
@@ -12330,11 +12577,11 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F356" s="5">
         <f t="shared" si="12"/>
-        <v>1.7264957264957266</v>
+        <v>1.9886039886039886</v>
       </c>
       <c r="G356" s="3">
         <v>351</v>
@@ -12346,11 +12593,11 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F357" s="5">
         <f t="shared" si="12"/>
-        <v>1.7215909090909092</v>
+        <v>1.9829545454545454</v>
       </c>
       <c r="G357" s="3">
         <v>352</v>
@@ -12362,11 +12609,11 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F358" s="5">
         <f t="shared" si="12"/>
-        <v>1.7167138810198301</v>
+        <v>1.9773371104815864</v>
       </c>
       <c r="G358" s="3">
         <v>353</v>
@@ -12378,11 +12625,11 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F359" s="5">
         <f t="shared" si="12"/>
-        <v>1.7118644067796611</v>
+        <v>1.9717514124293785</v>
       </c>
       <c r="G359" s="3">
         <v>354</v>
@@ -12394,11 +12641,11 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F360" s="5">
         <f t="shared" si="12"/>
-        <v>1.7070422535211267</v>
+        <v>1.9661971830985916</v>
       </c>
       <c r="G360" s="3">
         <v>355</v>
@@ -12410,11 +12657,11 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F361" s="5">
         <f t="shared" si="12"/>
-        <v>1.702247191011236</v>
+        <v>1.9606741573033708</v>
       </c>
       <c r="G361" s="3">
         <v>356</v>
@@ -12426,11 +12673,11 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F362" s="5">
         <f t="shared" si="12"/>
-        <v>1.6974789915966386</v>
+        <v>1.9551820728291316</v>
       </c>
       <c r="G362" s="3">
         <v>357</v>
@@ -12442,11 +12689,11 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F363" s="5">
         <f t="shared" si="12"/>
-        <v>1.6927374301675977</v>
+        <v>1.9497206703910615</v>
       </c>
       <c r="G363" s="3">
         <v>358</v>
@@ -12458,11 +12705,11 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F364" s="5">
         <f t="shared" si="12"/>
-        <v>1.6880222841225627</v>
+        <v>1.9442896935933147</v>
       </c>
       <c r="G364" s="3">
         <v>359</v>
@@ -12474,11 +12721,11 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F365" s="5">
         <f t="shared" si="12"/>
-        <v>1.6833333333333333</v>
+        <v>1.9388888888888889</v>
       </c>
       <c r="G365" s="3">
         <v>360</v>
@@ -12490,11 +12737,11 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F366" s="5">
         <f t="shared" si="12"/>
-        <v>1.6786703601108033</v>
+        <v>1.9335180055401662</v>
       </c>
       <c r="G366" s="3">
         <v>361</v>
@@ -12506,11 +12753,11 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F367" s="5">
         <f t="shared" si="12"/>
-        <v>1.6740331491712708</v>
+        <v>1.9281767955801106</v>
       </c>
       <c r="G367" s="3">
         <v>362</v>
@@ -12522,11 +12769,11 @@
       </c>
       <c r="E368" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F368" s="5">
         <f t="shared" si="12"/>
-        <v>1.6694214876033058</v>
+        <v>1.9228650137741048</v>
       </c>
       <c r="G368" s="3">
         <v>363</v>
@@ -12538,11 +12785,11 @@
       </c>
       <c r="E369" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F369" s="5">
         <f t="shared" si="12"/>
-        <v>1.6648351648351649</v>
+        <v>1.9175824175824177</v>
       </c>
       <c r="G369" s="3">
         <v>364</v>
@@ -12554,11 +12801,11 @@
       </c>
       <c r="E370" s="3">
         <f t="shared" si="11"/>
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="F370" s="5">
         <f t="shared" si="12"/>
-        <v>1.6602739726027398</v>
+        <v>1.9123287671232876</v>
       </c>
       <c r="G370" s="3">
         <v>365</v>
@@ -12568,7 +12815,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K62:K67 O62:O85" formulaRange="1"/>
+    <ignoredError sqref="K62:K68 O62:O89" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
